--- a/Система управления задачами - чек-лист.xlsx
+++ b/Система управления задачами - чек-лист.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\git\git-practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Стажировка\Марина Матвеюк\git-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="235">
   <si>
     <t>Приложение для управления задачами - Чек-лист для проведения функционального тестирования</t>
   </si>
@@ -757,6 +757,40 @@
   </si>
   <si>
     <t>Комбинации буквы + цифры + допустимые спец.символы (49 символов)</t>
+  </si>
+  <si>
+    <t>Это разные кнопки, проверять надо отдельно</t>
+  </si>
+  <si>
+    <t>Лучше записать как "Расположение полей". Т.к. "в соответсвии с требованиями" подразумевается в каждрм пункте.</t>
+  </si>
+  <si>
+    <t>Первой внесённой в систему или первой в списке?</t>
+  </si>
+  <si>
+    <t>Некорректная проверка, поле обязательно для заполнения</t>
+  </si>
+  <si>
+    <t>Непонятно, почему именно 25. Если кол-во не важно, то не стоит указывать. В прерыдущих проверках кол-во не указано.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Непонятно, почему именно такое число </t>
+  </si>
+  <si>
+    <t>Непонятно, почему именно такое число (10 - это число, цифры - это 1 и 0). Нужно конкретизировать название проверки</t>
+  </si>
+  <si>
+    <t>Утончить, что значит "только"</t>
+  </si>
+  <si>
+    <t>Непонятно, почему именно при 25</t>
+  </si>
+  <si>
+    <t>Нужно указать конкретную цель проверки. А при проведении тестирования выполнять комбинации проверок.
+Иначе если будет дефект при вводе цифр, например, то не пройдёт целый ряд тестов.</t>
+  </si>
+  <si>
+    <t>Маловероятно, что в зависимости от местополжения будет некорректное отображение значения из БД. Скорее, может быть проблема с отображением любой записи на первой и последней позиции, либо проблема с отображением конкретных символов</t>
   </si>
 </sst>
 </file>
@@ -1027,49 +1061,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2" tint="-0.14999847407452621"/>
         <bgColor rgb="FF071739"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2" tint="-0.14999847407452621"/>
         <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2" tint="-0.14999847407452621"/>
         <bgColor rgb="FF1F497D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2" tint="-0.14999847407452621"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2" tint="-0.14999847407452621"/>
         <bgColor rgb="FF3159AA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2" tint="-0.14999847407452621"/>
         <bgColor rgb="FF8DB3E2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2" tint="-0.14999847407452621"/>
         <bgColor rgb="FFC6D9F0"/>
       </patternFill>
     </fill>
@@ -1190,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1252,18 +1286,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1280,22 +1311,16 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1311,45 +1336,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1376,20 +1364,10 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1397,9 +1375,102 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1619,19 +1690,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="133.44140625" customWidth="1"/>
+    <col min="2" max="2" width="133.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1639,7 +1710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1647,7 +1718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1655,7 +1726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1663,17 +1734,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98" t="s">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="99"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="75"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1681,7 +1752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -1689,7 +1760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
@@ -1697,7 +1768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
@@ -1705,7 +1776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
@@ -1713,7 +1784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -1721,7 +1792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
@@ -1744,25 +1815,25 @@
   </sheetPr>
   <dimension ref="A1:AB444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="84.21875" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="77" customWidth="1"/>
+    <col min="1" max="1" width="84.1796875" customWidth="1"/>
+    <col min="2" max="2" width="42.54296875" style="93" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" style="106" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="94" t="s">
         <v>103</v>
       </c>
       <c r="D1" s="15" t="s">
@@ -1796,10 +1867,10 @@
       <c r="Z1" s="16"/>
       <c r="AA1" s="16"/>
     </row>
-    <row r="2" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="95"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -1825,12 +1896,12 @@
       <c r="Z2" s="18"/>
       <c r="AA2" s="18"/>
     </row>
-    <row r="3" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
@@ -1856,43 +1927,43 @@
       <c r="Z3" s="26"/>
       <c r="AA3" s="20"/>
     </row>
-    <row r="4" spans="1:27" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+    <row r="4" spans="1:27" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="54"/>
-    </row>
-    <row r="5" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="47"/>
+    </row>
+    <row r="5" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="71"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -1918,12 +1989,12 @@
       <c r="Z5" s="25"/>
       <c r="AA5" s="25"/>
     </row>
-    <row r="6" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+    <row r="6" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="71"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -1949,12 +2020,12 @@
       <c r="Z6" s="25"/>
       <c r="AA6" s="25"/>
     </row>
-    <row r="7" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="78" t="s">
+    <row r="7" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="71"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
@@ -1980,12 +2051,12 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="25"/>
     </row>
-    <row r="8" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="72"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -2011,12 +2082,12 @@
       <c r="Z8" s="28"/>
       <c r="AA8" s="28"/>
     </row>
-    <row r="9" spans="1:27" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="s">
+    <row r="9" spans="1:27" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
@@ -2042,12 +2113,12 @@
       <c r="Z9" s="21"/>
       <c r="AA9" s="21"/>
     </row>
-    <row r="10" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="78" t="s">
+    <row r="10" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="71"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -2073,12 +2144,14 @@
       <c r="Z10" s="25"/>
       <c r="AA10" s="25"/>
     </row>
-    <row r="11" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="78" t="s">
+    <row r="11" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="98" t="s">
+        <v>224</v>
+      </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -2104,12 +2177,12 @@
       <c r="Z11" s="25"/>
       <c r="AA11" s="25"/>
     </row>
-    <row r="12" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+    <row r="12" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="92"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -2135,12 +2208,14 @@
       <c r="Z12" s="25"/>
       <c r="AA12" s="25"/>
     </row>
-    <row r="13" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
+    <row r="13" spans="1:27" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="98" t="s">
+        <v>234</v>
+      </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
@@ -2166,12 +2241,12 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="25"/>
     </row>
-    <row r="14" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
+    <row r="14" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
@@ -2197,12 +2272,12 @@
       <c r="Z14" s="25"/>
       <c r="AA14" s="25"/>
     </row>
-    <row r="15" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="78" t="s">
+    <row r="15" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
@@ -2228,12 +2303,12 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="25"/>
     </row>
-    <row r="16" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="s">
+    <row r="16" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
@@ -2259,12 +2334,12 @@
       <c r="Z16" s="25"/>
       <c r="AA16" s="25"/>
     </row>
-    <row r="17" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="79" t="s">
+    <row r="17" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="92"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
@@ -2290,12 +2365,14 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="25"/>
     </row>
-    <row r="18" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
+    <row r="18" spans="1:27" ht="87" x14ac:dyDescent="0.35">
+      <c r="A18" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="71"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="98" t="s">
+        <v>225</v>
+      </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
@@ -2321,12 +2398,12 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="25"/>
     </row>
-    <row r="19" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="79" t="s">
+    <row r="19" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="71"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
@@ -2352,12 +2429,12 @@
       <c r="Z19" s="25"/>
       <c r="AA19" s="25"/>
     </row>
-    <row r="20" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="79" t="s">
+    <row r="20" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="71"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="98"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
@@ -2383,12 +2460,12 @@
       <c r="Z20" s="25"/>
       <c r="AA20" s="25"/>
     </row>
-    <row r="21" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="s">
+    <row r="21" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="71"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="98"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
@@ -2414,12 +2491,14 @@
       <c r="Z21" s="25"/>
       <c r="AA21" s="25"/>
     </row>
-    <row r="22" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="78" t="s">
+    <row r="22" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="71"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="98" t="s">
+        <v>226</v>
+      </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
@@ -2445,12 +2524,12 @@
       <c r="Z22" s="25"/>
       <c r="AA22" s="25"/>
     </row>
-    <row r="23" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
+    <row r="23" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="98"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
@@ -2476,12 +2555,12 @@
       <c r="Z23" s="25"/>
       <c r="AA23" s="25"/>
     </row>
-    <row r="24" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
+    <row r="24" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="71"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="98"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
@@ -2507,43 +2586,43 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="25"/>
     </row>
-    <row r="25" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+    <row r="25" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-    </row>
-    <row r="26" spans="1:27" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+    </row>
+    <row r="26" spans="1:27" ht="115.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="74"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
@@ -2569,12 +2648,12 @@
       <c r="Z26" s="27"/>
       <c r="AA26" s="27"/>
     </row>
-    <row r="27" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
+    <row r="27" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="74"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
@@ -2600,12 +2679,12 @@
       <c r="Z27" s="27"/>
       <c r="AA27" s="27"/>
     </row>
-    <row r="28" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="s">
+    <row r="28" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="74"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -2631,12 +2710,12 @@
       <c r="Z28" s="27"/>
       <c r="AA28" s="27"/>
     </row>
-    <row r="29" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
+    <row r="29" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="74"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
@@ -2662,12 +2741,12 @@
       <c r="Z29" s="27"/>
       <c r="AA29" s="27"/>
     </row>
-    <row r="30" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="s">
+    <row r="30" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="74"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
@@ -2693,12 +2772,12 @@
       <c r="Z30" s="27"/>
       <c r="AA30" s="27"/>
     </row>
-    <row r="31" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="78" t="s">
+    <row r="31" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="74"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
@@ -2724,12 +2803,12 @@
       <c r="Z31" s="27"/>
       <c r="AA31" s="27"/>
     </row>
-    <row r="32" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="78" t="s">
+    <row r="32" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="74"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
@@ -2755,12 +2834,12 @@
       <c r="Z32" s="27"/>
       <c r="AA32" s="27"/>
     </row>
-    <row r="33" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="78" t="s">
+    <row r="33" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="74"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="101"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
@@ -2786,12 +2865,12 @@
       <c r="Z33" s="27"/>
       <c r="AA33" s="27"/>
     </row>
-    <row r="34" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="79" t="s">
+    <row r="34" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="74"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="101"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
@@ -2817,12 +2896,12 @@
       <c r="Z34" s="27"/>
       <c r="AA34" s="27"/>
     </row>
-    <row r="35" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="78" t="s">
+    <row r="35" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="74"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
@@ -2848,12 +2927,12 @@
       <c r="Z35" s="27"/>
       <c r="AA35" s="27"/>
     </row>
-    <row r="36" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="79" t="s">
+    <row r="36" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="74"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="101"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
@@ -2879,12 +2958,12 @@
       <c r="Z36" s="27"/>
       <c r="AA36" s="27"/>
     </row>
-    <row r="37" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="79" t="s">
+    <row r="37" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="74"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="101"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
@@ -2910,12 +2989,12 @@
       <c r="Z37" s="27"/>
       <c r="AA37" s="27"/>
     </row>
-    <row r="38" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="78" t="s">
+    <row r="38" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="74"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="101"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
@@ -2941,12 +3020,12 @@
       <c r="Z38" s="27"/>
       <c r="AA38" s="27"/>
     </row>
-    <row r="39" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="78" t="s">
+    <row r="39" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="74"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="101"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
@@ -2972,12 +3051,12 @@
       <c r="Z39" s="27"/>
       <c r="AA39" s="27"/>
     </row>
-    <row r="40" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="78" t="s">
+    <row r="40" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="74"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="101"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
@@ -3003,12 +3082,12 @@
       <c r="Z40" s="27"/>
       <c r="AA40" s="27"/>
     </row>
-    <row r="41" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="78" t="s">
+    <row r="41" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="74"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="101"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
@@ -3034,43 +3113,43 @@
       <c r="Z41" s="27"/>
       <c r="AA41" s="27"/>
     </row>
-    <row r="42" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="58" t="s">
+    <row r="42" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-    </row>
-    <row r="43" spans="1:27" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="57" t="s">
+      <c r="B42" s="84"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="33"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="33"/>
+      <c r="AA42" s="33"/>
+    </row>
+    <row r="43" spans="1:27" ht="87" x14ac:dyDescent="0.35">
+      <c r="A43" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="74"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="101"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
@@ -3096,12 +3175,12 @@
       <c r="Z43" s="29"/>
       <c r="AA43" s="29"/>
     </row>
-    <row r="44" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="78" t="s">
+    <row r="44" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="74"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="101"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
       <c r="F44" s="27"/>
@@ -3127,12 +3206,12 @@
       <c r="Z44" s="29"/>
       <c r="AA44" s="29"/>
     </row>
-    <row r="45" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="78" t="s">
+    <row r="45" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="74"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="101"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
@@ -3158,12 +3237,12 @@
       <c r="Z45" s="27"/>
       <c r="AA45" s="27"/>
     </row>
-    <row r="46" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="78" t="s">
+    <row r="46" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="74"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="101"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
       <c r="F46" s="27"/>
@@ -3189,12 +3268,12 @@
       <c r="Z46" s="27"/>
       <c r="AA46" s="27"/>
     </row>
-    <row r="47" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="78" t="s">
+    <row r="47" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="74"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="101"/>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
       <c r="F47" s="27"/>
@@ -3220,12 +3299,12 @@
       <c r="Z47" s="27"/>
       <c r="AA47" s="27"/>
     </row>
-    <row r="48" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="78" t="s">
+    <row r="48" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="74"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="101"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
       <c r="F48" s="27"/>
@@ -3251,12 +3330,12 @@
       <c r="Z48" s="27"/>
       <c r="AA48" s="27"/>
     </row>
-    <row r="49" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="78" t="s">
+    <row r="49" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="74"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="101"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
@@ -3282,12 +3361,12 @@
       <c r="Z49" s="27"/>
       <c r="AA49" s="27"/>
     </row>
-    <row r="50" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="78" t="s">
+    <row r="50" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="74"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="101"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
@@ -3313,12 +3392,12 @@
       <c r="Z50" s="27"/>
       <c r="AA50" s="27"/>
     </row>
-    <row r="51" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="79" t="s">
+    <row r="51" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="74"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="101"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
@@ -3344,12 +3423,12 @@
       <c r="Z51" s="27"/>
       <c r="AA51" s="27"/>
     </row>
-    <row r="52" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="78" t="s">
+    <row r="52" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="74"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="101"/>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
       <c r="F52" s="27"/>
@@ -3375,12 +3454,12 @@
       <c r="Z52" s="27"/>
       <c r="AA52" s="27"/>
     </row>
-    <row r="53" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="79" t="s">
+    <row r="53" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="74"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="101"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
@@ -3406,12 +3485,12 @@
       <c r="Z53" s="27"/>
       <c r="AA53" s="27"/>
     </row>
-    <row r="54" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="79" t="s">
+    <row r="54" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="74"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="101"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
       <c r="F54" s="27"/>
@@ -3437,12 +3516,12 @@
       <c r="Z54" s="27"/>
       <c r="AA54" s="27"/>
     </row>
-    <row r="55" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="78" t="s">
+    <row r="55" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="74"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="101"/>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
@@ -3468,12 +3547,12 @@
       <c r="Z55" s="27"/>
       <c r="AA55" s="27"/>
     </row>
-    <row r="56" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="78" t="s">
+    <row r="56" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="74"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="101"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
       <c r="F56" s="27"/>
@@ -3499,12 +3578,12 @@
       <c r="Z56" s="27"/>
       <c r="AA56" s="27"/>
     </row>
-    <row r="57" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="78" t="s">
+    <row r="57" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="74"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="101"/>
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
       <c r="F57" s="27"/>
@@ -3530,12 +3609,12 @@
       <c r="Z57" s="27"/>
       <c r="AA57" s="27"/>
     </row>
-    <row r="58" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="78" t="s">
+    <row r="58" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="74"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="101"/>
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
       <c r="F58" s="27"/>
@@ -3561,43 +3640,43 @@
       <c r="Z58" s="27"/>
       <c r="AA58" s="27"/>
     </row>
-    <row r="59" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="59" t="s">
+    <row r="59" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="38"/>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
-      <c r="Z59" s="38"/>
-      <c r="AA59" s="38"/>
-    </row>
-    <row r="60" spans="1:28" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="81" t="s">
+      <c r="B59" s="85"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
+    </row>
+    <row r="60" spans="1:28" ht="85.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="74"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="101"/>
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
       <c r="F60" s="27"/>
@@ -3623,108 +3702,108 @@
       <c r="Z60" s="29"/>
       <c r="AA60" s="29"/>
     </row>
-    <row r="61" spans="1:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="81" t="s">
+    <row r="61" spans="1:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="74"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="101"/>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="40"/>
-      <c r="V61" s="40"/>
-      <c r="W61" s="40"/>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="40"/>
-      <c r="Z61" s="40"/>
-      <c r="AA61" s="40"/>
-      <c r="AB61" s="41"/>
-    </row>
-    <row r="62" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="81" t="s">
+      <c r="H61" s="36"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="37"/>
+      <c r="Z61" s="37"/>
+      <c r="AA61" s="37"/>
+      <c r="AB61" s="38"/>
+    </row>
+    <row r="62" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="74"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="101"/>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
-      <c r="T62" s="42"/>
-      <c r="U62" s="42"/>
-      <c r="V62" s="42"/>
-      <c r="W62" s="42"/>
-      <c r="X62" s="42"/>
-      <c r="Y62" s="42"/>
-      <c r="Z62" s="42"/>
-      <c r="AA62" s="42"/>
-      <c r="AB62" s="41"/>
-    </row>
-    <row r="63" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="81" t="s">
+      <c r="H62" s="36"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
+      <c r="Z62" s="39"/>
+      <c r="AA62" s="39"/>
+      <c r="AB62" s="38"/>
+    </row>
+    <row r="63" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="74"/>
+      <c r="B63" s="83"/>
+      <c r="C63" s="101"/>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="42"/>
-      <c r="P63" s="42"/>
-      <c r="Q63" s="42"/>
-      <c r="R63" s="42"/>
-      <c r="S63" s="42"/>
-      <c r="T63" s="42"/>
-      <c r="U63" s="42"/>
-      <c r="V63" s="42"/>
-      <c r="W63" s="42"/>
-      <c r="X63" s="42"/>
-      <c r="Y63" s="42"/>
-      <c r="Z63" s="42"/>
-      <c r="AA63" s="42"/>
-      <c r="AB63" s="41"/>
-    </row>
-    <row r="64" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="81" t="s">
+      <c r="H63" s="36"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="39"/>
+      <c r="Y63" s="39"/>
+      <c r="Z63" s="39"/>
+      <c r="AA63" s="39"/>
+      <c r="AB63" s="38"/>
+    </row>
+    <row r="64" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="74"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="101"/>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
       <c r="F64" s="27"/>
@@ -3750,12 +3829,12 @@
       <c r="Z64" s="25"/>
       <c r="AA64" s="25"/>
     </row>
-    <row r="65" spans="1:27" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="81" t="s">
+    <row r="65" spans="1:27" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="74"/>
+      <c r="B65" s="83"/>
+      <c r="C65" s="101"/>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
       <c r="F65" s="27"/>
@@ -3781,12 +3860,12 @@
       <c r="Z65" s="25"/>
       <c r="AA65" s="25"/>
     </row>
-    <row r="66" spans="1:27" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="81" t="s">
+    <row r="66" spans="1:27" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="74"/>
+      <c r="B66" s="83"/>
+      <c r="C66" s="101"/>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
       <c r="F66" s="27"/>
@@ -3812,12 +3891,12 @@
       <c r="Z66" s="25"/>
       <c r="AA66" s="25"/>
     </row>
-    <row r="67" spans="1:27" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="81" t="s">
+    <row r="67" spans="1:27" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="74"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="101"/>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
@@ -3843,12 +3922,12 @@
       <c r="Z67" s="25"/>
       <c r="AA67" s="25"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="82" t="s">
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="74"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="101"/>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
       <c r="F68" s="27"/>
@@ -3874,12 +3953,12 @@
       <c r="Z68" s="25"/>
       <c r="AA68" s="25"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="78" t="s">
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="74"/>
+      <c r="B69" s="83"/>
+      <c r="C69" s="101"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
       <c r="F69" s="27"/>
@@ -3905,43 +3984,43 @@
       <c r="Z69" s="25"/>
       <c r="AA69" s="25"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="95" t="s">
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="B70" s="45"/>
-      <c r="C70" s="96"/>
-      <c r="D70" s="46"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="47"/>
-      <c r="P70" s="47"/>
-      <c r="Q70" s="47"/>
-      <c r="R70" s="47"/>
-      <c r="S70" s="47"/>
-      <c r="T70" s="47"/>
-      <c r="U70" s="47"/>
-      <c r="V70" s="47"/>
-      <c r="W70" s="47"/>
-      <c r="X70" s="47"/>
-      <c r="Y70" s="47"/>
-      <c r="Z70" s="47"/>
-      <c r="AA70" s="47"/>
-    </row>
-    <row r="71" spans="1:27" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="81" t="s">
+      <c r="B70" s="86"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="42"/>
+      <c r="W70" s="42"/>
+      <c r="X70" s="42"/>
+      <c r="Y70" s="42"/>
+      <c r="Z70" s="42"/>
+      <c r="AA70" s="42"/>
+    </row>
+    <row r="71" spans="1:27" ht="100.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="74"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="101"/>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
@@ -3967,12 +4046,12 @@
       <c r="Z71" s="25"/>
       <c r="AA71" s="25"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="81" t="s">
+    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="74"/>
+      <c r="B72" s="83"/>
+      <c r="C72" s="101"/>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
       <c r="F72" s="27"/>
@@ -3998,12 +4077,12 @@
       <c r="Z72" s="25"/>
       <c r="AA72" s="25"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="81" t="s">
+    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="74"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="101"/>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
       <c r="F73" s="27"/>
@@ -4029,12 +4108,12 @@
       <c r="Z73" s="25"/>
       <c r="AA73" s="25"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="78" t="s">
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="74"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="101"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27"/>
@@ -4060,12 +4139,12 @@
       <c r="Z74" s="25"/>
       <c r="AA74" s="25"/>
     </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="78" t="s">
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="74"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="101"/>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
       <c r="F75" s="27"/>
@@ -4091,12 +4170,12 @@
       <c r="Z75" s="25"/>
       <c r="AA75" s="25"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="78" t="s">
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="74"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="101"/>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
       <c r="F76" s="27"/>
@@ -4122,12 +4201,12 @@
       <c r="Z76" s="25"/>
       <c r="AA76" s="25"/>
     </row>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="78" t="s">
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="74"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="101"/>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
       <c r="F77" s="27"/>
@@ -4153,12 +4232,12 @@
       <c r="Z77" s="25"/>
       <c r="AA77" s="25"/>
     </row>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="78" t="s">
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="74"/>
+      <c r="B78" s="83"/>
+      <c r="C78" s="101"/>
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
       <c r="F78" s="27"/>
@@ -4184,12 +4263,12 @@
       <c r="Z78" s="25"/>
       <c r="AA78" s="25"/>
     </row>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="79" t="s">
+    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="74"/>
+      <c r="B79" s="83"/>
+      <c r="C79" s="101"/>
       <c r="D79" s="27"/>
       <c r="E79" s="27"/>
       <c r="F79" s="27"/>
@@ -4215,12 +4294,12 @@
       <c r="Z79" s="25"/>
       <c r="AA79" s="25"/>
     </row>
-    <row r="80" spans="1:27" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="93" t="s">
+    <row r="80" spans="1:27" ht="22.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="74"/>
+      <c r="B80" s="83"/>
+      <c r="C80" s="101"/>
       <c r="D80" s="27"/>
       <c r="E80" s="27"/>
       <c r="F80" s="27"/>
@@ -4246,12 +4325,12 @@
       <c r="Z80" s="25"/>
       <c r="AA80" s="25"/>
     </row>
-    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="93" t="s">
+    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="74"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="101"/>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
       <c r="F81" s="27"/>
@@ -4277,12 +4356,12 @@
       <c r="Z81" s="25"/>
       <c r="AA81" s="25"/>
     </row>
-    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="93" t="s">
+    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="74"/>
+      <c r="B82" s="83"/>
+      <c r="C82" s="101"/>
       <c r="D82" s="27"/>
       <c r="E82" s="27"/>
       <c r="F82" s="27"/>
@@ -4308,74 +4387,75 @@
       <c r="Z82" s="25"/>
       <c r="AA82" s="25"/>
     </row>
-    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="84" t="s">
+    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="45"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="47"/>
-      <c r="J83" s="47"/>
-      <c r="K83" s="47"/>
-      <c r="L83" s="47"/>
-      <c r="M83" s="47"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="47"/>
-      <c r="P83" s="47"/>
-      <c r="Q83" s="47"/>
-      <c r="R83" s="47"/>
-      <c r="S83" s="47"/>
-      <c r="T83" s="47"/>
-      <c r="U83" s="47"/>
-      <c r="V83" s="47"/>
-      <c r="W83" s="47"/>
-      <c r="X83" s="47"/>
-      <c r="Y83" s="47"/>
-      <c r="Z83" s="47"/>
-      <c r="AA83" s="47"/>
-    </row>
-    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="84" t="s">
+      <c r="B83" s="86"/>
+      <c r="C83" s="101"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="42"/>
+      <c r="S83" s="42"/>
+      <c r="T83" s="42"/>
+      <c r="U83" s="42"/>
+      <c r="V83" s="42"/>
+      <c r="W83" s="42"/>
+      <c r="X83" s="42"/>
+      <c r="Y83" s="42"/>
+      <c r="Z83" s="42"/>
+      <c r="AA83" s="42"/>
+    </row>
+    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="B84" s="45"/>
-      <c r="C84" s="74"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="47"/>
-      <c r="J84" s="47"/>
-      <c r="K84" s="47"/>
-      <c r="L84" s="47"/>
-      <c r="M84" s="47"/>
-      <c r="N84" s="47"/>
-      <c r="O84" s="47"/>
-      <c r="P84" s="47"/>
-      <c r="Q84" s="47"/>
-      <c r="R84" s="47"/>
-      <c r="S84" s="47"/>
-      <c r="T84" s="47"/>
-      <c r="U84" s="47"/>
-      <c r="V84" s="47"/>
-      <c r="W84" s="47"/>
-      <c r="X84" s="47"/>
-      <c r="Y84" s="47"/>
-      <c r="Z84" s="47"/>
-      <c r="AA84" s="47"/>
-    </row>
-    <row r="85" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="78" t="s">
+      <c r="B84" s="86"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="42"/>
+      <c r="S84" s="42"/>
+      <c r="T84" s="42"/>
+      <c r="U84" s="42"/>
+      <c r="V84" s="42"/>
+      <c r="W84" s="42"/>
+      <c r="X84" s="42"/>
+      <c r="Y84" s="42"/>
+      <c r="Z84" s="42"/>
+      <c r="AA84" s="42"/>
+    </row>
+    <row r="85" spans="1:27" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B85" s="23"/>
-      <c r="C85" s="74"/>
+      <c r="C85" s="104" t="s">
+        <v>227</v>
+      </c>
       <c r="D85" s="27"/>
       <c r="E85" s="27"/>
       <c r="F85" s="27"/>
@@ -4401,12 +4481,12 @@
       <c r="Z85" s="25"/>
       <c r="AA85" s="25"/>
     </row>
-    <row r="86" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="97" t="s">
+    <row r="86" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="74"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="101"/>
       <c r="D86" s="27"/>
       <c r="E86" s="27"/>
       <c r="F86" s="27"/>
@@ -4432,12 +4512,12 @@
       <c r="Z86" s="25"/>
       <c r="AA86" s="25"/>
     </row>
-    <row r="87" spans="1:27" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="78" t="s">
+    <row r="87" spans="1:27" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="94"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="101"/>
       <c r="D87" s="27"/>
       <c r="E87" s="27"/>
       <c r="F87" s="27"/>
@@ -4463,12 +4543,12 @@
       <c r="Z87" s="25"/>
       <c r="AA87" s="25"/>
     </row>
-    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="78" t="s">
+    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="B88" s="23"/>
-      <c r="C88" s="74"/>
+      <c r="B88" s="83"/>
+      <c r="C88" s="101"/>
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
       <c r="F88" s="27"/>
@@ -4494,12 +4574,12 @@
       <c r="Z88" s="25"/>
       <c r="AA88" s="25"/>
     </row>
-    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="78" t="s">
+    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="74"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="101"/>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
       <c r="F89" s="27"/>
@@ -4525,12 +4605,12 @@
       <c r="Z89" s="25"/>
       <c r="AA89" s="25"/>
     </row>
-    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="78" t="s">
+    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="74"/>
+      <c r="B90" s="83"/>
+      <c r="C90" s="101"/>
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
       <c r="F90" s="27"/>
@@ -4556,12 +4636,12 @@
       <c r="Z90" s="25"/>
       <c r="AA90" s="25"/>
     </row>
-    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="78" t="s">
+    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="74"/>
+      <c r="B91" s="83"/>
+      <c r="C91" s="101"/>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
       <c r="F91" s="27"/>
@@ -4587,12 +4667,12 @@
       <c r="Z91" s="25"/>
       <c r="AA91" s="25"/>
     </row>
-    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="78" t="s">
+    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="74"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="101"/>
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
       <c r="F92" s="27"/>
@@ -4618,12 +4698,12 @@
       <c r="Z92" s="25"/>
       <c r="AA92" s="25"/>
     </row>
-    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="78" t="s">
+    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="74"/>
+      <c r="B93" s="83"/>
+      <c r="C93" s="101"/>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
       <c r="F93" s="27"/>
@@ -4649,12 +4729,12 @@
       <c r="Z93" s="25"/>
       <c r="AA93" s="25"/>
     </row>
-    <row r="94" spans="1:27" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="78" t="s">
+    <row r="94" spans="1:27" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="74"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="101"/>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
       <c r="F94" s="27"/>
@@ -4680,12 +4760,14 @@
       <c r="Z94" s="25"/>
       <c r="AA94" s="25"/>
     </row>
-    <row r="95" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="78" t="s">
+    <row r="95" spans="1:27" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="74"/>
+      <c r="B95" s="83"/>
+      <c r="C95" s="101" t="s">
+        <v>228</v>
+      </c>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
       <c r="F95" s="27"/>
@@ -4711,12 +4793,12 @@
       <c r="Z95" s="25"/>
       <c r="AA95" s="25"/>
     </row>
-    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="78" t="s">
+    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="B96" s="23"/>
-      <c r="C96" s="74"/>
+      <c r="B96" s="83"/>
+      <c r="C96" s="101"/>
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
       <c r="F96" s="27"/>
@@ -4742,12 +4824,14 @@
       <c r="Z96" s="25"/>
       <c r="AA96" s="25"/>
     </row>
-    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="85" t="s">
+    <row r="97" spans="1:27" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="74"/>
+      <c r="B97" s="83"/>
+      <c r="C97" s="101" t="s">
+        <v>230</v>
+      </c>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
       <c r="F97" s="27"/>
@@ -4773,12 +4857,14 @@
       <c r="Z97" s="25"/>
       <c r="AA97" s="25"/>
     </row>
-    <row r="98" spans="1:27" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="85" t="s">
+    <row r="98" spans="1:27" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="B98" s="23"/>
-      <c r="C98" s="74"/>
+      <c r="B98" s="83"/>
+      <c r="C98" s="101" t="s">
+        <v>229</v>
+      </c>
       <c r="D98" s="27"/>
       <c r="E98" s="27"/>
       <c r="F98" s="27"/>
@@ -4804,14 +4890,14 @@
       <c r="Z98" s="25"/>
       <c r="AA98" s="25"/>
     </row>
-    <row r="99" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="78" t="s">
+    <row r="99" spans="1:27" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="88" t="s">
         <v>216</v>
       </c>
-      <c r="C99" s="70"/>
+      <c r="C99" s="105"/>
       <c r="D99" s="27"/>
       <c r="E99" s="27"/>
       <c r="F99" s="27"/>
@@ -4837,12 +4923,14 @@
       <c r="Z99" s="25"/>
       <c r="AA99" s="25"/>
     </row>
-    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="78" t="s">
+    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="B100" s="27"/>
-      <c r="C100" s="70"/>
+      <c r="B100" s="88"/>
+      <c r="C100" s="105" t="s">
+        <v>231</v>
+      </c>
       <c r="D100" s="27"/>
       <c r="E100" s="27"/>
       <c r="F100" s="27"/>
@@ -4868,12 +4956,14 @@
       <c r="Z100" s="25"/>
       <c r="AA100" s="25"/>
     </row>
-    <row r="101" spans="1:27" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="78" t="s">
+    <row r="101" spans="1:27" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="70"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="105" t="s">
+        <v>232</v>
+      </c>
       <c r="D101" s="27"/>
       <c r="E101" s="27"/>
       <c r="F101" s="27"/>
@@ -4899,12 +4989,12 @@
       <c r="Z101" s="25"/>
       <c r="AA101" s="25"/>
     </row>
-    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="78" t="s">
+    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="B102" s="27"/>
-      <c r="C102" s="70"/>
+      <c r="B102" s="88"/>
+      <c r="C102" s="105"/>
       <c r="D102" s="27"/>
       <c r="E102" s="27"/>
       <c r="F102" s="27"/>
@@ -4930,12 +5020,12 @@
       <c r="Z102" s="25"/>
       <c r="AA102" s="25"/>
     </row>
-    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="78" t="s">
+    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="B103" s="27"/>
-      <c r="C103" s="70"/>
+      <c r="B103" s="88"/>
+      <c r="C103" s="105"/>
       <c r="D103" s="27"/>
       <c r="E103" s="27"/>
       <c r="F103" s="27"/>
@@ -4961,14 +5051,14 @@
       <c r="Z103" s="25"/>
       <c r="AA103" s="25"/>
     </row>
-    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="78" t="s">
+    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="B104" s="27" t="s">
+      <c r="B104" s="88" t="s">
         <v>217</v>
       </c>
-      <c r="C104" s="70"/>
+      <c r="C104" s="105"/>
       <c r="D104" s="27"/>
       <c r="E104" s="27"/>
       <c r="F104" s="27"/>
@@ -4994,14 +5084,14 @@
       <c r="Z104" s="25"/>
       <c r="AA104" s="25"/>
     </row>
-    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="78" t="s">
+    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="C105" s="74"/>
+      <c r="C105" s="101"/>
       <c r="D105" s="27"/>
       <c r="E105" s="27"/>
       <c r="F105" s="27"/>
@@ -5027,12 +5117,14 @@
       <c r="Z105" s="25"/>
       <c r="AA105" s="25"/>
     </row>
-    <row r="106" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="79" t="s">
+    <row r="106" spans="1:27" ht="185" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="B106" s="23"/>
-      <c r="C106" s="74"/>
+      <c r="B106" s="83"/>
+      <c r="C106" s="101" t="s">
+        <v>233</v>
+      </c>
       <c r="D106" s="27"/>
       <c r="E106" s="27"/>
       <c r="F106" s="27"/>
@@ -5058,12 +5150,12 @@
       <c r="Z106" s="25"/>
       <c r="AA106" s="25"/>
     </row>
-    <row r="107" spans="1:27" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="79" t="s">
+    <row r="107" spans="1:27" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="B107" s="23"/>
-      <c r="C107" s="74"/>
+      <c r="B107" s="83"/>
+      <c r="C107" s="101"/>
       <c r="D107" s="27"/>
       <c r="E107" s="27"/>
       <c r="F107" s="27"/>
@@ -5089,12 +5181,12 @@
       <c r="Z107" s="25"/>
       <c r="AA107" s="25"/>
     </row>
-    <row r="108" spans="1:27" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="79" t="s">
+    <row r="108" spans="1:27" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="B108" s="23"/>
-      <c r="C108" s="74"/>
+      <c r="B108" s="83"/>
+      <c r="C108" s="101"/>
       <c r="D108" s="27"/>
       <c r="E108" s="27"/>
       <c r="F108" s="27"/>
@@ -5120,12 +5212,12 @@
       <c r="Z108" s="25"/>
       <c r="AA108" s="25"/>
     </row>
-    <row r="109" spans="1:27" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="79" t="s">
+    <row r="109" spans="1:27" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="74"/>
+      <c r="B109" s="83"/>
+      <c r="C109" s="101"/>
       <c r="D109" s="27"/>
       <c r="E109" s="27"/>
       <c r="F109" s="27"/>
@@ -5151,12 +5243,12 @@
       <c r="Z109" s="25"/>
       <c r="AA109" s="25"/>
     </row>
-    <row r="110" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="79" t="s">
+    <row r="110" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="74"/>
+      <c r="B110" s="83"/>
+      <c r="C110" s="101"/>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
       <c r="F110" s="27"/>
@@ -5182,12 +5274,12 @@
       <c r="Z110" s="25"/>
       <c r="AA110" s="25"/>
     </row>
-    <row r="111" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="79" t="s">
+    <row r="111" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="74"/>
+      <c r="B111" s="83"/>
+      <c r="C111" s="101"/>
       <c r="D111" s="27"/>
       <c r="E111" s="27"/>
       <c r="F111" s="27"/>
@@ -5213,12 +5305,12 @@
       <c r="Z111" s="25"/>
       <c r="AA111" s="25"/>
     </row>
-    <row r="112" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="79" t="s">
+    <row r="112" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="74"/>
+      <c r="B112" s="83"/>
+      <c r="C112" s="101"/>
       <c r="D112" s="27"/>
       <c r="E112" s="27"/>
       <c r="F112" s="27"/>
@@ -5244,12 +5336,12 @@
       <c r="Z112" s="25"/>
       <c r="AA112" s="25"/>
     </row>
-    <row r="113" spans="1:27" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="79" t="s">
+    <row r="113" spans="1:27" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="74"/>
+      <c r="B113" s="83"/>
+      <c r="C113" s="101"/>
       <c r="D113" s="27"/>
       <c r="E113" s="27"/>
       <c r="F113" s="27"/>
@@ -5275,12 +5367,12 @@
       <c r="Z113" s="25"/>
       <c r="AA113" s="25"/>
     </row>
-    <row r="114" spans="1:27" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="79" t="s">
+    <row r="114" spans="1:27" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="74"/>
+      <c r="B114" s="83"/>
+      <c r="C114" s="101"/>
       <c r="D114" s="27"/>
       <c r="E114" s="27"/>
       <c r="F114" s="27"/>
@@ -5306,12 +5398,12 @@
       <c r="Z114" s="25"/>
       <c r="AA114" s="25"/>
     </row>
-    <row r="115" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="79" t="s">
+    <row r="115" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="74"/>
+      <c r="B115" s="83"/>
+      <c r="C115" s="101"/>
       <c r="D115" s="27"/>
       <c r="E115" s="27"/>
       <c r="F115" s="27"/>
@@ -5337,12 +5429,12 @@
       <c r="Z115" s="25"/>
       <c r="AA115" s="25"/>
     </row>
-    <row r="116" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="78" t="s">
+    <row r="116" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B116" s="23"/>
-      <c r="C116" s="74"/>
+      <c r="B116" s="83"/>
+      <c r="C116" s="101"/>
       <c r="D116" s="27"/>
       <c r="E116" s="27"/>
       <c r="F116" s="27"/>
@@ -5368,12 +5460,12 @@
       <c r="Z116" s="25"/>
       <c r="AA116" s="25"/>
     </row>
-    <row r="117" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="78" t="s">
+    <row r="117" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B117" s="23"/>
-      <c r="C117" s="74"/>
+      <c r="B117" s="83"/>
+      <c r="C117" s="101"/>
       <c r="D117" s="27"/>
       <c r="E117" s="27"/>
       <c r="F117" s="27"/>
@@ -5399,12 +5491,12 @@
       <c r="Z117" s="25"/>
       <c r="AA117" s="25"/>
     </row>
-    <row r="118" spans="1:27" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="78" t="s">
+    <row r="118" spans="1:27" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B118" s="23"/>
-      <c r="C118" s="74"/>
+      <c r="B118" s="83"/>
+      <c r="C118" s="101"/>
       <c r="D118" s="27"/>
       <c r="E118" s="27"/>
       <c r="F118" s="27"/>
@@ -5430,43 +5522,43 @@
       <c r="Z118" s="25"/>
       <c r="AA118" s="25"/>
     </row>
-    <row r="119" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="60" t="s">
+    <row r="119" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B119" s="45"/>
-      <c r="C119" s="74"/>
-      <c r="D119" s="46"/>
-      <c r="E119" s="46"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="46"/>
-      <c r="I119" s="47"/>
-      <c r="J119" s="47"/>
-      <c r="K119" s="47"/>
-      <c r="L119" s="47"/>
-      <c r="M119" s="47"/>
-      <c r="N119" s="47"/>
-      <c r="O119" s="47"/>
-      <c r="P119" s="47"/>
-      <c r="Q119" s="47"/>
-      <c r="R119" s="47"/>
-      <c r="S119" s="47"/>
-      <c r="T119" s="47"/>
-      <c r="U119" s="47"/>
-      <c r="V119" s="47"/>
-      <c r="W119" s="47"/>
-      <c r="X119" s="47"/>
-      <c r="Y119" s="47"/>
-      <c r="Z119" s="47"/>
-      <c r="AA119" s="47"/>
-    </row>
-    <row r="120" spans="1:27" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="78" t="s">
+      <c r="B119" s="86"/>
+      <c r="C119" s="101"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="41"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="42"/>
+      <c r="K119" s="42"/>
+      <c r="L119" s="42"/>
+      <c r="M119" s="42"/>
+      <c r="N119" s="42"/>
+      <c r="O119" s="42"/>
+      <c r="P119" s="42"/>
+      <c r="Q119" s="42"/>
+      <c r="R119" s="42"/>
+      <c r="S119" s="42"/>
+      <c r="T119" s="42"/>
+      <c r="U119" s="42"/>
+      <c r="V119" s="42"/>
+      <c r="W119" s="42"/>
+      <c r="X119" s="42"/>
+      <c r="Y119" s="42"/>
+      <c r="Z119" s="42"/>
+      <c r="AA119" s="42"/>
+    </row>
+    <row r="120" spans="1:27" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B120" s="23"/>
-      <c r="C120" s="74"/>
+      <c r="B120" s="83"/>
+      <c r="C120" s="101"/>
       <c r="D120" s="27"/>
       <c r="E120" s="27"/>
       <c r="F120" s="27"/>
@@ -5492,12 +5584,12 @@
       <c r="Z120" s="25"/>
       <c r="AA120" s="25"/>
     </row>
-    <row r="121" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="78" t="s">
+    <row r="121" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B121" s="23"/>
-      <c r="C121" s="74"/>
+      <c r="B121" s="83"/>
+      <c r="C121" s="101"/>
       <c r="D121" s="27"/>
       <c r="E121" s="27"/>
       <c r="F121" s="27"/>
@@ -5523,12 +5615,12 @@
       <c r="Z121" s="25"/>
       <c r="AA121" s="25"/>
     </row>
-    <row r="122" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A122" s="78" t="s">
+    <row r="122" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B122" s="23"/>
-      <c r="C122" s="74"/>
+      <c r="B122" s="83"/>
+      <c r="C122" s="101"/>
       <c r="D122" s="27"/>
       <c r="E122" s="27"/>
       <c r="F122" s="27"/>
@@ -5554,12 +5646,12 @@
       <c r="Z122" s="25"/>
       <c r="AA122" s="25"/>
     </row>
-    <row r="123" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="78" t="s">
+    <row r="123" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B123" s="23"/>
-      <c r="C123" s="74"/>
+      <c r="B123" s="83"/>
+      <c r="C123" s="101"/>
       <c r="D123" s="27"/>
       <c r="E123" s="27"/>
       <c r="F123" s="27"/>
@@ -5585,12 +5677,12 @@
       <c r="Z123" s="25"/>
       <c r="AA123" s="25"/>
     </row>
-    <row r="124" spans="1:27" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="78" t="s">
+    <row r="124" spans="1:27" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B124" s="23"/>
-      <c r="C124" s="74"/>
+      <c r="B124" s="83"/>
+      <c r="C124" s="101"/>
       <c r="D124" s="27"/>
       <c r="E124" s="27"/>
       <c r="F124" s="27"/>
@@ -5616,12 +5708,12 @@
       <c r="Z124" s="25"/>
       <c r="AA124" s="25"/>
     </row>
-    <row r="125" spans="1:27" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="78" t="s">
+    <row r="125" spans="1:27" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="B125" s="23"/>
-      <c r="C125" s="74"/>
+      <c r="B125" s="83"/>
+      <c r="C125" s="101"/>
       <c r="D125" s="27"/>
       <c r="E125" s="27"/>
       <c r="F125" s="27"/>
@@ -5647,12 +5739,12 @@
       <c r="Z125" s="25"/>
       <c r="AA125" s="25"/>
     </row>
-    <row r="126" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="78" t="s">
+    <row r="126" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="B126" s="23"/>
-      <c r="C126" s="74"/>
+      <c r="B126" s="83"/>
+      <c r="C126" s="101"/>
       <c r="D126" s="27"/>
       <c r="E126" s="27"/>
       <c r="F126" s="27"/>
@@ -5678,12 +5770,12 @@
       <c r="Z126" s="25"/>
       <c r="AA126" s="25"/>
     </row>
-    <row r="127" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="78" t="s">
+    <row r="127" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B127" s="23"/>
-      <c r="C127" s="74"/>
+      <c r="B127" s="83"/>
+      <c r="C127" s="101"/>
       <c r="D127" s="27"/>
       <c r="E127" s="27"/>
       <c r="F127" s="27"/>
@@ -5709,12 +5801,12 @@
       <c r="Z127" s="25"/>
       <c r="AA127" s="25"/>
     </row>
-    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="78" t="s">
+    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B128" s="23"/>
-      <c r="C128" s="74"/>
+      <c r="B128" s="83"/>
+      <c r="C128" s="101"/>
       <c r="D128" s="27"/>
       <c r="E128" s="27"/>
       <c r="F128" s="27"/>
@@ -5740,12 +5832,12 @@
       <c r="Z128" s="25"/>
       <c r="AA128" s="25"/>
     </row>
-    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="78" t="s">
+    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B129" s="23"/>
-      <c r="C129" s="74"/>
+      <c r="B129" s="83"/>
+      <c r="C129" s="101"/>
       <c r="D129" s="27"/>
       <c r="E129" s="27"/>
       <c r="F129" s="27"/>
@@ -5771,12 +5863,12 @@
       <c r="Z129" s="25"/>
       <c r="AA129" s="25"/>
     </row>
-    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="78" t="s">
+    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="B130" s="23"/>
-      <c r="C130" s="74"/>
+      <c r="B130" s="83"/>
+      <c r="C130" s="101"/>
       <c r="D130" s="27"/>
       <c r="E130" s="27"/>
       <c r="F130" s="27"/>
@@ -5802,12 +5894,12 @@
       <c r="Z130" s="25"/>
       <c r="AA130" s="25"/>
     </row>
-    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="78" t="s">
+    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="74"/>
+      <c r="B131" s="83"/>
+      <c r="C131" s="101"/>
       <c r="D131" s="27"/>
       <c r="E131" s="27"/>
       <c r="F131" s="27"/>
@@ -5833,12 +5925,12 @@
       <c r="Z131" s="25"/>
       <c r="AA131" s="25"/>
     </row>
-    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="85" t="s">
+    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B132" s="23"/>
-      <c r="C132" s="74"/>
+      <c r="B132" s="83"/>
+      <c r="C132" s="101"/>
       <c r="D132" s="27"/>
       <c r="E132" s="27"/>
       <c r="F132" s="27"/>
@@ -5864,12 +5956,12 @@
       <c r="Z132" s="25"/>
       <c r="AA132" s="25"/>
     </row>
-    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="85" t="s">
+    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B133" s="23"/>
-      <c r="C133" s="74"/>
+      <c r="B133" s="83"/>
+      <c r="C133" s="101"/>
       <c r="D133" s="27"/>
       <c r="E133" s="27"/>
       <c r="F133" s="27"/>
@@ -5895,12 +5987,12 @@
       <c r="Z133" s="25"/>
       <c r="AA133" s="25"/>
     </row>
-    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="78" t="s">
+    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B134" s="23"/>
-      <c r="C134" s="74"/>
+      <c r="B134" s="83"/>
+      <c r="C134" s="101"/>
       <c r="D134" s="27"/>
       <c r="E134" s="27"/>
       <c r="F134" s="27"/>
@@ -5926,12 +6018,12 @@
       <c r="Z134" s="25"/>
       <c r="AA134" s="25"/>
     </row>
-    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="78" t="s">
+    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B135" s="23"/>
-      <c r="C135" s="74"/>
+      <c r="B135" s="83"/>
+      <c r="C135" s="101"/>
       <c r="D135" s="27"/>
       <c r="E135" s="27"/>
       <c r="F135" s="27"/>
@@ -5957,12 +6049,12 @@
       <c r="Z135" s="25"/>
       <c r="AA135" s="25"/>
     </row>
-    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="78" t="s">
+    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="B136" s="23"/>
-      <c r="C136" s="74"/>
+      <c r="B136" s="83"/>
+      <c r="C136" s="101"/>
       <c r="D136" s="27"/>
       <c r="E136" s="27"/>
       <c r="F136" s="27"/>
@@ -5988,12 +6080,12 @@
       <c r="Z136" s="25"/>
       <c r="AA136" s="25"/>
     </row>
-    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="78" t="s">
+    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="B137" s="23"/>
-      <c r="C137" s="74"/>
+      <c r="B137" s="83"/>
+      <c r="C137" s="101"/>
       <c r="D137" s="27"/>
       <c r="E137" s="27"/>
       <c r="F137" s="27"/>
@@ -6019,12 +6111,12 @@
       <c r="Z137" s="25"/>
       <c r="AA137" s="25"/>
     </row>
-    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="78" t="s">
+    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="74"/>
+      <c r="B138" s="83"/>
+      <c r="C138" s="101"/>
       <c r="D138" s="27"/>
       <c r="E138" s="27"/>
       <c r="F138" s="27"/>
@@ -6050,12 +6142,12 @@
       <c r="Z138" s="25"/>
       <c r="AA138" s="25"/>
     </row>
-    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="78" t="s">
+    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="74"/>
+      <c r="B139" s="83"/>
+      <c r="C139" s="101"/>
       <c r="D139" s="27"/>
       <c r="E139" s="27"/>
       <c r="F139" s="27"/>
@@ -6081,12 +6173,12 @@
       <c r="Z139" s="25"/>
       <c r="AA139" s="25"/>
     </row>
-    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="78" t="s">
+    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B140" s="23"/>
-      <c r="C140" s="74"/>
+      <c r="B140" s="83"/>
+      <c r="C140" s="101"/>
       <c r="D140" s="27"/>
       <c r="E140" s="27"/>
       <c r="F140" s="27"/>
@@ -6112,12 +6204,12 @@
       <c r="Z140" s="25"/>
       <c r="AA140" s="25"/>
     </row>
-    <row r="141" spans="1:27" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="79" t="s">
+    <row r="141" spans="1:27" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="B141" s="23"/>
-      <c r="C141" s="74"/>
+      <c r="B141" s="83"/>
+      <c r="C141" s="101"/>
       <c r="D141" s="27"/>
       <c r="E141" s="27"/>
       <c r="F141" s="27"/>
@@ -6143,12 +6235,12 @@
       <c r="Z141" s="25"/>
       <c r="AA141" s="25"/>
     </row>
-    <row r="142" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="79" t="s">
+    <row r="142" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="B142" s="23"/>
-      <c r="C142" s="74"/>
+      <c r="B142" s="83"/>
+      <c r="C142" s="101"/>
       <c r="D142" s="27"/>
       <c r="E142" s="27"/>
       <c r="F142" s="27"/>
@@ -6174,12 +6266,12 @@
       <c r="Z142" s="25"/>
       <c r="AA142" s="25"/>
     </row>
-    <row r="143" spans="1:27" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="79" t="s">
+    <row r="143" spans="1:27" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B143" s="23"/>
-      <c r="C143" s="74"/>
+      <c r="B143" s="83"/>
+      <c r="C143" s="101"/>
       <c r="D143" s="27"/>
       <c r="E143" s="27"/>
       <c r="F143" s="27"/>
@@ -6205,12 +6297,12 @@
       <c r="Z143" s="25"/>
       <c r="AA143" s="25"/>
     </row>
-    <row r="144" spans="1:27" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="79" t="s">
+    <row r="144" spans="1:27" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="B144" s="23"/>
-      <c r="C144" s="74"/>
+      <c r="B144" s="83"/>
+      <c r="C144" s="101"/>
       <c r="D144" s="27"/>
       <c r="E144" s="27"/>
       <c r="F144" s="27"/>
@@ -6236,12 +6328,12 @@
       <c r="Z144" s="25"/>
       <c r="AA144" s="25"/>
     </row>
-    <row r="145" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="79" t="s">
+    <row r="145" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B145" s="23"/>
-      <c r="C145" s="74"/>
+      <c r="B145" s="83"/>
+      <c r="C145" s="101"/>
       <c r="D145" s="27"/>
       <c r="E145" s="27"/>
       <c r="F145" s="27"/>
@@ -6267,12 +6359,12 @@
       <c r="Z145" s="25"/>
       <c r="AA145" s="25"/>
     </row>
-    <row r="146" spans="1:27" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="79" t="s">
+    <row r="146" spans="1:27" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="23"/>
-      <c r="C146" s="74"/>
+      <c r="B146" s="83"/>
+      <c r="C146" s="101"/>
       <c r="D146" s="27"/>
       <c r="E146" s="27"/>
       <c r="F146" s="27"/>
@@ -6298,12 +6390,12 @@
       <c r="Z146" s="25"/>
       <c r="AA146" s="25"/>
     </row>
-    <row r="147" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="79" t="s">
+    <row r="147" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="B147" s="23"/>
-      <c r="C147" s="74"/>
+      <c r="B147" s="83"/>
+      <c r="C147" s="101"/>
       <c r="D147" s="27"/>
       <c r="E147" s="27"/>
       <c r="F147" s="27"/>
@@ -6329,12 +6421,12 @@
       <c r="Z147" s="25"/>
       <c r="AA147" s="25"/>
     </row>
-    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="78" t="s">
+    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B148" s="23"/>
-      <c r="C148" s="74"/>
+      <c r="B148" s="83"/>
+      <c r="C148" s="101"/>
       <c r="D148" s="27"/>
       <c r="E148" s="27"/>
       <c r="F148" s="27"/>
@@ -6360,12 +6452,12 @@
       <c r="Z148" s="25"/>
       <c r="AA148" s="25"/>
     </row>
-    <row r="149" spans="1:27" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="79" t="s">
+    <row r="149" spans="1:27" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B149" s="23"/>
-      <c r="C149" s="74"/>
+      <c r="B149" s="83"/>
+      <c r="C149" s="101"/>
       <c r="D149" s="27"/>
       <c r="E149" s="27"/>
       <c r="F149" s="27"/>
@@ -6391,12 +6483,12 @@
       <c r="Z149" s="25"/>
       <c r="AA149" s="25"/>
     </row>
-    <row r="150" spans="1:27" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="78" t="s">
+    <row r="150" spans="1:27" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B150" s="23"/>
-      <c r="C150" s="74"/>
+      <c r="B150" s="83"/>
+      <c r="C150" s="101"/>
       <c r="D150" s="27"/>
       <c r="E150" s="27"/>
       <c r="F150" s="27"/>
@@ -6422,12 +6514,12 @@
       <c r="Z150" s="25"/>
       <c r="AA150" s="25"/>
     </row>
-    <row r="151" spans="1:27" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="78" t="s">
+    <row r="151" spans="1:27" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B151" s="23"/>
-      <c r="C151" s="74"/>
+      <c r="B151" s="83"/>
+      <c r="C151" s="101"/>
       <c r="D151" s="27"/>
       <c r="E151" s="27"/>
       <c r="F151" s="27"/>
@@ -6453,43 +6545,43 @@
       <c r="Z151" s="25"/>
       <c r="AA151" s="25"/>
     </row>
-    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="61" t="s">
+    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B152" s="45"/>
-      <c r="C152" s="74"/>
-      <c r="D152" s="46"/>
-      <c r="E152" s="46"/>
-      <c r="F152" s="46"/>
-      <c r="G152" s="46"/>
-      <c r="H152" s="46"/>
-      <c r="I152" s="47"/>
-      <c r="J152" s="47"/>
-      <c r="K152" s="47"/>
-      <c r="L152" s="47"/>
-      <c r="M152" s="47"/>
-      <c r="N152" s="47"/>
-      <c r="O152" s="47"/>
-      <c r="P152" s="47"/>
-      <c r="Q152" s="47"/>
-      <c r="R152" s="47"/>
-      <c r="S152" s="47"/>
-      <c r="T152" s="47"/>
-      <c r="U152" s="47"/>
-      <c r="V152" s="47"/>
-      <c r="W152" s="47"/>
-      <c r="X152" s="47"/>
-      <c r="Y152" s="47"/>
-      <c r="Z152" s="47"/>
-      <c r="AA152" s="47"/>
-    </row>
-    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="78" t="s">
+      <c r="B152" s="86"/>
+      <c r="C152" s="101"/>
+      <c r="D152" s="41"/>
+      <c r="E152" s="41"/>
+      <c r="F152" s="41"/>
+      <c r="G152" s="41"/>
+      <c r="H152" s="41"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="42"/>
+      <c r="K152" s="42"/>
+      <c r="L152" s="42"/>
+      <c r="M152" s="42"/>
+      <c r="N152" s="42"/>
+      <c r="O152" s="42"/>
+      <c r="P152" s="42"/>
+      <c r="Q152" s="42"/>
+      <c r="R152" s="42"/>
+      <c r="S152" s="42"/>
+      <c r="T152" s="42"/>
+      <c r="U152" s="42"/>
+      <c r="V152" s="42"/>
+      <c r="W152" s="42"/>
+      <c r="X152" s="42"/>
+      <c r="Y152" s="42"/>
+      <c r="Z152" s="42"/>
+      <c r="AA152" s="42"/>
+    </row>
+    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B153" s="23"/>
-      <c r="C153" s="74"/>
+      <c r="B153" s="83"/>
+      <c r="C153" s="101"/>
       <c r="D153" s="27"/>
       <c r="E153" s="27"/>
       <c r="F153" s="27"/>
@@ -6515,12 +6607,12 @@
       <c r="Z153" s="25"/>
       <c r="AA153" s="25"/>
     </row>
-    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="78" t="s">
+    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B154" s="23"/>
-      <c r="C154" s="74"/>
+      <c r="B154" s="83"/>
+      <c r="C154" s="101"/>
       <c r="D154" s="27"/>
       <c r="E154" s="27"/>
       <c r="F154" s="27"/>
@@ -6546,12 +6638,12 @@
       <c r="Z154" s="25"/>
       <c r="AA154" s="25"/>
     </row>
-    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="78" t="s">
+    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B155" s="23"/>
-      <c r="C155" s="74"/>
+      <c r="B155" s="83"/>
+      <c r="C155" s="101"/>
       <c r="D155" s="27"/>
       <c r="E155" s="27"/>
       <c r="F155" s="27"/>
@@ -6577,12 +6669,12 @@
       <c r="Z155" s="25"/>
       <c r="AA155" s="25"/>
     </row>
-    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="78" t="s">
+    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B156" s="23"/>
-      <c r="C156" s="74"/>
+      <c r="B156" s="83"/>
+      <c r="C156" s="101"/>
       <c r="D156" s="27"/>
       <c r="E156" s="27"/>
       <c r="F156" s="27"/>
@@ -6608,12 +6700,12 @@
       <c r="Z156" s="25"/>
       <c r="AA156" s="25"/>
     </row>
-    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="78" t="s">
+    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B157" s="23"/>
-      <c r="C157" s="74"/>
+      <c r="B157" s="83"/>
+      <c r="C157" s="101"/>
       <c r="D157" s="27"/>
       <c r="E157" s="27"/>
       <c r="F157" s="27"/>
@@ -6639,12 +6731,12 @@
       <c r="Z157" s="25"/>
       <c r="AA157" s="25"/>
     </row>
-    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="78" t="s">
+    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="B158" s="23"/>
-      <c r="C158" s="74"/>
+      <c r="B158" s="83"/>
+      <c r="C158" s="101"/>
       <c r="D158" s="27"/>
       <c r="E158" s="27"/>
       <c r="F158" s="27"/>
@@ -6670,12 +6762,12 @@
       <c r="Z158" s="25"/>
       <c r="AA158" s="25"/>
     </row>
-    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="78" t="s">
+    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="B159" s="23"/>
-      <c r="C159" s="74"/>
+      <c r="B159" s="83"/>
+      <c r="C159" s="101"/>
       <c r="D159" s="27"/>
       <c r="E159" s="27"/>
       <c r="F159" s="27"/>
@@ -6701,12 +6793,12 @@
       <c r="Z159" s="25"/>
       <c r="AA159" s="25"/>
     </row>
-    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="78" t="s">
+    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B160" s="23"/>
-      <c r="C160" s="74"/>
+      <c r="B160" s="83"/>
+      <c r="C160" s="101"/>
       <c r="D160" s="27"/>
       <c r="E160" s="27"/>
       <c r="F160" s="27"/>
@@ -6732,12 +6824,12 @@
       <c r="Z160" s="25"/>
       <c r="AA160" s="25"/>
     </row>
-    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="78" t="s">
+    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B161" s="23"/>
-      <c r="C161" s="74"/>
+      <c r="B161" s="83"/>
+      <c r="C161" s="101"/>
       <c r="D161" s="27"/>
       <c r="E161" s="27"/>
       <c r="F161" s="27"/>
@@ -6763,12 +6855,12 @@
       <c r="Z161" s="25"/>
       <c r="AA161" s="25"/>
     </row>
-    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="78" t="s">
+    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B162" s="23"/>
-      <c r="C162" s="74"/>
+      <c r="B162" s="83"/>
+      <c r="C162" s="101"/>
       <c r="D162" s="27"/>
       <c r="E162" s="27"/>
       <c r="F162" s="27"/>
@@ -6794,12 +6886,12 @@
       <c r="Z162" s="25"/>
       <c r="AA162" s="25"/>
     </row>
-    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="78" t="s">
+    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="B163" s="23"/>
-      <c r="C163" s="74"/>
+      <c r="B163" s="83"/>
+      <c r="C163" s="101"/>
       <c r="D163" s="27"/>
       <c r="E163" s="27"/>
       <c r="F163" s="27"/>
@@ -6825,12 +6917,12 @@
       <c r="Z163" s="25"/>
       <c r="AA163" s="25"/>
     </row>
-    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="78" t="s">
+    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B164" s="23"/>
-      <c r="C164" s="74"/>
+      <c r="B164" s="83"/>
+      <c r="C164" s="101"/>
       <c r="D164" s="27"/>
       <c r="E164" s="27"/>
       <c r="F164" s="27"/>
@@ -6856,12 +6948,12 @@
       <c r="Z164" s="25"/>
       <c r="AA164" s="25"/>
     </row>
-    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="85" t="s">
+    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B165" s="27"/>
-      <c r="C165" s="70"/>
+      <c r="B165" s="88"/>
+      <c r="C165" s="105"/>
       <c r="D165" s="27"/>
       <c r="E165" s="27"/>
       <c r="F165" s="27"/>
@@ -6887,12 +6979,12 @@
       <c r="Z165" s="25"/>
       <c r="AA165" s="25"/>
     </row>
-    <row r="166" spans="1:27" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="85" t="s">
+    <row r="166" spans="1:27" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B166" s="27"/>
-      <c r="C166" s="70"/>
+      <c r="B166" s="88"/>
+      <c r="C166" s="105"/>
       <c r="D166" s="27"/>
       <c r="E166" s="27"/>
       <c r="F166" s="27"/>
@@ -6918,12 +7010,12 @@
       <c r="Z166" s="25"/>
       <c r="AA166" s="25"/>
     </row>
-    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="78" t="s">
+    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B167" s="27"/>
-      <c r="C167" s="70"/>
+      <c r="B167" s="88"/>
+      <c r="C167" s="105"/>
       <c r="D167" s="27"/>
       <c r="E167" s="27"/>
       <c r="F167" s="27"/>
@@ -6949,12 +7041,12 @@
       <c r="Z167" s="25"/>
       <c r="AA167" s="25"/>
     </row>
-    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="78" t="s">
+    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B168" s="27"/>
-      <c r="C168" s="70"/>
+      <c r="B168" s="88"/>
+      <c r="C168" s="105"/>
       <c r="D168" s="27"/>
       <c r="E168" s="27"/>
       <c r="F168" s="27"/>
@@ -6980,12 +7072,12 @@
       <c r="Z168" s="25"/>
       <c r="AA168" s="25"/>
     </row>
-    <row r="169" spans="1:27" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="78" t="s">
+    <row r="169" spans="1:27" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="B169" s="27"/>
-      <c r="C169" s="70"/>
+      <c r="B169" s="88"/>
+      <c r="C169" s="105"/>
       <c r="D169" s="27"/>
       <c r="E169" s="27"/>
       <c r="F169" s="27"/>
@@ -7011,12 +7103,12 @@
       <c r="Z169" s="25"/>
       <c r="AA169" s="25"/>
     </row>
-    <row r="170" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="78" t="s">
+    <row r="170" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="B170" s="27"/>
-      <c r="C170" s="70"/>
+      <c r="B170" s="88"/>
+      <c r="C170" s="105"/>
       <c r="D170" s="27"/>
       <c r="E170" s="27"/>
       <c r="F170" s="27"/>
@@ -7042,12 +7134,12 @@
       <c r="Z170" s="25"/>
       <c r="AA170" s="25"/>
     </row>
-    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="78" t="s">
+    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="B171" s="23"/>
-      <c r="C171" s="74"/>
+      <c r="B171" s="83"/>
+      <c r="C171" s="101"/>
       <c r="D171" s="27"/>
       <c r="E171" s="27"/>
       <c r="F171" s="27"/>
@@ -7073,12 +7165,12 @@
       <c r="Z171" s="25"/>
       <c r="AA171" s="25"/>
     </row>
-    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="78" t="s">
+    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B172" s="23"/>
-      <c r="C172" s="74"/>
+      <c r="B172" s="83"/>
+      <c r="C172" s="101"/>
       <c r="D172" s="27"/>
       <c r="E172" s="27"/>
       <c r="F172" s="27"/>
@@ -7104,12 +7196,12 @@
       <c r="Z172" s="25"/>
       <c r="AA172" s="25"/>
     </row>
-    <row r="173" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="78" t="s">
+    <row r="173" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B173" s="23"/>
-      <c r="C173" s="74"/>
+      <c r="B173" s="83"/>
+      <c r="C173" s="101"/>
       <c r="D173" s="27"/>
       <c r="E173" s="27"/>
       <c r="F173" s="27"/>
@@ -7135,12 +7227,12 @@
       <c r="Z173" s="25"/>
       <c r="AA173" s="25"/>
     </row>
-    <row r="174" spans="1:27" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="79" t="s">
+    <row r="174" spans="1:27" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="B174" s="23"/>
-      <c r="C174" s="74"/>
+      <c r="B174" s="83"/>
+      <c r="C174" s="101"/>
       <c r="D174" s="27"/>
       <c r="E174" s="27"/>
       <c r="F174" s="27"/>
@@ -7166,12 +7258,12 @@
       <c r="Z174" s="25"/>
       <c r="AA174" s="25"/>
     </row>
-    <row r="175" spans="1:27" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="79" t="s">
+    <row r="175" spans="1:27" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B175" s="23"/>
-      <c r="C175" s="74"/>
+      <c r="B175" s="83"/>
+      <c r="C175" s="101"/>
       <c r="D175" s="27"/>
       <c r="E175" s="27"/>
       <c r="F175" s="27"/>
@@ -7197,12 +7289,12 @@
       <c r="Z175" s="25"/>
       <c r="AA175" s="25"/>
     </row>
-    <row r="176" spans="1:27" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="79" t="s">
+    <row r="176" spans="1:27" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="B176" s="23"/>
-      <c r="C176" s="74"/>
+      <c r="B176" s="83"/>
+      <c r="C176" s="101"/>
       <c r="D176" s="27"/>
       <c r="E176" s="27"/>
       <c r="F176" s="27"/>
@@ -7228,12 +7320,12 @@
       <c r="Z176" s="25"/>
       <c r="AA176" s="25"/>
     </row>
-    <row r="177" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="79" t="s">
+    <row r="177" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="B177" s="23"/>
-      <c r="C177" s="74"/>
+      <c r="B177" s="83"/>
+      <c r="C177" s="101"/>
       <c r="D177" s="27"/>
       <c r="E177" s="27"/>
       <c r="F177" s="27"/>
@@ -7259,12 +7351,12 @@
       <c r="Z177" s="25"/>
       <c r="AA177" s="25"/>
     </row>
-    <row r="178" spans="1:27" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="79" t="s">
+    <row r="178" spans="1:27" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="B178" s="23"/>
-      <c r="C178" s="74"/>
+      <c r="B178" s="83"/>
+      <c r="C178" s="101"/>
       <c r="D178" s="27"/>
       <c r="E178" s="27"/>
       <c r="F178" s="27"/>
@@ -7290,12 +7382,12 @@
       <c r="Z178" s="25"/>
       <c r="AA178" s="25"/>
     </row>
-    <row r="179" spans="1:27" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="79" t="s">
+    <row r="179" spans="1:27" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="B179" s="23"/>
-      <c r="C179" s="74"/>
+      <c r="B179" s="83"/>
+      <c r="C179" s="101"/>
       <c r="D179" s="27"/>
       <c r="E179" s="27"/>
       <c r="F179" s="27"/>
@@ -7321,12 +7413,12 @@
       <c r="Z179" s="25"/>
       <c r="AA179" s="25"/>
     </row>
-    <row r="180" spans="1:27" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="79" t="s">
+    <row r="180" spans="1:27" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B180" s="23"/>
-      <c r="C180" s="74"/>
+      <c r="B180" s="83"/>
+      <c r="C180" s="101"/>
       <c r="D180" s="27"/>
       <c r="E180" s="27"/>
       <c r="F180" s="27"/>
@@ -7352,12 +7444,12 @@
       <c r="Z180" s="25"/>
       <c r="AA180" s="25"/>
     </row>
-    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="78" t="s">
+    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B181" s="23"/>
-      <c r="C181" s="74"/>
+      <c r="B181" s="83"/>
+      <c r="C181" s="101"/>
       <c r="D181" s="27"/>
       <c r="E181" s="27"/>
       <c r="F181" s="27"/>
@@ -7383,12 +7475,12 @@
       <c r="Z181" s="25"/>
       <c r="AA181" s="25"/>
     </row>
-    <row r="182" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="79" t="s">
+    <row r="182" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B182" s="23"/>
-      <c r="C182" s="74"/>
+      <c r="B182" s="83"/>
+      <c r="C182" s="101"/>
       <c r="D182" s="27"/>
       <c r="E182" s="27"/>
       <c r="F182" s="27"/>
@@ -7414,12 +7506,12 @@
       <c r="Z182" s="25"/>
       <c r="AA182" s="25"/>
     </row>
-    <row r="183" spans="1:27" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="79" t="s">
+    <row r="183" spans="1:27" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="B183" s="23"/>
-      <c r="C183" s="74"/>
+      <c r="B183" s="83"/>
+      <c r="C183" s="101"/>
       <c r="D183" s="27"/>
       <c r="E183" s="27"/>
       <c r="F183" s="27"/>
@@ -7445,12 +7537,12 @@
       <c r="Z183" s="25"/>
       <c r="AA183" s="25"/>
     </row>
-    <row r="184" spans="1:27" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="79" t="s">
+    <row r="184" spans="1:27" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B184" s="23"/>
-      <c r="C184" s="74"/>
+      <c r="B184" s="83"/>
+      <c r="C184" s="101"/>
       <c r="D184" s="27"/>
       <c r="E184" s="27"/>
       <c r="F184" s="27"/>
@@ -7476,12 +7568,12 @@
       <c r="Z184" s="25"/>
       <c r="AA184" s="25"/>
     </row>
-    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="78" t="s">
+    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B185" s="23"/>
-      <c r="C185" s="74"/>
+      <c r="B185" s="83"/>
+      <c r="C185" s="101"/>
       <c r="D185" s="27"/>
       <c r="E185" s="27"/>
       <c r="F185" s="27"/>
@@ -7507,12 +7599,12 @@
       <c r="Z185" s="25"/>
       <c r="AA185" s="25"/>
     </row>
-    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="78" t="s">
+    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B186" s="23"/>
-      <c r="C186" s="74"/>
+      <c r="B186" s="83"/>
+      <c r="C186" s="101"/>
       <c r="D186" s="27"/>
       <c r="E186" s="27"/>
       <c r="F186" s="27"/>
@@ -7538,43 +7630,43 @@
       <c r="Z186" s="25"/>
       <c r="AA186" s="25"/>
     </row>
-    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="62" t="s">
+    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B187" s="43"/>
-      <c r="C187" s="74"/>
-      <c r="D187" s="44"/>
-      <c r="E187" s="44"/>
-      <c r="F187" s="44"/>
-      <c r="G187" s="44"/>
-      <c r="H187" s="44"/>
-      <c r="I187" s="63"/>
-      <c r="J187" s="63"/>
-      <c r="K187" s="63"/>
-      <c r="L187" s="63"/>
-      <c r="M187" s="63"/>
-      <c r="N187" s="63"/>
-      <c r="O187" s="63"/>
-      <c r="P187" s="63"/>
-      <c r="Q187" s="63"/>
-      <c r="R187" s="63"/>
-      <c r="S187" s="63"/>
-      <c r="T187" s="63"/>
-      <c r="U187" s="63"/>
-      <c r="V187" s="63"/>
-      <c r="W187" s="63"/>
-      <c r="X187" s="63"/>
-      <c r="Y187" s="63"/>
-      <c r="Z187" s="63"/>
-      <c r="AA187" s="63"/>
-    </row>
-    <row r="188" spans="1:27" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="86" t="s">
+      <c r="B187" s="89"/>
+      <c r="C187" s="101"/>
+      <c r="D187" s="40"/>
+      <c r="E187" s="40"/>
+      <c r="F187" s="40"/>
+      <c r="G187" s="40"/>
+      <c r="H187" s="40"/>
+      <c r="I187" s="56"/>
+      <c r="J187" s="56"/>
+      <c r="K187" s="56"/>
+      <c r="L187" s="56"/>
+      <c r="M187" s="56"/>
+      <c r="N187" s="56"/>
+      <c r="O187" s="56"/>
+      <c r="P187" s="56"/>
+      <c r="Q187" s="56"/>
+      <c r="R187" s="56"/>
+      <c r="S187" s="56"/>
+      <c r="T187" s="56"/>
+      <c r="U187" s="56"/>
+      <c r="V187" s="56"/>
+      <c r="W187" s="56"/>
+      <c r="X187" s="56"/>
+      <c r="Y187" s="56"/>
+      <c r="Z187" s="56"/>
+      <c r="AA187" s="56"/>
+    </row>
+    <row r="188" spans="1:27" ht="111.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="B188" s="23"/>
-      <c r="C188" s="74"/>
+      <c r="B188" s="83"/>
+      <c r="C188" s="101"/>
       <c r="D188" s="27"/>
       <c r="E188" s="27"/>
       <c r="F188" s="27"/>
@@ -7600,12 +7692,12 @@
       <c r="Z188" s="25"/>
       <c r="AA188" s="25"/>
     </row>
-    <row r="189" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="78" t="s">
+    <row r="189" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="B189" s="23"/>
-      <c r="C189" s="74"/>
+      <c r="B189" s="83"/>
+      <c r="C189" s="101"/>
       <c r="D189" s="27"/>
       <c r="E189" s="27"/>
       <c r="F189" s="27"/>
@@ -7631,12 +7723,12 @@
       <c r="Z189" s="25"/>
       <c r="AA189" s="25"/>
     </row>
-    <row r="190" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="78" t="s">
+    <row r="190" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="B190" s="23"/>
-      <c r="C190" s="74"/>
+      <c r="B190" s="83"/>
+      <c r="C190" s="101"/>
       <c r="D190" s="27"/>
       <c r="E190" s="27"/>
       <c r="F190" s="27"/>
@@ -7662,12 +7754,12 @@
       <c r="Z190" s="25"/>
       <c r="AA190" s="25"/>
     </row>
-    <row r="191" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="79" t="s">
+    <row r="191" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="B191" s="23"/>
-      <c r="C191" s="74"/>
+      <c r="B191" s="83"/>
+      <c r="C191" s="101"/>
       <c r="D191" s="27"/>
       <c r="E191" s="27"/>
       <c r="F191" s="27"/>
@@ -7693,12 +7785,12 @@
       <c r="Z191" s="25"/>
       <c r="AA191" s="25"/>
     </row>
-    <row r="192" spans="1:27" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="79" t="s">
+    <row r="192" spans="1:27" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="B192" s="23"/>
-      <c r="C192" s="74"/>
+      <c r="B192" s="83"/>
+      <c r="C192" s="101"/>
       <c r="D192" s="27"/>
       <c r="E192" s="27"/>
       <c r="F192" s="27"/>
@@ -7724,12 +7816,12 @@
       <c r="Z192" s="25"/>
       <c r="AA192" s="25"/>
     </row>
-    <row r="193" spans="1:27" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="79" t="s">
+    <row r="193" spans="1:27" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="B193" s="23"/>
-      <c r="C193" s="74"/>
+      <c r="B193" s="83"/>
+      <c r="C193" s="101"/>
       <c r="D193" s="27"/>
       <c r="E193" s="27"/>
       <c r="F193" s="27"/>
@@ -7755,12 +7847,12 @@
       <c r="Z193" s="25"/>
       <c r="AA193" s="25"/>
     </row>
-    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="82" t="s">
+    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B194" s="23"/>
-      <c r="C194" s="74"/>
+      <c r="B194" s="83"/>
+      <c r="C194" s="101"/>
       <c r="D194" s="27"/>
       <c r="E194" s="27"/>
       <c r="F194" s="27"/>
@@ -7786,43 +7878,43 @@
       <c r="Z194" s="25"/>
       <c r="AA194" s="25"/>
     </row>
-    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="88" t="s">
+    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B195" s="45"/>
-      <c r="C195" s="74"/>
-      <c r="D195" s="46"/>
-      <c r="E195" s="46"/>
-      <c r="F195" s="46"/>
-      <c r="G195" s="46"/>
-      <c r="H195" s="46"/>
-      <c r="I195" s="47"/>
-      <c r="J195" s="47"/>
-      <c r="K195" s="47"/>
-      <c r="L195" s="47"/>
-      <c r="M195" s="47"/>
-      <c r="N195" s="47"/>
-      <c r="O195" s="47"/>
-      <c r="P195" s="47"/>
-      <c r="Q195" s="47"/>
-      <c r="R195" s="47"/>
-      <c r="S195" s="47"/>
-      <c r="T195" s="47"/>
-      <c r="U195" s="47"/>
-      <c r="V195" s="47"/>
-      <c r="W195" s="47"/>
-      <c r="X195" s="47"/>
-      <c r="Y195" s="47"/>
-      <c r="Z195" s="47"/>
-      <c r="AA195" s="47"/>
-    </row>
-    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="78" t="s">
+      <c r="B195" s="86"/>
+      <c r="C195" s="101"/>
+      <c r="D195" s="41"/>
+      <c r="E195" s="41"/>
+      <c r="F195" s="41"/>
+      <c r="G195" s="41"/>
+      <c r="H195" s="41"/>
+      <c r="I195" s="42"/>
+      <c r="J195" s="42"/>
+      <c r="K195" s="42"/>
+      <c r="L195" s="42"/>
+      <c r="M195" s="42"/>
+      <c r="N195" s="42"/>
+      <c r="O195" s="42"/>
+      <c r="P195" s="42"/>
+      <c r="Q195" s="42"/>
+      <c r="R195" s="42"/>
+      <c r="S195" s="42"/>
+      <c r="T195" s="42"/>
+      <c r="U195" s="42"/>
+      <c r="V195" s="42"/>
+      <c r="W195" s="42"/>
+      <c r="X195" s="42"/>
+      <c r="Y195" s="42"/>
+      <c r="Z195" s="42"/>
+      <c r="AA195" s="42"/>
+    </row>
+    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="B196" s="23"/>
-      <c r="C196" s="74"/>
+      <c r="B196" s="83"/>
+      <c r="C196" s="101"/>
       <c r="D196" s="27"/>
       <c r="E196" s="27"/>
       <c r="F196" s="27"/>
@@ -7848,12 +7940,12 @@
       <c r="Z196" s="25"/>
       <c r="AA196" s="25"/>
     </row>
-    <row r="197" spans="1:27" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="79" t="s">
+    <row r="197" spans="1:27" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="B197" s="23"/>
-      <c r="C197" s="74"/>
+      <c r="B197" s="83"/>
+      <c r="C197" s="101"/>
       <c r="D197" s="27"/>
       <c r="E197" s="27"/>
       <c r="F197" s="27"/>
@@ -7879,12 +7971,12 @@
       <c r="Z197" s="25"/>
       <c r="AA197" s="25"/>
     </row>
-    <row r="198" spans="1:27" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="79" t="s">
+    <row r="198" spans="1:27" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B198" s="23"/>
-      <c r="C198" s="74"/>
+      <c r="B198" s="83"/>
+      <c r="C198" s="101"/>
       <c r="D198" s="27"/>
       <c r="E198" s="27"/>
       <c r="F198" s="27"/>
@@ -7910,12 +8002,12 @@
       <c r="Z198" s="25"/>
       <c r="AA198" s="25"/>
     </row>
-    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="78" t="s">
+    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="B199" s="23"/>
-      <c r="C199" s="74"/>
+      <c r="B199" s="83"/>
+      <c r="C199" s="101"/>
       <c r="D199" s="27"/>
       <c r="E199" s="27"/>
       <c r="F199" s="27"/>
@@ -7941,12 +8033,12 @@
       <c r="Z199" s="25"/>
       <c r="AA199" s="25"/>
     </row>
-    <row r="200" spans="1:27" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="79" t="s">
+    <row r="200" spans="1:27" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B200" s="23"/>
-      <c r="C200" s="74"/>
+      <c r="B200" s="83"/>
+      <c r="C200" s="101"/>
       <c r="D200" s="27"/>
       <c r="E200" s="27"/>
       <c r="F200" s="27"/>
@@ -7972,43 +8064,43 @@
       <c r="Z200" s="25"/>
       <c r="AA200" s="25"/>
     </row>
-    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="87" t="s">
+    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B201" s="45"/>
-      <c r="C201" s="74"/>
-      <c r="D201" s="46"/>
-      <c r="E201" s="46"/>
-      <c r="F201" s="46"/>
-      <c r="G201" s="46"/>
-      <c r="H201" s="46"/>
-      <c r="I201" s="47"/>
-      <c r="J201" s="47"/>
-      <c r="K201" s="47"/>
-      <c r="L201" s="47"/>
-      <c r="M201" s="47"/>
-      <c r="N201" s="47"/>
-      <c r="O201" s="47"/>
-      <c r="P201" s="47"/>
-      <c r="Q201" s="47"/>
-      <c r="R201" s="47"/>
-      <c r="S201" s="47"/>
-      <c r="T201" s="47"/>
-      <c r="U201" s="47"/>
-      <c r="V201" s="47"/>
-      <c r="W201" s="47"/>
-      <c r="X201" s="47"/>
-      <c r="Y201" s="47"/>
-      <c r="Z201" s="47"/>
-      <c r="AA201" s="47"/>
-    </row>
-    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="78" t="s">
+      <c r="B201" s="86"/>
+      <c r="C201" s="101"/>
+      <c r="D201" s="41"/>
+      <c r="E201" s="41"/>
+      <c r="F201" s="41"/>
+      <c r="G201" s="41"/>
+      <c r="H201" s="41"/>
+      <c r="I201" s="42"/>
+      <c r="J201" s="42"/>
+      <c r="K201" s="42"/>
+      <c r="L201" s="42"/>
+      <c r="M201" s="42"/>
+      <c r="N201" s="42"/>
+      <c r="O201" s="42"/>
+      <c r="P201" s="42"/>
+      <c r="Q201" s="42"/>
+      <c r="R201" s="42"/>
+      <c r="S201" s="42"/>
+      <c r="T201" s="42"/>
+      <c r="U201" s="42"/>
+      <c r="V201" s="42"/>
+      <c r="W201" s="42"/>
+      <c r="X201" s="42"/>
+      <c r="Y201" s="42"/>
+      <c r="Z201" s="42"/>
+      <c r="AA201" s="42"/>
+    </row>
+    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B202" s="23"/>
-      <c r="C202" s="74"/>
+      <c r="B202" s="83"/>
+      <c r="C202" s="101"/>
       <c r="D202" s="27"/>
       <c r="E202" s="27"/>
       <c r="F202" s="27"/>
@@ -8034,12 +8126,12 @@
       <c r="Z202" s="25"/>
       <c r="AA202" s="25"/>
     </row>
-    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="78" t="s">
+    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B203" s="23"/>
-      <c r="C203" s="74"/>
+      <c r="B203" s="83"/>
+      <c r="C203" s="101"/>
       <c r="D203" s="27"/>
       <c r="E203" s="27"/>
       <c r="F203" s="27"/>
@@ -8065,12 +8157,12 @@
       <c r="Z203" s="25"/>
       <c r="AA203" s="25"/>
     </row>
-    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="78" t="s">
+    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B204" s="23"/>
-      <c r="C204" s="74"/>
+      <c r="B204" s="83"/>
+      <c r="C204" s="101"/>
       <c r="D204" s="27"/>
       <c r="E204" s="27"/>
       <c r="F204" s="27"/>
@@ -8096,12 +8188,12 @@
       <c r="Z204" s="25"/>
       <c r="AA204" s="25"/>
     </row>
-    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="78" t="s">
+    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B205" s="23"/>
-      <c r="C205" s="74"/>
+      <c r="B205" s="83"/>
+      <c r="C205" s="101"/>
       <c r="D205" s="27"/>
       <c r="E205" s="27"/>
       <c r="F205" s="27"/>
@@ -8127,12 +8219,12 @@
       <c r="Z205" s="25"/>
       <c r="AA205" s="25"/>
     </row>
-    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="78" t="s">
+    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B206" s="23"/>
-      <c r="C206" s="74"/>
+      <c r="B206" s="83"/>
+      <c r="C206" s="101"/>
       <c r="D206" s="27"/>
       <c r="E206" s="27"/>
       <c r="F206" s="27"/>
@@ -8158,12 +8250,12 @@
       <c r="Z206" s="25"/>
       <c r="AA206" s="25"/>
     </row>
-    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="78" t="s">
+    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="B207" s="23"/>
-      <c r="C207" s="74"/>
+      <c r="B207" s="83"/>
+      <c r="C207" s="101"/>
       <c r="D207" s="27"/>
       <c r="E207" s="27"/>
       <c r="F207" s="27"/>
@@ -8189,12 +8281,12 @@
       <c r="Z207" s="25"/>
       <c r="AA207" s="25"/>
     </row>
-    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="78" t="s">
+    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="B208" s="23"/>
-      <c r="C208" s="74"/>
+      <c r="B208" s="83"/>
+      <c r="C208" s="101"/>
       <c r="D208" s="27"/>
       <c r="E208" s="27"/>
       <c r="F208" s="27"/>
@@ -8220,12 +8312,12 @@
       <c r="Z208" s="25"/>
       <c r="AA208" s="25"/>
     </row>
-    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="78" t="s">
+    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B209" s="23"/>
-      <c r="C209" s="74"/>
+      <c r="B209" s="83"/>
+      <c r="C209" s="101"/>
       <c r="D209" s="27"/>
       <c r="E209" s="27"/>
       <c r="F209" s="27"/>
@@ -8251,12 +8343,12 @@
       <c r="Z209" s="25"/>
       <c r="AA209" s="25"/>
     </row>
-    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="78" t="s">
+    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B210" s="23"/>
-      <c r="C210" s="74"/>
+      <c r="B210" s="83"/>
+      <c r="C210" s="101"/>
       <c r="D210" s="27"/>
       <c r="E210" s="27"/>
       <c r="F210" s="27"/>
@@ -8282,12 +8374,12 @@
       <c r="Z210" s="25"/>
       <c r="AA210" s="25"/>
     </row>
-    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="78" t="s">
+    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B211" s="23"/>
-      <c r="C211" s="74"/>
+      <c r="B211" s="83"/>
+      <c r="C211" s="101"/>
       <c r="D211" s="27"/>
       <c r="E211" s="27"/>
       <c r="F211" s="27"/>
@@ -8313,12 +8405,12 @@
       <c r="Z211" s="25"/>
       <c r="AA211" s="25"/>
     </row>
-    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="78" t="s">
+    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="B212" s="23"/>
-      <c r="C212" s="74"/>
+      <c r="B212" s="83"/>
+      <c r="C212" s="101"/>
       <c r="D212" s="27"/>
       <c r="E212" s="27"/>
       <c r="F212" s="27"/>
@@ -8344,12 +8436,12 @@
       <c r="Z212" s="25"/>
       <c r="AA212" s="25"/>
     </row>
-    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="78" t="s">
+    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B213" s="23"/>
-      <c r="C213" s="74"/>
+      <c r="B213" s="83"/>
+      <c r="C213" s="101"/>
       <c r="D213" s="27"/>
       <c r="E213" s="27"/>
       <c r="F213" s="27"/>
@@ -8375,12 +8467,12 @@
       <c r="Z213" s="25"/>
       <c r="AA213" s="25"/>
     </row>
-    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="85" t="s">
+    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="74"/>
+      <c r="B214" s="83"/>
+      <c r="C214" s="101"/>
       <c r="D214" s="27"/>
       <c r="E214" s="27"/>
       <c r="F214" s="27"/>
@@ -8406,12 +8498,12 @@
       <c r="Z214" s="25"/>
       <c r="AA214" s="25"/>
     </row>
-    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="85" t="s">
+    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B215" s="23"/>
-      <c r="C215" s="74"/>
+      <c r="B215" s="83"/>
+      <c r="C215" s="101"/>
       <c r="D215" s="27"/>
       <c r="E215" s="27"/>
       <c r="F215" s="27"/>
@@ -8437,12 +8529,12 @@
       <c r="Z215" s="25"/>
       <c r="AA215" s="25"/>
     </row>
-    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="78" t="s">
+    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B216" s="23"/>
-      <c r="C216" s="74"/>
+      <c r="B216" s="83"/>
+      <c r="C216" s="101"/>
       <c r="D216" s="27"/>
       <c r="E216" s="27"/>
       <c r="F216" s="27"/>
@@ -8468,12 +8560,12 @@
       <c r="Z216" s="25"/>
       <c r="AA216" s="25"/>
     </row>
-    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="78" t="s">
+    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B217" s="23"/>
-      <c r="C217" s="74"/>
+      <c r="B217" s="83"/>
+      <c r="C217" s="101"/>
       <c r="D217" s="27"/>
       <c r="E217" s="27"/>
       <c r="F217" s="27"/>
@@ -8499,12 +8591,12 @@
       <c r="Z217" s="25"/>
       <c r="AA217" s="25"/>
     </row>
-    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="78" t="s">
+    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="B218" s="23"/>
-      <c r="C218" s="74"/>
+      <c r="B218" s="83"/>
+      <c r="C218" s="101"/>
       <c r="D218" s="27"/>
       <c r="E218" s="27"/>
       <c r="F218" s="27"/>
@@ -8530,12 +8622,12 @@
       <c r="Z218" s="25"/>
       <c r="AA218" s="25"/>
     </row>
-    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="78" t="s">
+    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="B219" s="23"/>
-      <c r="C219" s="74"/>
+      <c r="B219" s="83"/>
+      <c r="C219" s="101"/>
       <c r="D219" s="27"/>
       <c r="E219" s="27"/>
       <c r="F219" s="27"/>
@@ -8561,12 +8653,12 @@
       <c r="Z219" s="25"/>
       <c r="AA219" s="25"/>
     </row>
-    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="78" t="s">
+    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="B220" s="23"/>
-      <c r="C220" s="74"/>
+      <c r="B220" s="83"/>
+      <c r="C220" s="101"/>
       <c r="D220" s="27"/>
       <c r="E220" s="27"/>
       <c r="F220" s="27"/>
@@ -8592,12 +8684,12 @@
       <c r="Z220" s="25"/>
       <c r="AA220" s="25"/>
     </row>
-    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="78" t="s">
+    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B221" s="23"/>
-      <c r="C221" s="74"/>
+      <c r="B221" s="83"/>
+      <c r="C221" s="101"/>
       <c r="D221" s="27"/>
       <c r="E221" s="27"/>
       <c r="F221" s="27"/>
@@ -8623,12 +8715,12 @@
       <c r="Z221" s="25"/>
       <c r="AA221" s="25"/>
     </row>
-    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="78" t="s">
+    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B222" s="23"/>
-      <c r="C222" s="74"/>
+      <c r="B222" s="83"/>
+      <c r="C222" s="101"/>
       <c r="D222" s="27"/>
       <c r="E222" s="27"/>
       <c r="F222" s="27"/>
@@ -8654,12 +8746,12 @@
       <c r="Z222" s="25"/>
       <c r="AA222" s="25"/>
     </row>
-    <row r="223" spans="1:27" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="79" t="s">
+    <row r="223" spans="1:27" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="B223" s="23"/>
-      <c r="C223" s="74"/>
+      <c r="B223" s="83"/>
+      <c r="C223" s="101"/>
       <c r="D223" s="27"/>
       <c r="E223" s="27"/>
       <c r="F223" s="27"/>
@@ -8685,12 +8777,12 @@
       <c r="Z223" s="25"/>
       <c r="AA223" s="25"/>
     </row>
-    <row r="224" spans="1:27" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="79" t="s">
+    <row r="224" spans="1:27" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B224" s="23"/>
-      <c r="C224" s="74"/>
+      <c r="B224" s="83"/>
+      <c r="C224" s="101"/>
       <c r="D224" s="27"/>
       <c r="E224" s="27"/>
       <c r="F224" s="27"/>
@@ -8716,12 +8808,12 @@
       <c r="Z224" s="25"/>
       <c r="AA224" s="25"/>
     </row>
-    <row r="225" spans="1:27" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="79" t="s">
+    <row r="225" spans="1:27" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B225" s="23"/>
-      <c r="C225" s="74"/>
+      <c r="B225" s="83"/>
+      <c r="C225" s="101"/>
       <c r="D225" s="27"/>
       <c r="E225" s="27"/>
       <c r="F225" s="27"/>
@@ -8747,12 +8839,12 @@
       <c r="Z225" s="25"/>
       <c r="AA225" s="25"/>
     </row>
-    <row r="226" spans="1:27" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="79" t="s">
+    <row r="226" spans="1:27" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="B226" s="23"/>
-      <c r="C226" s="74"/>
+      <c r="B226" s="83"/>
+      <c r="C226" s="101"/>
       <c r="D226" s="27"/>
       <c r="E226" s="27"/>
       <c r="F226" s="27"/>
@@ -8778,12 +8870,12 @@
       <c r="Z226" s="25"/>
       <c r="AA226" s="25"/>
     </row>
-    <row r="227" spans="1:27" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="79" t="s">
+    <row r="227" spans="1:27" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="B227" s="23"/>
-      <c r="C227" s="74"/>
+      <c r="B227" s="83"/>
+      <c r="C227" s="101"/>
       <c r="D227" s="27"/>
       <c r="E227" s="27"/>
       <c r="F227" s="27"/>
@@ -8809,12 +8901,12 @@
       <c r="Z227" s="25"/>
       <c r="AA227" s="25"/>
     </row>
-    <row r="228" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="79" t="s">
+    <row r="228" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B228" s="23"/>
-      <c r="C228" s="74"/>
+      <c r="B228" s="83"/>
+      <c r="C228" s="101"/>
       <c r="D228" s="27"/>
       <c r="E228" s="27"/>
       <c r="F228" s="27"/>
@@ -8840,17 +8932,17 @@
       <c r="Z228" s="25"/>
       <c r="AA228" s="25"/>
     </row>
-    <row r="229" spans="1:27" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="79" t="s">
+    <row r="229" spans="1:27" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B229" s="64"/>
-      <c r="C229" s="73"/>
-      <c r="D229" s="65"/>
-      <c r="E229" s="65"/>
-      <c r="F229" s="65"/>
-      <c r="G229" s="65"/>
-      <c r="H229" s="65"/>
+      <c r="B229" s="90"/>
+      <c r="C229" s="100"/>
+      <c r="D229" s="57"/>
+      <c r="E229" s="57"/>
+      <c r="F229" s="57"/>
+      <c r="G229" s="57"/>
+      <c r="H229" s="57"/>
       <c r="I229" s="25"/>
       <c r="J229" s="25"/>
       <c r="K229" s="25"/>
@@ -8871,12 +8963,12 @@
       <c r="Z229" s="25"/>
       <c r="AA229" s="25"/>
     </row>
-    <row r="230" spans="1:27" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="78" t="s">
+    <row r="230" spans="1:27" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B230" s="25"/>
-      <c r="C230" s="71"/>
+      <c r="B230" s="79"/>
+      <c r="C230" s="98"/>
       <c r="D230" s="25"/>
       <c r="E230" s="25"/>
       <c r="F230" s="25"/>
@@ -8902,12 +8994,12 @@
       <c r="Z230" s="25"/>
       <c r="AA230" s="25"/>
     </row>
-    <row r="231" spans="1:27" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="79" t="s">
+    <row r="231" spans="1:27" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B231" s="25"/>
-      <c r="C231" s="71"/>
+      <c r="B231" s="79"/>
+      <c r="C231" s="98"/>
       <c r="D231" s="25"/>
       <c r="E231" s="25"/>
       <c r="F231" s="25"/>
@@ -8933,12 +9025,12 @@
       <c r="Z231" s="25"/>
       <c r="AA231" s="25"/>
     </row>
-    <row r="232" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="78" t="s">
+    <row r="232" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B232" s="25"/>
-      <c r="C232" s="71"/>
+      <c r="B232" s="79"/>
+      <c r="C232" s="98"/>
       <c r="D232" s="25"/>
       <c r="E232" s="25"/>
       <c r="F232" s="25"/>
@@ -8964,12 +9056,12 @@
       <c r="Z232" s="25"/>
       <c r="AA232" s="25"/>
     </row>
-    <row r="233" spans="1:27" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="78" t="s">
+    <row r="233" spans="1:27" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B233" s="25"/>
-      <c r="C233" s="71"/>
+      <c r="B233" s="79"/>
+      <c r="C233" s="98"/>
       <c r="D233" s="25"/>
       <c r="E233" s="25"/>
       <c r="F233" s="25"/>
@@ -8995,43 +9087,43 @@
       <c r="Z233" s="25"/>
       <c r="AA233" s="25"/>
     </row>
-    <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="49" t="s">
+    <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B234" s="47"/>
-      <c r="C234" s="71"/>
-      <c r="D234" s="47"/>
-      <c r="E234" s="47"/>
-      <c r="F234" s="47"/>
-      <c r="G234" s="47"/>
-      <c r="H234" s="47"/>
-      <c r="I234" s="47"/>
-      <c r="J234" s="47"/>
-      <c r="K234" s="47"/>
-      <c r="L234" s="47"/>
-      <c r="M234" s="47"/>
-      <c r="N234" s="47"/>
-      <c r="O234" s="47"/>
-      <c r="P234" s="47"/>
-      <c r="Q234" s="47"/>
-      <c r="R234" s="47"/>
-      <c r="S234" s="47"/>
-      <c r="T234" s="47"/>
-      <c r="U234" s="47"/>
-      <c r="V234" s="47"/>
-      <c r="W234" s="47"/>
-      <c r="X234" s="47"/>
-      <c r="Y234" s="47"/>
-      <c r="Z234" s="47"/>
-      <c r="AA234" s="47"/>
-    </row>
-    <row r="235" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="78" t="s">
+      <c r="B234" s="91"/>
+      <c r="C234" s="98"/>
+      <c r="D234" s="42"/>
+      <c r="E234" s="42"/>
+      <c r="F234" s="42"/>
+      <c r="G234" s="42"/>
+      <c r="H234" s="42"/>
+      <c r="I234" s="42"/>
+      <c r="J234" s="42"/>
+      <c r="K234" s="42"/>
+      <c r="L234" s="42"/>
+      <c r="M234" s="42"/>
+      <c r="N234" s="42"/>
+      <c r="O234" s="42"/>
+      <c r="P234" s="42"/>
+      <c r="Q234" s="42"/>
+      <c r="R234" s="42"/>
+      <c r="S234" s="42"/>
+      <c r="T234" s="42"/>
+      <c r="U234" s="42"/>
+      <c r="V234" s="42"/>
+      <c r="W234" s="42"/>
+      <c r="X234" s="42"/>
+      <c r="Y234" s="42"/>
+      <c r="Z234" s="42"/>
+      <c r="AA234" s="42"/>
+    </row>
+    <row r="235" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B235" s="25"/>
-      <c r="C235" s="71"/>
+      <c r="B235" s="79"/>
+      <c r="C235" s="98"/>
       <c r="D235" s="25"/>
       <c r="E235" s="25"/>
       <c r="F235" s="25"/>
@@ -9057,12 +9149,12 @@
       <c r="Z235" s="25"/>
       <c r="AA235" s="25"/>
     </row>
-    <row r="236" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="78" t="s">
+    <row r="236" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="B236" s="25"/>
-      <c r="C236" s="71"/>
+      <c r="B236" s="79"/>
+      <c r="C236" s="98"/>
       <c r="D236" s="25"/>
       <c r="E236" s="25"/>
       <c r="F236" s="25"/>
@@ -9088,12 +9180,12 @@
       <c r="Z236" s="25"/>
       <c r="AA236" s="25"/>
     </row>
-    <row r="237" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="78" t="s">
+    <row r="237" spans="1:27" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="B237" s="25"/>
-      <c r="C237" s="71"/>
+      <c r="B237" s="79"/>
+      <c r="C237" s="98"/>
       <c r="D237" s="25"/>
       <c r="E237" s="25"/>
       <c r="F237" s="25"/>
@@ -9119,12 +9211,12 @@
       <c r="Z237" s="25"/>
       <c r="AA237" s="25"/>
     </row>
-    <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="85" t="s">
+    <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B238" s="25"/>
-      <c r="C238" s="71"/>
+      <c r="B238" s="79"/>
+      <c r="C238" s="98"/>
       <c r="D238" s="25"/>
       <c r="E238" s="25"/>
       <c r="F238" s="25"/>
@@ -9150,12 +9242,12 @@
       <c r="Z238" s="25"/>
       <c r="AA238" s="25"/>
     </row>
-    <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="85" t="s">
+    <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B239" s="25"/>
-      <c r="C239" s="71"/>
+      <c r="B239" s="79"/>
+      <c r="C239" s="98"/>
       <c r="D239" s="25"/>
       <c r="E239" s="25"/>
       <c r="F239" s="25"/>
@@ -9181,12 +9273,12 @@
       <c r="Z239" s="25"/>
       <c r="AA239" s="25"/>
     </row>
-    <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="78" t="s">
+    <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B240" s="25"/>
-      <c r="C240" s="71"/>
+      <c r="B240" s="79"/>
+      <c r="C240" s="98"/>
       <c r="D240" s="25"/>
       <c r="E240" s="25"/>
       <c r="F240" s="25"/>
@@ -9212,12 +9304,12 @@
       <c r="Z240" s="25"/>
       <c r="AA240" s="25"/>
     </row>
-    <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="78" t="s">
+    <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B241" s="25"/>
-      <c r="C241" s="71"/>
+      <c r="B241" s="79"/>
+      <c r="C241" s="98"/>
       <c r="D241" s="25"/>
       <c r="E241" s="25"/>
       <c r="F241" s="25"/>
@@ -9243,12 +9335,12 @@
       <c r="Z241" s="25"/>
       <c r="AA241" s="25"/>
     </row>
-    <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="78" t="s">
+    <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="B242" s="25"/>
-      <c r="C242" s="71"/>
+      <c r="B242" s="79"/>
+      <c r="C242" s="98"/>
       <c r="D242" s="25"/>
       <c r="E242" s="25"/>
       <c r="F242" s="25"/>
@@ -9274,12 +9366,12 @@
       <c r="Z242" s="25"/>
       <c r="AA242" s="25"/>
     </row>
-    <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="78" t="s">
+    <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="B243" s="25"/>
-      <c r="C243" s="71"/>
+      <c r="B243" s="79"/>
+      <c r="C243" s="98"/>
       <c r="D243" s="25"/>
       <c r="E243" s="25"/>
       <c r="F243" s="25"/>
@@ -9305,12 +9397,12 @@
       <c r="Z243" s="25"/>
       <c r="AA243" s="25"/>
     </row>
-    <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="78" t="s">
+    <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="B244" s="25"/>
-      <c r="C244" s="71"/>
+      <c r="B244" s="79"/>
+      <c r="C244" s="98"/>
       <c r="D244" s="25"/>
       <c r="E244" s="25"/>
       <c r="F244" s="25"/>
@@ -9336,12 +9428,12 @@
       <c r="Z244" s="25"/>
       <c r="AA244" s="25"/>
     </row>
-    <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="78" t="s">
+    <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B245" s="25"/>
-      <c r="C245" s="71"/>
+      <c r="B245" s="79"/>
+      <c r="C245" s="98"/>
       <c r="D245" s="25"/>
       <c r="E245" s="25"/>
       <c r="F245" s="25"/>
@@ -9367,12 +9459,12 @@
       <c r="Z245" s="25"/>
       <c r="AA245" s="25"/>
     </row>
-    <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="78" t="s">
+    <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B246" s="25"/>
-      <c r="C246" s="71"/>
+      <c r="B246" s="79"/>
+      <c r="C246" s="98"/>
       <c r="D246" s="25"/>
       <c r="E246" s="25"/>
       <c r="F246" s="25"/>
@@ -9398,12 +9490,12 @@
       <c r="Z246" s="25"/>
       <c r="AA246" s="25"/>
     </row>
-    <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="78" t="s">
+    <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="B247" s="25"/>
-      <c r="C247" s="71"/>
+      <c r="B247" s="79"/>
+      <c r="C247" s="98"/>
       <c r="D247" s="25"/>
       <c r="E247" s="25"/>
       <c r="F247" s="25"/>
@@ -9429,12 +9521,12 @@
       <c r="Z247" s="25"/>
       <c r="AA247" s="25"/>
     </row>
-    <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="78" t="s">
+    <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B248" s="25"/>
-      <c r="C248" s="71"/>
+      <c r="B248" s="79"/>
+      <c r="C248" s="98"/>
       <c r="D248" s="25"/>
       <c r="E248" s="25"/>
       <c r="F248" s="25"/>
@@ -9460,12 +9552,12 @@
       <c r="Z248" s="25"/>
       <c r="AA248" s="25"/>
     </row>
-    <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="78" t="s">
+    <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B249" s="25"/>
-      <c r="C249" s="71"/>
+      <c r="B249" s="79"/>
+      <c r="C249" s="98"/>
       <c r="D249" s="25"/>
       <c r="E249" s="25"/>
       <c r="F249" s="25"/>
@@ -9491,43 +9583,43 @@
       <c r="Z249" s="25"/>
       <c r="AA249" s="25"/>
     </row>
-    <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="49" t="s">
+    <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B250" s="47"/>
-      <c r="C250" s="71"/>
-      <c r="D250" s="47"/>
-      <c r="E250" s="47"/>
-      <c r="F250" s="47"/>
-      <c r="G250" s="47"/>
-      <c r="H250" s="47"/>
-      <c r="I250" s="47"/>
-      <c r="J250" s="47"/>
-      <c r="K250" s="47"/>
-      <c r="L250" s="47"/>
-      <c r="M250" s="47"/>
-      <c r="N250" s="47"/>
-      <c r="O250" s="47"/>
-      <c r="P250" s="47"/>
-      <c r="Q250" s="47"/>
-      <c r="R250" s="47"/>
-      <c r="S250" s="47"/>
-      <c r="T250" s="47"/>
-      <c r="U250" s="47"/>
-      <c r="V250" s="47"/>
-      <c r="W250" s="47"/>
-      <c r="X250" s="47"/>
-      <c r="Y250" s="47"/>
-      <c r="Z250" s="47"/>
-      <c r="AA250" s="47"/>
-    </row>
-    <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="91"/>
+      <c r="C250" s="98"/>
+      <c r="D250" s="42"/>
+      <c r="E250" s="42"/>
+      <c r="F250" s="42"/>
+      <c r="G250" s="42"/>
+      <c r="H250" s="42"/>
+      <c r="I250" s="42"/>
+      <c r="J250" s="42"/>
+      <c r="K250" s="42"/>
+      <c r="L250" s="42"/>
+      <c r="M250" s="42"/>
+      <c r="N250" s="42"/>
+      <c r="O250" s="42"/>
+      <c r="P250" s="42"/>
+      <c r="Q250" s="42"/>
+      <c r="R250" s="42"/>
+      <c r="S250" s="42"/>
+      <c r="T250" s="42"/>
+      <c r="U250" s="42"/>
+      <c r="V250" s="42"/>
+      <c r="W250" s="42"/>
+      <c r="X250" s="42"/>
+      <c r="Y250" s="42"/>
+      <c r="Z250" s="42"/>
+      <c r="AA250" s="42"/>
+    </row>
+    <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B251" s="25"/>
-      <c r="C251" s="71"/>
+      <c r="B251" s="79"/>
+      <c r="C251" s="98"/>
       <c r="D251" s="25"/>
       <c r="E251" s="25"/>
       <c r="F251" s="25"/>
@@ -9553,12 +9645,12 @@
       <c r="Z251" s="25"/>
       <c r="AA251" s="25"/>
     </row>
-    <row r="252" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B252" s="25"/>
-      <c r="C252" s="71"/>
+      <c r="B252" s="79"/>
+      <c r="C252" s="98"/>
       <c r="D252" s="25"/>
       <c r="E252" s="25"/>
       <c r="F252" s="25"/>
@@ -9584,12 +9676,12 @@
       <c r="Z252" s="25"/>
       <c r="AA252" s="25"/>
     </row>
-    <row r="253" spans="1:27" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:27" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B253" s="25"/>
-      <c r="C253" s="71"/>
+      <c r="B253" s="79"/>
+      <c r="C253" s="98"/>
       <c r="D253" s="25"/>
       <c r="E253" s="25"/>
       <c r="F253" s="25"/>
@@ -9615,12 +9707,12 @@
       <c r="Z253" s="25"/>
       <c r="AA253" s="25"/>
     </row>
-    <row r="254" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:27" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B254" s="25"/>
-      <c r="C254" s="71"/>
+      <c r="B254" s="79"/>
+      <c r="C254" s="98"/>
       <c r="D254" s="25"/>
       <c r="E254" s="25"/>
       <c r="F254" s="25"/>
@@ -9646,12 +9738,12 @@
       <c r="Z254" s="25"/>
       <c r="AA254" s="25"/>
     </row>
-    <row r="255" spans="1:27" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:27" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B255" s="25"/>
-      <c r="C255" s="71"/>
+      <c r="B255" s="79"/>
+      <c r="C255" s="98"/>
       <c r="D255" s="25"/>
       <c r="E255" s="25"/>
       <c r="F255" s="25"/>
@@ -9677,12 +9769,12 @@
       <c r="Z255" s="25"/>
       <c r="AA255" s="25"/>
     </row>
-    <row r="256" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B256" s="25"/>
-      <c r="C256" s="71"/>
+      <c r="B256" s="79"/>
+      <c r="C256" s="98"/>
       <c r="D256" s="25"/>
       <c r="E256" s="25"/>
       <c r="F256" s="25"/>
@@ -9708,12 +9800,12 @@
       <c r="Z256" s="25"/>
       <c r="AA256" s="25"/>
     </row>
-    <row r="257" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B257" s="25"/>
-      <c r="C257" s="71"/>
+      <c r="B257" s="79"/>
+      <c r="C257" s="98"/>
       <c r="D257" s="25"/>
       <c r="E257" s="25"/>
       <c r="F257" s="25"/>
@@ -9739,12 +9831,12 @@
       <c r="Z257" s="25"/>
       <c r="AA257" s="25"/>
     </row>
-    <row r="258" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:27" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B258" s="25"/>
-      <c r="C258" s="71"/>
+      <c r="B258" s="79"/>
+      <c r="C258" s="98"/>
       <c r="D258" s="25"/>
       <c r="E258" s="25"/>
       <c r="F258" s="25"/>
@@ -9770,12 +9862,12 @@
       <c r="Z258" s="25"/>
       <c r="AA258" s="25"/>
     </row>
-    <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B259" s="25"/>
-      <c r="C259" s="71"/>
+      <c r="B259" s="79"/>
+      <c r="C259" s="98"/>
       <c r="D259" s="25"/>
       <c r="E259" s="25"/>
       <c r="F259" s="25"/>
@@ -9801,12 +9893,12 @@
       <c r="Z259" s="25"/>
       <c r="AA259" s="25"/>
     </row>
-    <row r="260" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B260" s="25"/>
-      <c r="C260" s="71"/>
+      <c r="B260" s="79"/>
+      <c r="C260" s="98"/>
       <c r="D260" s="25"/>
       <c r="E260" s="25"/>
       <c r="F260" s="25"/>
@@ -9832,12 +9924,12 @@
       <c r="Z260" s="25"/>
       <c r="AA260" s="25"/>
     </row>
-    <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B261" s="25"/>
-      <c r="C261" s="71"/>
+      <c r="B261" s="79"/>
+      <c r="C261" s="98"/>
       <c r="D261" s="25"/>
       <c r="E261" s="25"/>
       <c r="F261" s="25"/>
@@ -9863,12 +9955,12 @@
       <c r="Z261" s="25"/>
       <c r="AA261" s="25"/>
     </row>
-    <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B262" s="25"/>
-      <c r="C262" s="71"/>
+      <c r="B262" s="79"/>
+      <c r="C262" s="98"/>
       <c r="D262" s="25"/>
       <c r="E262" s="25"/>
       <c r="F262" s="25"/>
@@ -9894,12 +9986,12 @@
       <c r="Z262" s="25"/>
       <c r="AA262" s="25"/>
     </row>
-    <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B263" s="25"/>
-      <c r="C263" s="71"/>
+      <c r="B263" s="79"/>
+      <c r="C263" s="98"/>
       <c r="D263" s="25"/>
       <c r="E263" s="25"/>
       <c r="F263" s="25"/>
@@ -9925,12 +10017,12 @@
       <c r="Z263" s="25"/>
       <c r="AA263" s="25"/>
     </row>
-    <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B264" s="25"/>
-      <c r="C264" s="71"/>
+      <c r="B264" s="79"/>
+      <c r="C264" s="98"/>
       <c r="D264" s="25"/>
       <c r="E264" s="25"/>
       <c r="F264" s="25"/>
@@ -9956,12 +10048,12 @@
       <c r="Z264" s="25"/>
       <c r="AA264" s="25"/>
     </row>
-    <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="78" t="s">
+    <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="B265" s="25"/>
-      <c r="C265" s="71"/>
+      <c r="B265" s="79"/>
+      <c r="C265" s="98"/>
       <c r="D265" s="25"/>
       <c r="E265" s="25"/>
       <c r="F265" s="25"/>
@@ -9987,12 +10079,12 @@
       <c r="Z265" s="25"/>
       <c r="AA265" s="25"/>
     </row>
-    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="78" t="s">
+    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B266" s="25"/>
-      <c r="C266" s="71"/>
+      <c r="B266" s="79"/>
+      <c r="C266" s="98"/>
       <c r="D266" s="25"/>
       <c r="E266" s="25"/>
       <c r="F266" s="25"/>
@@ -10018,12 +10110,12 @@
       <c r="Z266" s="25"/>
       <c r="AA266" s="25"/>
     </row>
-    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="83" t="s">
+    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B267" s="25"/>
-      <c r="C267" s="71"/>
+      <c r="B267" s="79"/>
+      <c r="C267" s="98"/>
       <c r="D267" s="25"/>
       <c r="E267" s="25"/>
       <c r="F267" s="25"/>
@@ -10049,43 +10141,43 @@
       <c r="Z267" s="25"/>
       <c r="AA267" s="25"/>
     </row>
-    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="49" t="s">
+    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B268" s="47"/>
-      <c r="C268" s="71"/>
-      <c r="D268" s="47"/>
-      <c r="E268" s="47"/>
-      <c r="F268" s="47"/>
-      <c r="G268" s="47"/>
-      <c r="H268" s="47"/>
-      <c r="I268" s="47"/>
-      <c r="J268" s="47"/>
-      <c r="K268" s="47"/>
-      <c r="L268" s="47"/>
-      <c r="M268" s="47"/>
-      <c r="N268" s="47"/>
-      <c r="O268" s="47"/>
-      <c r="P268" s="47"/>
-      <c r="Q268" s="47"/>
-      <c r="R268" s="47"/>
-      <c r="S268" s="47"/>
-      <c r="T268" s="47"/>
-      <c r="U268" s="47"/>
-      <c r="V268" s="47"/>
-      <c r="W268" s="47"/>
-      <c r="X268" s="47"/>
-      <c r="Y268" s="47"/>
-      <c r="Z268" s="47"/>
-      <c r="AA268" s="47"/>
-    </row>
-    <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="91"/>
+      <c r="C268" s="98"/>
+      <c r="D268" s="42"/>
+      <c r="E268" s="42"/>
+      <c r="F268" s="42"/>
+      <c r="G268" s="42"/>
+      <c r="H268" s="42"/>
+      <c r="I268" s="42"/>
+      <c r="J268" s="42"/>
+      <c r="K268" s="42"/>
+      <c r="L268" s="42"/>
+      <c r="M268" s="42"/>
+      <c r="N268" s="42"/>
+      <c r="O268" s="42"/>
+      <c r="P268" s="42"/>
+      <c r="Q268" s="42"/>
+      <c r="R268" s="42"/>
+      <c r="S268" s="42"/>
+      <c r="T268" s="42"/>
+      <c r="U268" s="42"/>
+      <c r="V268" s="42"/>
+      <c r="W268" s="42"/>
+      <c r="X268" s="42"/>
+      <c r="Y268" s="42"/>
+      <c r="Z268" s="42"/>
+      <c r="AA268" s="42"/>
+    </row>
+    <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B269" s="25"/>
-      <c r="C269" s="71"/>
+      <c r="B269" s="79"/>
+      <c r="C269" s="98"/>
       <c r="D269" s="25"/>
       <c r="E269" s="25"/>
       <c r="F269" s="25"/>
@@ -10111,12 +10203,12 @@
       <c r="Z269" s="25"/>
       <c r="AA269" s="25"/>
     </row>
-    <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B270" s="25"/>
-      <c r="C270" s="71"/>
+      <c r="B270" s="79"/>
+      <c r="C270" s="98"/>
       <c r="D270" s="25"/>
       <c r="E270" s="25"/>
       <c r="F270" s="25"/>
@@ -10142,12 +10234,12 @@
       <c r="Z270" s="25"/>
       <c r="AA270" s="25"/>
     </row>
-    <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B271" s="25"/>
-      <c r="C271" s="71"/>
+      <c r="B271" s="79"/>
+      <c r="C271" s="98"/>
       <c r="D271" s="25"/>
       <c r="E271" s="25"/>
       <c r="F271" s="25"/>
@@ -10173,12 +10265,12 @@
       <c r="Z271" s="25"/>
       <c r="AA271" s="25"/>
     </row>
-    <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B272" s="25"/>
-      <c r="C272" s="71"/>
+      <c r="B272" s="79"/>
+      <c r="C272" s="98"/>
       <c r="D272" s="25"/>
       <c r="E272" s="25"/>
       <c r="F272" s="25"/>
@@ -10204,12 +10296,12 @@
       <c r="Z272" s="25"/>
       <c r="AA272" s="25"/>
     </row>
-    <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B273" s="25"/>
-      <c r="C273" s="71"/>
+      <c r="B273" s="79"/>
+      <c r="C273" s="98"/>
       <c r="D273" s="25"/>
       <c r="E273" s="25"/>
       <c r="F273" s="25"/>
@@ -10235,12 +10327,12 @@
       <c r="Z273" s="25"/>
       <c r="AA273" s="25"/>
     </row>
-    <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B274" s="25"/>
-      <c r="C274" s="71"/>
+      <c r="B274" s="79"/>
+      <c r="C274" s="98"/>
       <c r="D274" s="25"/>
       <c r="E274" s="25"/>
       <c r="F274" s="25"/>
@@ -10266,12 +10358,12 @@
       <c r="Z274" s="25"/>
       <c r="AA274" s="25"/>
     </row>
-    <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B275" s="25"/>
-      <c r="C275" s="71"/>
+      <c r="B275" s="79"/>
+      <c r="C275" s="98"/>
       <c r="D275" s="25"/>
       <c r="E275" s="25"/>
       <c r="F275" s="25"/>
@@ -10297,12 +10389,12 @@
       <c r="Z275" s="25"/>
       <c r="AA275" s="25"/>
     </row>
-    <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B276" s="25"/>
-      <c r="C276" s="71"/>
+      <c r="B276" s="79"/>
+      <c r="C276" s="98"/>
       <c r="D276" s="25"/>
       <c r="E276" s="25"/>
       <c r="F276" s="25"/>
@@ -10328,12 +10420,12 @@
       <c r="Z276" s="25"/>
       <c r="AA276" s="25"/>
     </row>
-    <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B277" s="25"/>
-      <c r="C277" s="71"/>
+      <c r="B277" s="79"/>
+      <c r="C277" s="98"/>
       <c r="D277" s="25"/>
       <c r="E277" s="25"/>
       <c r="F277" s="25"/>
@@ -10359,12 +10451,12 @@
       <c r="Z277" s="25"/>
       <c r="AA277" s="25"/>
     </row>
-    <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B278" s="25"/>
-      <c r="C278" s="71"/>
+      <c r="B278" s="79"/>
+      <c r="C278" s="98"/>
       <c r="D278" s="25"/>
       <c r="E278" s="25"/>
       <c r="F278" s="25"/>
@@ -10390,12 +10482,12 @@
       <c r="Z278" s="25"/>
       <c r="AA278" s="25"/>
     </row>
-    <row r="279" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B279" s="25"/>
-      <c r="C279" s="71"/>
+      <c r="B279" s="79"/>
+      <c r="C279" s="98"/>
       <c r="D279" s="25"/>
       <c r="E279" s="25"/>
       <c r="F279" s="25"/>
@@ -10421,12 +10513,12 @@
       <c r="Z279" s="25"/>
       <c r="AA279" s="25"/>
     </row>
-    <row r="280" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B280" s="25"/>
-      <c r="C280" s="71"/>
+      <c r="B280" s="79"/>
+      <c r="C280" s="98"/>
       <c r="D280" s="25"/>
       <c r="E280" s="25"/>
       <c r="F280" s="25"/>
@@ -10452,12 +10544,12 @@
       <c r="Z280" s="25"/>
       <c r="AA280" s="25"/>
     </row>
-    <row r="281" spans="1:27" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:27" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B281" s="25"/>
-      <c r="C281" s="71"/>
+      <c r="B281" s="79"/>
+      <c r="C281" s="98"/>
       <c r="D281" s="25"/>
       <c r="E281" s="25"/>
       <c r="F281" s="25"/>
@@ -10483,12 +10575,12 @@
       <c r="Z281" s="25"/>
       <c r="AA281" s="25"/>
     </row>
-    <row r="282" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="83" t="s">
+    <row r="282" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B282" s="25"/>
-      <c r="C282" s="71"/>
+      <c r="B282" s="79"/>
+      <c r="C282" s="98"/>
       <c r="D282" s="25"/>
       <c r="E282" s="25"/>
       <c r="F282" s="25"/>
@@ -10514,12 +10606,12 @@
       <c r="Z282" s="25"/>
       <c r="AA282" s="25"/>
     </row>
-    <row r="283" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="78" t="s">
+    <row r="283" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="B283" s="25"/>
-      <c r="C283" s="71"/>
+      <c r="B283" s="79"/>
+      <c r="C283" s="98"/>
       <c r="D283" s="25"/>
       <c r="E283" s="25"/>
       <c r="F283" s="25"/>
@@ -10545,12 +10637,12 @@
       <c r="Z283" s="25"/>
       <c r="AA283" s="25"/>
     </row>
-    <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="78" t="s">
+    <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B284" s="25"/>
-      <c r="C284" s="71"/>
+      <c r="B284" s="79"/>
+      <c r="C284" s="98"/>
       <c r="D284" s="25"/>
       <c r="E284" s="25"/>
       <c r="F284" s="25"/>
@@ -10576,12 +10668,12 @@
       <c r="Z284" s="25"/>
       <c r="AA284" s="25"/>
     </row>
-    <row r="285" spans="1:27" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="83" t="s">
+    <row r="285" spans="1:27" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B285" s="25"/>
-      <c r="C285" s="71"/>
+      <c r="B285" s="79"/>
+      <c r="C285" s="98"/>
       <c r="D285" s="25"/>
       <c r="E285" s="25"/>
       <c r="F285" s="25"/>
@@ -10607,43 +10699,43 @@
       <c r="Z285" s="25"/>
       <c r="AA285" s="25"/>
     </row>
-    <row r="286" spans="1:27" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="49" t="s">
+    <row r="286" spans="1:27" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B286" s="47"/>
-      <c r="C286" s="71"/>
-      <c r="D286" s="47"/>
-      <c r="E286" s="47"/>
-      <c r="F286" s="47"/>
-      <c r="G286" s="47"/>
-      <c r="H286" s="47"/>
-      <c r="I286" s="47"/>
-      <c r="J286" s="47"/>
-      <c r="K286" s="47"/>
-      <c r="L286" s="47"/>
-      <c r="M286" s="47"/>
-      <c r="N286" s="47"/>
-      <c r="O286" s="47"/>
-      <c r="P286" s="47"/>
-      <c r="Q286" s="47"/>
-      <c r="R286" s="47"/>
-      <c r="S286" s="47"/>
-      <c r="T286" s="47"/>
-      <c r="U286" s="47"/>
-      <c r="V286" s="47"/>
-      <c r="W286" s="47"/>
-      <c r="X286" s="47"/>
-      <c r="Y286" s="47"/>
-      <c r="Z286" s="47"/>
-      <c r="AA286" s="47"/>
-    </row>
-    <row r="287" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="91"/>
+      <c r="C286" s="98"/>
+      <c r="D286" s="42"/>
+      <c r="E286" s="42"/>
+      <c r="F286" s="42"/>
+      <c r="G286" s="42"/>
+      <c r="H286" s="42"/>
+      <c r="I286" s="42"/>
+      <c r="J286" s="42"/>
+      <c r="K286" s="42"/>
+      <c r="L286" s="42"/>
+      <c r="M286" s="42"/>
+      <c r="N286" s="42"/>
+      <c r="O286" s="42"/>
+      <c r="P286" s="42"/>
+      <c r="Q286" s="42"/>
+      <c r="R286" s="42"/>
+      <c r="S286" s="42"/>
+      <c r="T286" s="42"/>
+      <c r="U286" s="42"/>
+      <c r="V286" s="42"/>
+      <c r="W286" s="42"/>
+      <c r="X286" s="42"/>
+      <c r="Y286" s="42"/>
+      <c r="Z286" s="42"/>
+      <c r="AA286" s="42"/>
+    </row>
+    <row r="287" spans="1:27" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B287" s="25"/>
-      <c r="C287" s="71"/>
+      <c r="B287" s="79"/>
+      <c r="C287" s="98"/>
       <c r="D287" s="25"/>
       <c r="E287" s="25"/>
       <c r="F287" s="25"/>
@@ -10669,12 +10761,12 @@
       <c r="Z287" s="25"/>
       <c r="AA287" s="25"/>
     </row>
-    <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B288" s="25"/>
-      <c r="C288" s="71"/>
+      <c r="B288" s="79"/>
+      <c r="C288" s="98"/>
       <c r="D288" s="25"/>
       <c r="E288" s="25"/>
       <c r="F288" s="25"/>
@@ -10700,12 +10792,12 @@
       <c r="Z288" s="25"/>
       <c r="AA288" s="25"/>
     </row>
-    <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="89" t="s">
+    <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="B289" s="25"/>
-      <c r="C289" s="71"/>
+      <c r="B289" s="79"/>
+      <c r="C289" s="98"/>
       <c r="D289" s="25"/>
       <c r="E289" s="25"/>
       <c r="F289" s="25"/>
@@ -10731,12 +10823,12 @@
       <c r="Z289" s="25"/>
       <c r="AA289" s="25"/>
     </row>
-    <row r="290" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="89" t="s">
+    <row r="290" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B290" s="25"/>
-      <c r="C290" s="71"/>
+      <c r="B290" s="79"/>
+      <c r="C290" s="98"/>
       <c r="D290" s="25"/>
       <c r="E290" s="25"/>
       <c r="F290" s="25"/>
@@ -10762,43 +10854,43 @@
       <c r="Z290" s="25"/>
       <c r="AA290" s="25"/>
     </row>
-    <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="50" t="s">
+    <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B291" s="47"/>
-      <c r="C291" s="71"/>
-      <c r="D291" s="47"/>
-      <c r="E291" s="47"/>
-      <c r="F291" s="47"/>
-      <c r="G291" s="47"/>
-      <c r="H291" s="47"/>
-      <c r="I291" s="47"/>
-      <c r="J291" s="47"/>
-      <c r="K291" s="47"/>
-      <c r="L291" s="47"/>
-      <c r="M291" s="47"/>
-      <c r="N291" s="47"/>
-      <c r="O291" s="47"/>
-      <c r="P291" s="47"/>
-      <c r="Q291" s="47"/>
-      <c r="R291" s="47"/>
-      <c r="S291" s="47"/>
-      <c r="T291" s="47"/>
-      <c r="U291" s="47"/>
-      <c r="V291" s="47"/>
-      <c r="W291" s="47"/>
-      <c r="X291" s="47"/>
-      <c r="Y291" s="47"/>
-      <c r="Z291" s="47"/>
-      <c r="AA291" s="47"/>
-    </row>
-    <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="91"/>
+      <c r="C291" s="98"/>
+      <c r="D291" s="42"/>
+      <c r="E291" s="42"/>
+      <c r="F291" s="42"/>
+      <c r="G291" s="42"/>
+      <c r="H291" s="42"/>
+      <c r="I291" s="42"/>
+      <c r="J291" s="42"/>
+      <c r="K291" s="42"/>
+      <c r="L291" s="42"/>
+      <c r="M291" s="42"/>
+      <c r="N291" s="42"/>
+      <c r="O291" s="42"/>
+      <c r="P291" s="42"/>
+      <c r="Q291" s="42"/>
+      <c r="R291" s="42"/>
+      <c r="S291" s="42"/>
+      <c r="T291" s="42"/>
+      <c r="U291" s="42"/>
+      <c r="V291" s="42"/>
+      <c r="W291" s="42"/>
+      <c r="X291" s="42"/>
+      <c r="Y291" s="42"/>
+      <c r="Z291" s="42"/>
+      <c r="AA291" s="42"/>
+    </row>
+    <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B292" s="25"/>
-      <c r="C292" s="71"/>
+      <c r="B292" s="79"/>
+      <c r="C292" s="98"/>
       <c r="D292" s="25"/>
       <c r="E292" s="25"/>
       <c r="F292" s="25"/>
@@ -10824,12 +10916,12 @@
       <c r="Z292" s="25"/>
       <c r="AA292" s="25"/>
     </row>
-    <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="90" t="s">
+    <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B293" s="25"/>
-      <c r="C293" s="71"/>
+      <c r="B293" s="79"/>
+      <c r="C293" s="98"/>
       <c r="D293" s="25"/>
       <c r="E293" s="25"/>
       <c r="F293" s="25"/>
@@ -10855,12 +10947,12 @@
       <c r="Z293" s="25"/>
       <c r="AA293" s="25"/>
     </row>
-    <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="90" t="s">
+    <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B294" s="25"/>
-      <c r="C294" s="71"/>
+      <c r="B294" s="79"/>
+      <c r="C294" s="98"/>
       <c r="D294" s="25"/>
       <c r="E294" s="25"/>
       <c r="F294" s="25"/>
@@ -10886,12 +10978,12 @@
       <c r="Z294" s="25"/>
       <c r="AA294" s="25"/>
     </row>
-    <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="90" t="s">
+    <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="B295" s="25"/>
-      <c r="C295" s="71"/>
+      <c r="B295" s="79"/>
+      <c r="C295" s="98"/>
       <c r="D295" s="25"/>
       <c r="E295" s="25"/>
       <c r="F295" s="25"/>
@@ -10917,43 +11009,43 @@
       <c r="Z295" s="25"/>
       <c r="AA295" s="25"/>
     </row>
-    <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="51" t="s">
+    <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B296" s="63"/>
-      <c r="C296" s="71"/>
-      <c r="D296" s="63"/>
-      <c r="E296" s="63"/>
-      <c r="F296" s="63"/>
-      <c r="G296" s="63"/>
-      <c r="H296" s="63"/>
-      <c r="I296" s="63"/>
-      <c r="J296" s="63"/>
-      <c r="K296" s="63"/>
-      <c r="L296" s="63"/>
-      <c r="M296" s="63"/>
-      <c r="N296" s="63"/>
-      <c r="O296" s="63"/>
-      <c r="P296" s="63"/>
-      <c r="Q296" s="63"/>
-      <c r="R296" s="63"/>
-      <c r="S296" s="63"/>
-      <c r="T296" s="63"/>
-      <c r="U296" s="63"/>
-      <c r="V296" s="63"/>
-      <c r="W296" s="63"/>
-      <c r="X296" s="63"/>
-      <c r="Y296" s="63"/>
-      <c r="Z296" s="63"/>
-      <c r="AA296" s="63"/>
-    </row>
-    <row r="297" spans="1:27" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="86" t="s">
+      <c r="B296" s="92"/>
+      <c r="C296" s="98"/>
+      <c r="D296" s="56"/>
+      <c r="E296" s="56"/>
+      <c r="F296" s="56"/>
+      <c r="G296" s="56"/>
+      <c r="H296" s="56"/>
+      <c r="I296" s="56"/>
+      <c r="J296" s="56"/>
+      <c r="K296" s="56"/>
+      <c r="L296" s="56"/>
+      <c r="M296" s="56"/>
+      <c r="N296" s="56"/>
+      <c r="O296" s="56"/>
+      <c r="P296" s="56"/>
+      <c r="Q296" s="56"/>
+      <c r="R296" s="56"/>
+      <c r="S296" s="56"/>
+      <c r="T296" s="56"/>
+      <c r="U296" s="56"/>
+      <c r="V296" s="56"/>
+      <c r="W296" s="56"/>
+      <c r="X296" s="56"/>
+      <c r="Y296" s="56"/>
+      <c r="Z296" s="56"/>
+      <c r="AA296" s="56"/>
+    </row>
+    <row r="297" spans="1:27" ht="89.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="B297" s="25"/>
-      <c r="C297" s="71"/>
+      <c r="B297" s="79"/>
+      <c r="C297" s="98"/>
       <c r="D297" s="25"/>
       <c r="E297" s="25"/>
       <c r="F297" s="25"/>
@@ -10979,12 +11071,12 @@
       <c r="Z297" s="25"/>
       <c r="AA297" s="25"/>
     </row>
-    <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="78" t="s">
+    <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="B298" s="25"/>
-      <c r="C298" s="71"/>
+      <c r="B298" s="79"/>
+      <c r="C298" s="98"/>
       <c r="D298" s="25"/>
       <c r="E298" s="25"/>
       <c r="F298" s="25"/>
@@ -11010,12 +11102,12 @@
       <c r="Z298" s="25"/>
       <c r="AA298" s="25"/>
     </row>
-    <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="78" t="s">
+    <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="B299" s="25"/>
-      <c r="C299" s="71"/>
+      <c r="B299" s="79"/>
+      <c r="C299" s="98"/>
       <c r="D299" s="25"/>
       <c r="E299" s="25"/>
       <c r="F299" s="25"/>
@@ -11041,12 +11133,12 @@
       <c r="Z299" s="25"/>
       <c r="AA299" s="25"/>
     </row>
-    <row r="300" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="79" t="s">
+    <row r="300" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="B300" s="25"/>
-      <c r="C300" s="71"/>
+      <c r="B300" s="79"/>
+      <c r="C300" s="98"/>
       <c r="D300" s="25"/>
       <c r="E300" s="25"/>
       <c r="F300" s="25"/>
@@ -11072,12 +11164,12 @@
       <c r="Z300" s="25"/>
       <c r="AA300" s="25"/>
     </row>
-    <row r="301" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="79" t="s">
+    <row r="301" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="B301" s="25"/>
-      <c r="C301" s="71"/>
+      <c r="B301" s="79"/>
+      <c r="C301" s="98"/>
       <c r="D301" s="25"/>
       <c r="E301" s="25"/>
       <c r="F301" s="25"/>
@@ -11103,12 +11195,12 @@
       <c r="Z301" s="25"/>
       <c r="AA301" s="25"/>
     </row>
-    <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="78" t="s">
+    <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B302" s="25"/>
-      <c r="C302" s="71"/>
+      <c r="B302" s="79"/>
+      <c r="C302" s="98"/>
       <c r="D302" s="25"/>
       <c r="E302" s="25"/>
       <c r="F302" s="25"/>
@@ -11134,12 +11226,12 @@
       <c r="Z302" s="25"/>
       <c r="AA302" s="25"/>
     </row>
-    <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="82" t="s">
+    <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B303" s="25"/>
-      <c r="C303" s="71"/>
+      <c r="B303" s="79"/>
+      <c r="C303" s="98"/>
       <c r="D303" s="25"/>
       <c r="E303" s="25"/>
       <c r="F303" s="25"/>
@@ -11165,43 +11257,43 @@
       <c r="Z303" s="25"/>
       <c r="AA303" s="25"/>
     </row>
-    <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="88" t="s">
+    <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="B304" s="47"/>
-      <c r="C304" s="71"/>
-      <c r="D304" s="47"/>
-      <c r="E304" s="47"/>
-      <c r="F304" s="47"/>
-      <c r="G304" s="47"/>
-      <c r="H304" s="47"/>
-      <c r="I304" s="47"/>
-      <c r="J304" s="47"/>
-      <c r="K304" s="47"/>
-      <c r="L304" s="47"/>
-      <c r="M304" s="47"/>
-      <c r="N304" s="47"/>
-      <c r="O304" s="47"/>
-      <c r="P304" s="47"/>
-      <c r="Q304" s="47"/>
-      <c r="R304" s="47"/>
-      <c r="S304" s="47"/>
-      <c r="T304" s="47"/>
-      <c r="U304" s="47"/>
-      <c r="V304" s="47"/>
-      <c r="W304" s="47"/>
-      <c r="X304" s="47"/>
-      <c r="Y304" s="47"/>
-      <c r="Z304" s="47"/>
-      <c r="AA304" s="47"/>
-    </row>
-    <row r="305" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="78" t="s">
+      <c r="B304" s="91"/>
+      <c r="C304" s="98"/>
+      <c r="D304" s="42"/>
+      <c r="E304" s="42"/>
+      <c r="F304" s="42"/>
+      <c r="G304" s="42"/>
+      <c r="H304" s="42"/>
+      <c r="I304" s="42"/>
+      <c r="J304" s="42"/>
+      <c r="K304" s="42"/>
+      <c r="L304" s="42"/>
+      <c r="M304" s="42"/>
+      <c r="N304" s="42"/>
+      <c r="O304" s="42"/>
+      <c r="P304" s="42"/>
+      <c r="Q304" s="42"/>
+      <c r="R304" s="42"/>
+      <c r="S304" s="42"/>
+      <c r="T304" s="42"/>
+      <c r="U304" s="42"/>
+      <c r="V304" s="42"/>
+      <c r="W304" s="42"/>
+      <c r="X304" s="42"/>
+      <c r="Y304" s="42"/>
+      <c r="Z304" s="42"/>
+      <c r="AA304" s="42"/>
+    </row>
+    <row r="305" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B305" s="25"/>
-      <c r="C305" s="71"/>
+      <c r="B305" s="79"/>
+      <c r="C305" s="98"/>
       <c r="D305" s="25"/>
       <c r="E305" s="25"/>
       <c r="F305" s="25"/>
@@ -11227,12 +11319,12 @@
       <c r="Z305" s="25"/>
       <c r="AA305" s="25"/>
     </row>
-    <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="78" t="s">
+    <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B306" s="25"/>
-      <c r="C306" s="71"/>
+      <c r="B306" s="79"/>
+      <c r="C306" s="98"/>
       <c r="D306" s="25"/>
       <c r="E306" s="25"/>
       <c r="F306" s="25"/>
@@ -11258,12 +11350,12 @@
       <c r="Z306" s="25"/>
       <c r="AA306" s="25"/>
     </row>
-    <row r="307" spans="1:27" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="78" t="s">
+    <row r="307" spans="1:27" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B307" s="25"/>
-      <c r="C307" s="71"/>
+      <c r="B307" s="79"/>
+      <c r="C307" s="98"/>
       <c r="D307" s="25"/>
       <c r="E307" s="25"/>
       <c r="F307" s="25"/>
@@ -11289,12 +11381,12 @@
       <c r="Z307" s="25"/>
       <c r="AA307" s="25"/>
     </row>
-    <row r="308" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="78" t="s">
+    <row r="308" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B308" s="25"/>
-      <c r="C308" s="71"/>
+      <c r="B308" s="79"/>
+      <c r="C308" s="98"/>
       <c r="D308" s="25"/>
       <c r="E308" s="25"/>
       <c r="F308" s="25"/>
@@ -11320,12 +11412,12 @@
       <c r="Z308" s="25"/>
       <c r="AA308" s="25"/>
     </row>
-    <row r="309" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="78" t="s">
+    <row r="309" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B309" s="25"/>
-      <c r="C309" s="71"/>
+      <c r="B309" s="79"/>
+      <c r="C309" s="98"/>
       <c r="D309" s="25"/>
       <c r="E309" s="25"/>
       <c r="F309" s="25"/>
@@ -11351,12 +11443,12 @@
       <c r="Z309" s="25"/>
       <c r="AA309" s="25"/>
     </row>
-    <row r="310" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="78" t="s">
+    <row r="310" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="B310" s="25"/>
-      <c r="C310" s="71"/>
+      <c r="B310" s="79"/>
+      <c r="C310" s="98"/>
       <c r="D310" s="25"/>
       <c r="E310" s="25"/>
       <c r="F310" s="25"/>
@@ -11382,12 +11474,12 @@
       <c r="Z310" s="25"/>
       <c r="AA310" s="25"/>
     </row>
-    <row r="311" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="78" t="s">
+    <row r="311" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="B311" s="25"/>
-      <c r="C311" s="71"/>
+      <c r="B311" s="79"/>
+      <c r="C311" s="98"/>
       <c r="D311" s="25"/>
       <c r="E311" s="25"/>
       <c r="F311" s="25"/>
@@ -11413,12 +11505,12 @@
       <c r="Z311" s="25"/>
       <c r="AA311" s="25"/>
     </row>
-    <row r="312" spans="1:27" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="78" t="s">
+    <row r="312" spans="1:27" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B312" s="25"/>
-      <c r="C312" s="71"/>
+      <c r="B312" s="79"/>
+      <c r="C312" s="98"/>
       <c r="D312" s="25"/>
       <c r="E312" s="25"/>
       <c r="F312" s="25"/>
@@ -11444,12 +11536,12 @@
       <c r="Z312" s="25"/>
       <c r="AA312" s="25"/>
     </row>
-    <row r="313" spans="1:27" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="78" t="s">
+    <row r="313" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B313" s="25"/>
-      <c r="C313" s="71"/>
+      <c r="B313" s="79"/>
+      <c r="C313" s="98"/>
       <c r="D313" s="25"/>
       <c r="E313" s="25"/>
       <c r="F313" s="25"/>
@@ -11475,12 +11567,12 @@
       <c r="Z313" s="25"/>
       <c r="AA313" s="25"/>
     </row>
-    <row r="314" spans="1:27" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="78" t="s">
+    <row r="314" spans="1:27" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B314" s="25"/>
-      <c r="C314" s="71"/>
+      <c r="B314" s="79"/>
+      <c r="C314" s="98"/>
       <c r="D314" s="25"/>
       <c r="E314" s="25"/>
       <c r="F314" s="25"/>
@@ -11506,12 +11598,12 @@
       <c r="Z314" s="25"/>
       <c r="AA314" s="25"/>
     </row>
-    <row r="315" spans="1:27" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="78" t="s">
+    <row r="315" spans="1:27" ht="22.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="B315" s="25"/>
-      <c r="C315" s="71"/>
+      <c r="B315" s="79"/>
+      <c r="C315" s="98"/>
       <c r="D315" s="25"/>
       <c r="E315" s="25"/>
       <c r="F315" s="25"/>
@@ -11537,12 +11629,12 @@
       <c r="Z315" s="25"/>
       <c r="AA315" s="25"/>
     </row>
-    <row r="316" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="78" t="s">
+    <row r="316" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B316" s="25"/>
-      <c r="C316" s="71"/>
+      <c r="B316" s="79"/>
+      <c r="C316" s="98"/>
       <c r="D316" s="25"/>
       <c r="E316" s="25"/>
       <c r="F316" s="25"/>
@@ -11568,12 +11660,12 @@
       <c r="Z316" s="25"/>
       <c r="AA316" s="25"/>
     </row>
-    <row r="317" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="85" t="s">
+    <row r="317" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B317" s="25"/>
-      <c r="C317" s="71"/>
+      <c r="B317" s="79"/>
+      <c r="C317" s="98"/>
       <c r="D317" s="25"/>
       <c r="E317" s="25"/>
       <c r="F317" s="25"/>
@@ -11599,12 +11691,12 @@
       <c r="Z317" s="25"/>
       <c r="AA317" s="25"/>
     </row>
-    <row r="318" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="85" t="s">
+    <row r="318" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B318" s="25"/>
-      <c r="C318" s="71"/>
+      <c r="B318" s="79"/>
+      <c r="C318" s="98"/>
       <c r="D318" s="25"/>
       <c r="E318" s="25"/>
       <c r="F318" s="25"/>
@@ -11630,12 +11722,12 @@
       <c r="Z318" s="25"/>
       <c r="AA318" s="25"/>
     </row>
-    <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="78" t="s">
+    <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B319" s="25"/>
-      <c r="C319" s="71"/>
+      <c r="B319" s="79"/>
+      <c r="C319" s="98"/>
       <c r="D319" s="25"/>
       <c r="E319" s="25"/>
       <c r="F319" s="25"/>
@@ -11661,12 +11753,12 @@
       <c r="Z319" s="25"/>
       <c r="AA319" s="25"/>
     </row>
-    <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="78" t="s">
+    <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B320" s="25"/>
-      <c r="C320" s="71"/>
+      <c r="B320" s="79"/>
+      <c r="C320" s="98"/>
       <c r="D320" s="25"/>
       <c r="E320" s="25"/>
       <c r="F320" s="25"/>
@@ -11692,12 +11784,12 @@
       <c r="Z320" s="25"/>
       <c r="AA320" s="25"/>
     </row>
-    <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="78" t="s">
+    <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="B321" s="25"/>
-      <c r="C321" s="71"/>
+      <c r="B321" s="79"/>
+      <c r="C321" s="98"/>
       <c r="D321" s="25"/>
       <c r="E321" s="25"/>
       <c r="F321" s="25"/>
@@ -11723,12 +11815,12 @@
       <c r="Z321" s="25"/>
       <c r="AA321" s="25"/>
     </row>
-    <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="78" t="s">
+    <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="B322" s="25"/>
-      <c r="C322" s="71"/>
+      <c r="B322" s="79"/>
+      <c r="C322" s="98"/>
       <c r="D322" s="25"/>
       <c r="E322" s="25"/>
       <c r="F322" s="25"/>
@@ -11754,12 +11846,12 @@
       <c r="Z322" s="25"/>
       <c r="AA322" s="25"/>
     </row>
-    <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="78" t="s">
+    <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="B323" s="25"/>
-      <c r="C323" s="71"/>
+      <c r="B323" s="79"/>
+      <c r="C323" s="98"/>
       <c r="D323" s="25"/>
       <c r="E323" s="25"/>
       <c r="F323" s="25"/>
@@ -11785,12 +11877,12 @@
       <c r="Z323" s="25"/>
       <c r="AA323" s="25"/>
     </row>
-    <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="78" t="s">
+    <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B324" s="25"/>
-      <c r="C324" s="71"/>
+      <c r="B324" s="79"/>
+      <c r="C324" s="98"/>
       <c r="D324" s="25"/>
       <c r="E324" s="25"/>
       <c r="F324" s="25"/>
@@ -11816,12 +11908,12 @@
       <c r="Z324" s="25"/>
       <c r="AA324" s="25"/>
     </row>
-    <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="78" t="s">
+    <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B325" s="25"/>
-      <c r="C325" s="71"/>
+      <c r="B325" s="79"/>
+      <c r="C325" s="98"/>
       <c r="D325" s="25"/>
       <c r="E325" s="25"/>
       <c r="F325" s="25"/>
@@ -11847,12 +11939,12 @@
       <c r="Z325" s="25"/>
       <c r="AA325" s="25"/>
     </row>
-    <row r="326" spans="1:27" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="79" t="s">
+    <row r="326" spans="1:27" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="B326" s="25"/>
-      <c r="C326" s="71"/>
+      <c r="B326" s="79"/>
+      <c r="C326" s="98"/>
       <c r="D326" s="25"/>
       <c r="E326" s="25"/>
       <c r="F326" s="25"/>
@@ -11878,12 +11970,12 @@
       <c r="Z326" s="25"/>
       <c r="AA326" s="25"/>
     </row>
-    <row r="327" spans="1:27" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="79" t="s">
+    <row r="327" spans="1:27" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="B327" s="25"/>
-      <c r="C327" s="71"/>
+      <c r="B327" s="79"/>
+      <c r="C327" s="98"/>
       <c r="D327" s="25"/>
       <c r="E327" s="25"/>
       <c r="F327" s="25"/>
@@ -11909,12 +12001,12 @@
       <c r="Z327" s="25"/>
       <c r="AA327" s="25"/>
     </row>
-    <row r="328" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="79" t="s">
+    <row r="328" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B328" s="25"/>
-      <c r="C328" s="71"/>
+      <c r="B328" s="79"/>
+      <c r="C328" s="98"/>
       <c r="D328" s="25"/>
       <c r="E328" s="25"/>
       <c r="F328" s="25"/>
@@ -11940,12 +12032,12 @@
       <c r="Z328" s="25"/>
       <c r="AA328" s="25"/>
     </row>
-    <row r="329" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="79" t="s">
+    <row r="329" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="B329" s="25"/>
-      <c r="C329" s="71"/>
+      <c r="B329" s="79"/>
+      <c r="C329" s="98"/>
       <c r="D329" s="25"/>
       <c r="E329" s="25"/>
       <c r="F329" s="25"/>
@@ -11971,12 +12063,12 @@
       <c r="Z329" s="25"/>
       <c r="AA329" s="25"/>
     </row>
-    <row r="330" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="79" t="s">
+    <row r="330" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="B330" s="25"/>
-      <c r="C330" s="71"/>
+      <c r="B330" s="79"/>
+      <c r="C330" s="98"/>
       <c r="D330" s="25"/>
       <c r="E330" s="25"/>
       <c r="F330" s="25"/>
@@ -12002,12 +12094,12 @@
       <c r="Z330" s="25"/>
       <c r="AA330" s="25"/>
     </row>
-    <row r="331" spans="1:27" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="79" t="s">
+    <row r="331" spans="1:27" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B331" s="25"/>
-      <c r="C331" s="71"/>
+      <c r="B331" s="79"/>
+      <c r="C331" s="98"/>
       <c r="D331" s="25"/>
       <c r="E331" s="25"/>
       <c r="F331" s="25"/>
@@ -12033,12 +12125,12 @@
       <c r="Z331" s="25"/>
       <c r="AA331" s="25"/>
     </row>
-    <row r="332" spans="1:27" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="79" t="s">
+    <row r="332" spans="1:27" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="B332" s="25"/>
-      <c r="C332" s="71"/>
+      <c r="B332" s="79"/>
+      <c r="C332" s="98"/>
       <c r="D332" s="25"/>
       <c r="E332" s="25"/>
       <c r="F332" s="25"/>
@@ -12064,12 +12156,12 @@
       <c r="Z332" s="25"/>
       <c r="AA332" s="25"/>
     </row>
-    <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="78" t="s">
+    <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B333" s="25"/>
-      <c r="C333" s="71"/>
+      <c r="B333" s="79"/>
+      <c r="C333" s="98"/>
       <c r="D333" s="25"/>
       <c r="E333" s="25"/>
       <c r="F333" s="25"/>
@@ -12095,12 +12187,12 @@
       <c r="Z333" s="25"/>
       <c r="AA333" s="25"/>
     </row>
-    <row r="334" spans="1:27" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="79" t="s">
+    <row r="334" spans="1:27" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B334" s="25"/>
-      <c r="C334" s="71"/>
+      <c r="B334" s="79"/>
+      <c r="C334" s="98"/>
       <c r="D334" s="25"/>
       <c r="E334" s="25"/>
       <c r="F334" s="25"/>
@@ -12126,12 +12218,12 @@
       <c r="Z334" s="25"/>
       <c r="AA334" s="25"/>
     </row>
-    <row r="335" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="78" t="s">
+    <row r="335" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B335" s="25"/>
-      <c r="C335" s="71"/>
+      <c r="B335" s="79"/>
+      <c r="C335" s="98"/>
       <c r="D335" s="25"/>
       <c r="E335" s="25"/>
       <c r="F335" s="25"/>
@@ -12157,12 +12249,12 @@
       <c r="Z335" s="25"/>
       <c r="AA335" s="25"/>
     </row>
-    <row r="336" spans="1:27" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="78" t="s">
+    <row r="336" spans="1:27" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B336" s="25"/>
-      <c r="C336" s="71"/>
+      <c r="B336" s="79"/>
+      <c r="C336" s="98"/>
       <c r="D336" s="25"/>
       <c r="E336" s="25"/>
       <c r="F336" s="25"/>
@@ -12188,43 +12280,43 @@
       <c r="Z336" s="25"/>
       <c r="AA336" s="25"/>
     </row>
-    <row r="337" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="88" t="s">
+    <row r="337" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B337" s="47"/>
-      <c r="C337" s="71"/>
-      <c r="D337" s="47"/>
-      <c r="E337" s="47"/>
-      <c r="F337" s="47"/>
-      <c r="G337" s="47"/>
-      <c r="H337" s="47"/>
-      <c r="I337" s="47"/>
-      <c r="J337" s="47"/>
-      <c r="K337" s="47"/>
-      <c r="L337" s="47"/>
-      <c r="M337" s="47"/>
-      <c r="N337" s="47"/>
-      <c r="O337" s="47"/>
-      <c r="P337" s="47"/>
-      <c r="Q337" s="47"/>
-      <c r="R337" s="47"/>
-      <c r="S337" s="47"/>
-      <c r="T337" s="47"/>
-      <c r="U337" s="47"/>
-      <c r="V337" s="47"/>
-      <c r="W337" s="47"/>
-      <c r="X337" s="47"/>
-      <c r="Y337" s="47"/>
-      <c r="Z337" s="47"/>
-      <c r="AA337" s="47"/>
-    </row>
-    <row r="338" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="78" t="s">
+      <c r="B337" s="91"/>
+      <c r="C337" s="98"/>
+      <c r="D337" s="42"/>
+      <c r="E337" s="42"/>
+      <c r="F337" s="42"/>
+      <c r="G337" s="42"/>
+      <c r="H337" s="42"/>
+      <c r="I337" s="42"/>
+      <c r="J337" s="42"/>
+      <c r="K337" s="42"/>
+      <c r="L337" s="42"/>
+      <c r="M337" s="42"/>
+      <c r="N337" s="42"/>
+      <c r="O337" s="42"/>
+      <c r="P337" s="42"/>
+      <c r="Q337" s="42"/>
+      <c r="R337" s="42"/>
+      <c r="S337" s="42"/>
+      <c r="T337" s="42"/>
+      <c r="U337" s="42"/>
+      <c r="V337" s="42"/>
+      <c r="W337" s="42"/>
+      <c r="X337" s="42"/>
+      <c r="Y337" s="42"/>
+      <c r="Z337" s="42"/>
+      <c r="AA337" s="42"/>
+    </row>
+    <row r="338" spans="1:27" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B338" s="25"/>
-      <c r="C338" s="71"/>
+      <c r="B338" s="79"/>
+      <c r="C338" s="98"/>
       <c r="D338" s="25"/>
       <c r="E338" s="25"/>
       <c r="F338" s="25"/>
@@ -12250,12 +12342,12 @@
       <c r="Z338" s="25"/>
       <c r="AA338" s="25"/>
     </row>
-    <row r="339" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="78" t="s">
+    <row r="339" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B339" s="25"/>
-      <c r="C339" s="71"/>
+      <c r="B339" s="79"/>
+      <c r="C339" s="98"/>
       <c r="D339" s="25"/>
       <c r="E339" s="25"/>
       <c r="F339" s="25"/>
@@ -12281,12 +12373,12 @@
       <c r="Z339" s="25"/>
       <c r="AA339" s="25"/>
     </row>
-    <row r="340" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="78" t="s">
+    <row r="340" spans="1:27" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B340" s="25"/>
-      <c r="C340" s="71"/>
+      <c r="B340" s="79"/>
+      <c r="C340" s="98"/>
       <c r="D340" s="25"/>
       <c r="E340" s="25"/>
       <c r="F340" s="25"/>
@@ -12312,12 +12404,12 @@
       <c r="Z340" s="25"/>
       <c r="AA340" s="25"/>
     </row>
-    <row r="341" spans="1:27" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="78" t="s">
+    <row r="341" spans="1:27" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B341" s="25"/>
-      <c r="C341" s="71"/>
+      <c r="B341" s="79"/>
+      <c r="C341" s="98"/>
       <c r="D341" s="25"/>
       <c r="E341" s="25"/>
       <c r="F341" s="25"/>
@@ -12343,12 +12435,12 @@
       <c r="Z341" s="25"/>
       <c r="AA341" s="25"/>
     </row>
-    <row r="342" spans="1:27" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="78" t="s">
+    <row r="342" spans="1:27" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B342" s="25"/>
-      <c r="C342" s="71"/>
+      <c r="B342" s="79"/>
+      <c r="C342" s="98"/>
       <c r="D342" s="25"/>
       <c r="E342" s="25"/>
       <c r="F342" s="25"/>
@@ -12374,12 +12466,12 @@
       <c r="Z342" s="25"/>
       <c r="AA342" s="25"/>
     </row>
-    <row r="343" spans="1:27" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="78" t="s">
+    <row r="343" spans="1:27" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="B343" s="25"/>
-      <c r="C343" s="71"/>
+      <c r="B343" s="79"/>
+      <c r="C343" s="98"/>
       <c r="D343" s="25"/>
       <c r="E343" s="25"/>
       <c r="F343" s="25"/>
@@ -12405,12 +12497,12 @@
       <c r="Z343" s="25"/>
       <c r="AA343" s="25"/>
     </row>
-    <row r="344" spans="1:27" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="78" t="s">
+    <row r="344" spans="1:27" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="B344" s="25"/>
-      <c r="C344" s="71"/>
+      <c r="B344" s="79"/>
+      <c r="C344" s="98"/>
       <c r="D344" s="25"/>
       <c r="E344" s="25"/>
       <c r="F344" s="25"/>
@@ -12436,12 +12528,12 @@
       <c r="Z344" s="25"/>
       <c r="AA344" s="25"/>
     </row>
-    <row r="345" spans="1:27" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="78" t="s">
+    <row r="345" spans="1:27" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B345" s="25"/>
-      <c r="C345" s="71"/>
+      <c r="B345" s="79"/>
+      <c r="C345" s="98"/>
       <c r="D345" s="25"/>
       <c r="E345" s="25"/>
       <c r="F345" s="25"/>
@@ -12467,12 +12559,12 @@
       <c r="Z345" s="25"/>
       <c r="AA345" s="25"/>
     </row>
-    <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="78" t="s">
+    <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B346" s="25"/>
-      <c r="C346" s="71"/>
+      <c r="B346" s="79"/>
+      <c r="C346" s="98"/>
       <c r="D346" s="25"/>
       <c r="E346" s="25"/>
       <c r="F346" s="25"/>
@@ -12498,12 +12590,12 @@
       <c r="Z346" s="25"/>
       <c r="AA346" s="25"/>
     </row>
-    <row r="347" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="78" t="s">
+    <row r="347" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B347" s="25"/>
-      <c r="C347" s="71"/>
+      <c r="B347" s="79"/>
+      <c r="C347" s="98"/>
       <c r="D347" s="25"/>
       <c r="E347" s="25"/>
       <c r="F347" s="25"/>
@@ -12529,12 +12621,12 @@
       <c r="Z347" s="25"/>
       <c r="AA347" s="25"/>
     </row>
-    <row r="348" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="78" t="s">
+    <row r="348" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="B348" s="25"/>
-      <c r="C348" s="71"/>
+      <c r="B348" s="79"/>
+      <c r="C348" s="98"/>
       <c r="D348" s="25"/>
       <c r="E348" s="25"/>
       <c r="F348" s="25"/>
@@ -12560,12 +12652,12 @@
       <c r="Z348" s="25"/>
       <c r="AA348" s="25"/>
     </row>
-    <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="78" t="s">
+    <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B349" s="25"/>
-      <c r="C349" s="71"/>
+      <c r="B349" s="79"/>
+      <c r="C349" s="98"/>
       <c r="D349" s="25"/>
       <c r="E349" s="25"/>
       <c r="F349" s="25"/>
@@ -12591,12 +12683,12 @@
       <c r="Z349" s="25"/>
       <c r="AA349" s="25"/>
     </row>
-    <row r="350" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="85" t="s">
+    <row r="350" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B350" s="25"/>
-      <c r="C350" s="71"/>
+      <c r="B350" s="79"/>
+      <c r="C350" s="98"/>
       <c r="D350" s="25"/>
       <c r="E350" s="25"/>
       <c r="F350" s="25"/>
@@ -12622,12 +12714,12 @@
       <c r="Z350" s="25"/>
       <c r="AA350" s="25"/>
     </row>
-    <row r="351" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="85" t="s">
+    <row r="351" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B351" s="25"/>
-      <c r="C351" s="71"/>
+      <c r="B351" s="79"/>
+      <c r="C351" s="98"/>
       <c r="D351" s="25"/>
       <c r="E351" s="25"/>
       <c r="F351" s="25"/>
@@ -12653,12 +12745,12 @@
       <c r="Z351" s="25"/>
       <c r="AA351" s="25"/>
     </row>
-    <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="78" t="s">
+    <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B352" s="25"/>
-      <c r="C352" s="71"/>
+      <c r="B352" s="79"/>
+      <c r="C352" s="98"/>
       <c r="D352" s="25"/>
       <c r="E352" s="25"/>
       <c r="F352" s="25"/>
@@ -12684,12 +12776,12 @@
       <c r="Z352" s="25"/>
       <c r="AA352" s="25"/>
     </row>
-    <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="78" t="s">
+    <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B353" s="25"/>
-      <c r="C353" s="71"/>
+      <c r="B353" s="79"/>
+      <c r="C353" s="98"/>
       <c r="D353" s="25"/>
       <c r="E353" s="25"/>
       <c r="F353" s="25"/>
@@ -12715,12 +12807,12 @@
       <c r="Z353" s="25"/>
       <c r="AA353" s="25"/>
     </row>
-    <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="78" t="s">
+    <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="B354" s="25"/>
-      <c r="C354" s="71"/>
+      <c r="B354" s="79"/>
+      <c r="C354" s="98"/>
       <c r="D354" s="25"/>
       <c r="E354" s="25"/>
       <c r="F354" s="25"/>
@@ -12746,12 +12838,12 @@
       <c r="Z354" s="25"/>
       <c r="AA354" s="25"/>
     </row>
-    <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="78" t="s">
+    <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="B355" s="25"/>
-      <c r="C355" s="71"/>
+      <c r="B355" s="79"/>
+      <c r="C355" s="98"/>
       <c r="D355" s="25"/>
       <c r="E355" s="25"/>
       <c r="F355" s="25"/>
@@ -12777,12 +12869,12 @@
       <c r="Z355" s="25"/>
       <c r="AA355" s="25"/>
     </row>
-    <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="78" t="s">
+    <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="71"/>
+      <c r="B356" s="79"/>
+      <c r="C356" s="98"/>
       <c r="D356" s="25"/>
       <c r="E356" s="25"/>
       <c r="F356" s="25"/>
@@ -12808,12 +12900,12 @@
       <c r="Z356" s="25"/>
       <c r="AA356" s="25"/>
     </row>
-    <row r="357" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="78" t="s">
+    <row r="357" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B357" s="25"/>
-      <c r="C357" s="71"/>
+      <c r="B357" s="79"/>
+      <c r="C357" s="98"/>
       <c r="D357" s="25"/>
       <c r="E357" s="25"/>
       <c r="F357" s="25"/>
@@ -12839,12 +12931,12 @@
       <c r="Z357" s="25"/>
       <c r="AA357" s="25"/>
     </row>
-    <row r="358" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="78" t="s">
+    <row r="358" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B358" s="25"/>
-      <c r="C358" s="71"/>
+      <c r="B358" s="79"/>
+      <c r="C358" s="98"/>
       <c r="D358" s="25"/>
       <c r="E358" s="25"/>
       <c r="F358" s="25"/>
@@ -12870,12 +12962,12 @@
       <c r="Z358" s="25"/>
       <c r="AA358" s="25"/>
     </row>
-    <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="79" t="s">
+    <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="B359" s="25"/>
-      <c r="C359" s="71"/>
+      <c r="B359" s="79"/>
+      <c r="C359" s="98"/>
       <c r="D359" s="25"/>
       <c r="E359" s="25"/>
       <c r="F359" s="25"/>
@@ -12901,12 +12993,12 @@
       <c r="Z359" s="25"/>
       <c r="AA359" s="25"/>
     </row>
-    <row r="360" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="79" t="s">
+    <row r="360" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="B360" s="25"/>
-      <c r="C360" s="71"/>
+      <c r="B360" s="79"/>
+      <c r="C360" s="98"/>
       <c r="D360" s="25"/>
       <c r="E360" s="25"/>
       <c r="F360" s="25"/>
@@ -12932,12 +13024,12 @@
       <c r="Z360" s="25"/>
       <c r="AA360" s="25"/>
     </row>
-    <row r="361" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="79" t="s">
+    <row r="361" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B361" s="25"/>
-      <c r="C361" s="71"/>
+      <c r="B361" s="79"/>
+      <c r="C361" s="98"/>
       <c r="D361" s="25"/>
       <c r="E361" s="25"/>
       <c r="F361" s="25"/>
@@ -12963,12 +13055,12 @@
       <c r="Z361" s="25"/>
       <c r="AA361" s="25"/>
     </row>
-    <row r="362" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="79" t="s">
+    <row r="362" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="B362" s="25"/>
-      <c r="C362" s="71"/>
+      <c r="B362" s="79"/>
+      <c r="C362" s="98"/>
       <c r="D362" s="25"/>
       <c r="E362" s="25"/>
       <c r="F362" s="25"/>
@@ -12994,12 +13086,12 @@
       <c r="Z362" s="25"/>
       <c r="AA362" s="25"/>
     </row>
-    <row r="363" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="79" t="s">
+    <row r="363" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="B363" s="25"/>
-      <c r="C363" s="71"/>
+      <c r="B363" s="79"/>
+      <c r="C363" s="98"/>
       <c r="D363" s="25"/>
       <c r="E363" s="25"/>
       <c r="F363" s="25"/>
@@ -13025,12 +13117,12 @@
       <c r="Z363" s="25"/>
       <c r="AA363" s="25"/>
     </row>
-    <row r="364" spans="1:27" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="79" t="s">
+    <row r="364" spans="1:27" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B364" s="25"/>
-      <c r="C364" s="71"/>
+      <c r="B364" s="79"/>
+      <c r="C364" s="98"/>
       <c r="D364" s="25"/>
       <c r="E364" s="25"/>
       <c r="F364" s="25"/>
@@ -13056,12 +13148,12 @@
       <c r="Z364" s="25"/>
       <c r="AA364" s="25"/>
     </row>
-    <row r="365" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="79" t="s">
+    <row r="365" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="B365" s="25"/>
-      <c r="C365" s="71"/>
+      <c r="B365" s="79"/>
+      <c r="C365" s="98"/>
       <c r="D365" s="25"/>
       <c r="E365" s="25"/>
       <c r="F365" s="25"/>
@@ -13087,12 +13179,12 @@
       <c r="Z365" s="25"/>
       <c r="AA365" s="25"/>
     </row>
-    <row r="366" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="78" t="s">
+    <row r="366" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B366" s="25"/>
-      <c r="C366" s="71"/>
+      <c r="B366" s="79"/>
+      <c r="C366" s="98"/>
       <c r="D366" s="25"/>
       <c r="E366" s="25"/>
       <c r="F366" s="25"/>
@@ -13118,12 +13210,12 @@
       <c r="Z366" s="25"/>
       <c r="AA366" s="25"/>
     </row>
-    <row r="367" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="79" t="s">
+    <row r="367" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B367" s="25"/>
-      <c r="C367" s="71"/>
+      <c r="B367" s="79"/>
+      <c r="C367" s="98"/>
       <c r="D367" s="25"/>
       <c r="E367" s="25"/>
       <c r="F367" s="25"/>
@@ -13149,12 +13241,12 @@
       <c r="Z367" s="25"/>
       <c r="AA367" s="25"/>
     </row>
-    <row r="368" spans="1:27" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="78" t="s">
+    <row r="368" spans="1:27" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B368" s="25"/>
-      <c r="C368" s="71"/>
+      <c r="B368" s="79"/>
+      <c r="C368" s="98"/>
       <c r="D368" s="25"/>
       <c r="E368" s="25"/>
       <c r="F368" s="25"/>
@@ -13180,12 +13272,12 @@
       <c r="Z368" s="25"/>
       <c r="AA368" s="25"/>
     </row>
-    <row r="369" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="78" t="s">
+    <row r="369" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B369" s="25"/>
-      <c r="C369" s="71"/>
+      <c r="B369" s="79"/>
+      <c r="C369" s="98"/>
       <c r="D369" s="25"/>
       <c r="E369" s="25"/>
       <c r="F369" s="25"/>
@@ -13211,43 +13303,43 @@
       <c r="Z369" s="25"/>
       <c r="AA369" s="25"/>
     </row>
-    <row r="370" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="88" t="s">
+    <row r="370" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="B370" s="47"/>
-      <c r="C370" s="71"/>
-      <c r="D370" s="47"/>
-      <c r="E370" s="47"/>
-      <c r="F370" s="47"/>
-      <c r="G370" s="47"/>
-      <c r="H370" s="47"/>
-      <c r="I370" s="47"/>
-      <c r="J370" s="47"/>
-      <c r="K370" s="47"/>
-      <c r="L370" s="47"/>
-      <c r="M370" s="47"/>
-      <c r="N370" s="47"/>
-      <c r="O370" s="47"/>
-      <c r="P370" s="47"/>
-      <c r="Q370" s="47"/>
-      <c r="R370" s="47"/>
-      <c r="S370" s="47"/>
-      <c r="T370" s="47"/>
-      <c r="U370" s="47"/>
-      <c r="V370" s="47"/>
-      <c r="W370" s="47"/>
-      <c r="X370" s="47"/>
-      <c r="Y370" s="47"/>
-      <c r="Z370" s="47"/>
-      <c r="AA370" s="47"/>
-    </row>
-    <row r="371" spans="1:27" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="78" t="s">
+      <c r="B370" s="91"/>
+      <c r="C370" s="98"/>
+      <c r="D370" s="42"/>
+      <c r="E370" s="42"/>
+      <c r="F370" s="42"/>
+      <c r="G370" s="42"/>
+      <c r="H370" s="42"/>
+      <c r="I370" s="42"/>
+      <c r="J370" s="42"/>
+      <c r="K370" s="42"/>
+      <c r="L370" s="42"/>
+      <c r="M370" s="42"/>
+      <c r="N370" s="42"/>
+      <c r="O370" s="42"/>
+      <c r="P370" s="42"/>
+      <c r="Q370" s="42"/>
+      <c r="R370" s="42"/>
+      <c r="S370" s="42"/>
+      <c r="T370" s="42"/>
+      <c r="U370" s="42"/>
+      <c r="V370" s="42"/>
+      <c r="W370" s="42"/>
+      <c r="X370" s="42"/>
+      <c r="Y370" s="42"/>
+      <c r="Z370" s="42"/>
+      <c r="AA370" s="42"/>
+    </row>
+    <row r="371" spans="1:27" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B371" s="25"/>
-      <c r="C371" s="71"/>
+      <c r="B371" s="79"/>
+      <c r="C371" s="98"/>
       <c r="D371" s="25"/>
       <c r="E371" s="25"/>
       <c r="F371" s="25"/>
@@ -13273,12 +13365,12 @@
       <c r="Z371" s="25"/>
       <c r="AA371" s="25"/>
     </row>
-    <row r="372" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="78" t="s">
+    <row r="372" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B372" s="25"/>
-      <c r="C372" s="71"/>
+      <c r="B372" s="79"/>
+      <c r="C372" s="98"/>
       <c r="D372" s="25"/>
       <c r="E372" s="25"/>
       <c r="F372" s="25"/>
@@ -13304,12 +13396,12 @@
       <c r="Z372" s="25"/>
       <c r="AA372" s="25"/>
     </row>
-    <row r="373" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="78" t="s">
+    <row r="373" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B373" s="25"/>
-      <c r="C373" s="71"/>
+      <c r="B373" s="79"/>
+      <c r="C373" s="98"/>
       <c r="D373" s="25"/>
       <c r="E373" s="25"/>
       <c r="F373" s="25"/>
@@ -13335,12 +13427,12 @@
       <c r="Z373" s="25"/>
       <c r="AA373" s="25"/>
     </row>
-    <row r="374" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="78" t="s">
+    <row r="374" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B374" s="25"/>
-      <c r="C374" s="71"/>
+      <c r="B374" s="79"/>
+      <c r="C374" s="98"/>
       <c r="D374" s="25"/>
       <c r="E374" s="25"/>
       <c r="F374" s="25"/>
@@ -13366,12 +13458,12 @@
       <c r="Z374" s="25"/>
       <c r="AA374" s="25"/>
     </row>
-    <row r="375" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="78" t="s">
+    <row r="375" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B375" s="25"/>
-      <c r="C375" s="71"/>
+      <c r="B375" s="79"/>
+      <c r="C375" s="98"/>
       <c r="D375" s="25"/>
       <c r="E375" s="25"/>
       <c r="F375" s="25"/>
@@ -13397,12 +13489,12 @@
       <c r="Z375" s="25"/>
       <c r="AA375" s="25"/>
     </row>
-    <row r="376" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="78" t="s">
+    <row r="376" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="B376" s="25"/>
-      <c r="C376" s="71"/>
+      <c r="B376" s="79"/>
+      <c r="C376" s="98"/>
       <c r="D376" s="25"/>
       <c r="E376" s="25"/>
       <c r="F376" s="25"/>
@@ -13428,12 +13520,12 @@
       <c r="Z376" s="25"/>
       <c r="AA376" s="25"/>
     </row>
-    <row r="377" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="78" t="s">
+    <row r="377" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="B377" s="25"/>
-      <c r="C377" s="71"/>
+      <c r="B377" s="79"/>
+      <c r="C377" s="98"/>
       <c r="D377" s="25"/>
       <c r="E377" s="25"/>
       <c r="F377" s="25"/>
@@ -13459,12 +13551,12 @@
       <c r="Z377" s="25"/>
       <c r="AA377" s="25"/>
     </row>
-    <row r="378" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="78" t="s">
+    <row r="378" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B378" s="25"/>
-      <c r="C378" s="71"/>
+      <c r="B378" s="79"/>
+      <c r="C378" s="98"/>
       <c r="D378" s="25"/>
       <c r="E378" s="25"/>
       <c r="F378" s="25"/>
@@ -13490,12 +13582,12 @@
       <c r="Z378" s="25"/>
       <c r="AA378" s="25"/>
     </row>
-    <row r="379" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="78" t="s">
+    <row r="379" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B379" s="25"/>
-      <c r="C379" s="71"/>
+      <c r="B379" s="79"/>
+      <c r="C379" s="98"/>
       <c r="D379" s="25"/>
       <c r="E379" s="25"/>
       <c r="F379" s="25"/>
@@ -13521,12 +13613,12 @@
       <c r="Z379" s="25"/>
       <c r="AA379" s="25"/>
     </row>
-    <row r="380" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="78" t="s">
+    <row r="380" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B380" s="25"/>
-      <c r="C380" s="71"/>
+      <c r="B380" s="79"/>
+      <c r="C380" s="98"/>
       <c r="D380" s="25"/>
       <c r="E380" s="25"/>
       <c r="F380" s="25"/>
@@ -13552,12 +13644,12 @@
       <c r="Z380" s="25"/>
       <c r="AA380" s="25"/>
     </row>
-    <row r="381" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="78" t="s">
+    <row r="381" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="B381" s="25"/>
-      <c r="C381" s="71"/>
+      <c r="B381" s="79"/>
+      <c r="C381" s="98"/>
       <c r="D381" s="25"/>
       <c r="E381" s="25"/>
       <c r="F381" s="25"/>
@@ -13583,12 +13675,12 @@
       <c r="Z381" s="25"/>
       <c r="AA381" s="25"/>
     </row>
-    <row r="382" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="78" t="s">
+    <row r="382" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B382" s="25"/>
-      <c r="C382" s="71"/>
+      <c r="B382" s="79"/>
+      <c r="C382" s="98"/>
       <c r="D382" s="25"/>
       <c r="E382" s="25"/>
       <c r="F382" s="25"/>
@@ -13614,12 +13706,12 @@
       <c r="Z382" s="25"/>
       <c r="AA382" s="25"/>
     </row>
-    <row r="383" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="85" t="s">
+    <row r="383" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B383" s="25"/>
-      <c r="C383" s="71"/>
+      <c r="B383" s="79"/>
+      <c r="C383" s="98"/>
       <c r="D383" s="25"/>
       <c r="E383" s="25"/>
       <c r="F383" s="25"/>
@@ -13645,12 +13737,12 @@
       <c r="Z383" s="25"/>
       <c r="AA383" s="25"/>
     </row>
-    <row r="384" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="85" t="s">
+    <row r="384" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B384" s="25"/>
-      <c r="C384" s="71"/>
+      <c r="B384" s="79"/>
+      <c r="C384" s="98"/>
       <c r="D384" s="25"/>
       <c r="E384" s="25"/>
       <c r="F384" s="25"/>
@@ -13676,12 +13768,12 @@
       <c r="Z384" s="25"/>
       <c r="AA384" s="25"/>
     </row>
-    <row r="385" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="78" t="s">
+    <row r="385" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B385" s="25"/>
-      <c r="C385" s="71"/>
+      <c r="B385" s="79"/>
+      <c r="C385" s="98"/>
       <c r="D385" s="25"/>
       <c r="E385" s="25"/>
       <c r="F385" s="25"/>
@@ -13707,12 +13799,12 @@
       <c r="Z385" s="25"/>
       <c r="AA385" s="25"/>
     </row>
-    <row r="386" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="78" t="s">
+    <row r="386" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B386" s="25"/>
-      <c r="C386" s="71"/>
+      <c r="B386" s="79"/>
+      <c r="C386" s="98"/>
       <c r="D386" s="25"/>
       <c r="E386" s="25"/>
       <c r="F386" s="25"/>
@@ -13738,12 +13830,12 @@
       <c r="Z386" s="25"/>
       <c r="AA386" s="25"/>
     </row>
-    <row r="387" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="78" t="s">
+    <row r="387" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="B387" s="25"/>
-      <c r="C387" s="71"/>
+      <c r="B387" s="79"/>
+      <c r="C387" s="98"/>
       <c r="D387" s="25"/>
       <c r="E387" s="25"/>
       <c r="F387" s="25"/>
@@ -13769,12 +13861,12 @@
       <c r="Z387" s="25"/>
       <c r="AA387" s="25"/>
     </row>
-    <row r="388" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="78" t="s">
+    <row r="388" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="B388" s="25"/>
-      <c r="C388" s="71"/>
+      <c r="B388" s="79"/>
+      <c r="C388" s="98"/>
       <c r="D388" s="25"/>
       <c r="E388" s="25"/>
       <c r="F388" s="25"/>
@@ -13800,12 +13892,12 @@
       <c r="Z388" s="25"/>
       <c r="AA388" s="25"/>
     </row>
-    <row r="389" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="78" t="s">
+    <row r="389" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="B389" s="25"/>
-      <c r="C389" s="71"/>
+      <c r="B389" s="79"/>
+      <c r="C389" s="98"/>
       <c r="D389" s="25"/>
       <c r="E389" s="25"/>
       <c r="F389" s="25"/>
@@ -13831,12 +13923,12 @@
       <c r="Z389" s="25"/>
       <c r="AA389" s="25"/>
     </row>
-    <row r="390" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="78" t="s">
+    <row r="390" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B390" s="25"/>
-      <c r="C390" s="71"/>
+      <c r="B390" s="79"/>
+      <c r="C390" s="98"/>
       <c r="D390" s="25"/>
       <c r="E390" s="25"/>
       <c r="F390" s="25"/>
@@ -13862,12 +13954,12 @@
       <c r="Z390" s="25"/>
       <c r="AA390" s="25"/>
     </row>
-    <row r="391" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="78" t="s">
+    <row r="391" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B391" s="25"/>
-      <c r="C391" s="71"/>
+      <c r="B391" s="79"/>
+      <c r="C391" s="98"/>
       <c r="D391" s="25"/>
       <c r="E391" s="25"/>
       <c r="F391" s="25"/>
@@ -13893,12 +13985,12 @@
       <c r="Z391" s="25"/>
       <c r="AA391" s="25"/>
     </row>
-    <row r="392" spans="1:27" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="79" t="s">
+    <row r="392" spans="1:27" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="B392" s="25"/>
-      <c r="C392" s="71"/>
+      <c r="B392" s="79"/>
+      <c r="C392" s="98"/>
       <c r="D392" s="25"/>
       <c r="E392" s="25"/>
       <c r="F392" s="25"/>
@@ -13924,12 +14016,12 @@
       <c r="Z392" s="25"/>
       <c r="AA392" s="25"/>
     </row>
-    <row r="393" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="79" t="s">
+    <row r="393" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="B393" s="25"/>
-      <c r="C393" s="71"/>
+      <c r="B393" s="79"/>
+      <c r="C393" s="98"/>
       <c r="D393" s="25"/>
       <c r="E393" s="25"/>
       <c r="F393" s="25"/>
@@ -13955,12 +14047,12 @@
       <c r="Z393" s="25"/>
       <c r="AA393" s="25"/>
     </row>
-    <row r="394" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="79" t="s">
+    <row r="394" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B394" s="25"/>
-      <c r="C394" s="71"/>
+      <c r="B394" s="79"/>
+      <c r="C394" s="98"/>
       <c r="D394" s="25"/>
       <c r="E394" s="25"/>
       <c r="F394" s="25"/>
@@ -13986,12 +14078,12 @@
       <c r="Z394" s="25"/>
       <c r="AA394" s="25"/>
     </row>
-    <row r="395" spans="1:27" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="79" t="s">
+    <row r="395" spans="1:27" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A395" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="B395" s="25"/>
-      <c r="C395" s="71"/>
+      <c r="B395" s="79"/>
+      <c r="C395" s="98"/>
       <c r="D395" s="25"/>
       <c r="E395" s="25"/>
       <c r="F395" s="25"/>
@@ -14017,12 +14109,12 @@
       <c r="Z395" s="25"/>
       <c r="AA395" s="25"/>
     </row>
-    <row r="396" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="79" t="s">
+    <row r="396" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A396" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="B396" s="25"/>
-      <c r="C396" s="71"/>
+      <c r="B396" s="79"/>
+      <c r="C396" s="98"/>
       <c r="D396" s="25"/>
       <c r="E396" s="25"/>
       <c r="F396" s="25"/>
@@ -14048,12 +14140,12 @@
       <c r="Z396" s="25"/>
       <c r="AA396" s="25"/>
     </row>
-    <row r="397" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="79" t="s">
+    <row r="397" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A397" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B397" s="25"/>
-      <c r="C397" s="71"/>
+      <c r="B397" s="79"/>
+      <c r="C397" s="98"/>
       <c r="D397" s="25"/>
       <c r="E397" s="25"/>
       <c r="F397" s="25"/>
@@ -14079,12 +14171,12 @@
       <c r="Z397" s="25"/>
       <c r="AA397" s="25"/>
     </row>
-    <row r="398" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="79" t="s">
+    <row r="398" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A398" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="B398" s="25"/>
-      <c r="C398" s="71"/>
+      <c r="B398" s="79"/>
+      <c r="C398" s="98"/>
       <c r="D398" s="25"/>
       <c r="E398" s="25"/>
       <c r="F398" s="25"/>
@@ -14110,12 +14202,12 @@
       <c r="Z398" s="25"/>
       <c r="AA398" s="25"/>
     </row>
-    <row r="399" spans="1:27" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="78" t="s">
+    <row r="399" spans="1:27" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A399" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B399" s="25"/>
-      <c r="C399" s="71"/>
+      <c r="B399" s="79"/>
+      <c r="C399" s="98"/>
       <c r="D399" s="25"/>
       <c r="E399" s="25"/>
       <c r="F399" s="25"/>
@@ -14141,12 +14233,12 @@
       <c r="Z399" s="25"/>
       <c r="AA399" s="25"/>
     </row>
-    <row r="400" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="79" t="s">
+    <row r="400" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A400" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B400" s="25"/>
-      <c r="C400" s="71"/>
+      <c r="B400" s="79"/>
+      <c r="C400" s="98"/>
       <c r="D400" s="25"/>
       <c r="E400" s="25"/>
       <c r="F400" s="25"/>
@@ -14172,12 +14264,12 @@
       <c r="Z400" s="25"/>
       <c r="AA400" s="25"/>
     </row>
-    <row r="401" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="78" t="s">
+    <row r="401" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A401" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B401" s="25"/>
-      <c r="C401" s="71"/>
+      <c r="B401" s="79"/>
+      <c r="C401" s="98"/>
       <c r="D401" s="25"/>
       <c r="E401" s="25"/>
       <c r="F401" s="25"/>
@@ -14203,12 +14295,12 @@
       <c r="Z401" s="25"/>
       <c r="AA401" s="25"/>
     </row>
-    <row r="402" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="78" t="s">
+    <row r="402" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A402" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="71"/>
+      <c r="B402" s="79"/>
+      <c r="C402" s="98"/>
       <c r="D402" s="25"/>
       <c r="E402" s="25"/>
       <c r="F402" s="25"/>
@@ -14234,43 +14326,43 @@
       <c r="Z402" s="25"/>
       <c r="AA402" s="25"/>
     </row>
-    <row r="403" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="88" t="s">
+    <row r="403" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="B403" s="47"/>
-      <c r="C403" s="71"/>
-      <c r="D403" s="47"/>
-      <c r="E403" s="47"/>
-      <c r="F403" s="47"/>
-      <c r="G403" s="47"/>
-      <c r="H403" s="47"/>
-      <c r="I403" s="47"/>
-      <c r="J403" s="47"/>
-      <c r="K403" s="47"/>
-      <c r="L403" s="47"/>
-      <c r="M403" s="47"/>
-      <c r="N403" s="47"/>
-      <c r="O403" s="47"/>
-      <c r="P403" s="47"/>
-      <c r="Q403" s="47"/>
-      <c r="R403" s="47"/>
-      <c r="S403" s="47"/>
-      <c r="T403" s="47"/>
-      <c r="U403" s="47"/>
-      <c r="V403" s="47"/>
-      <c r="W403" s="47"/>
-      <c r="X403" s="47"/>
-      <c r="Y403" s="47"/>
-      <c r="Z403" s="47"/>
-      <c r="AA403" s="47"/>
-    </row>
-    <row r="404" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="78" t="s">
+      <c r="B403" s="91"/>
+      <c r="C403" s="98"/>
+      <c r="D403" s="42"/>
+      <c r="E403" s="42"/>
+      <c r="F403" s="42"/>
+      <c r="G403" s="42"/>
+      <c r="H403" s="42"/>
+      <c r="I403" s="42"/>
+      <c r="J403" s="42"/>
+      <c r="K403" s="42"/>
+      <c r="L403" s="42"/>
+      <c r="M403" s="42"/>
+      <c r="N403" s="42"/>
+      <c r="O403" s="42"/>
+      <c r="P403" s="42"/>
+      <c r="Q403" s="42"/>
+      <c r="R403" s="42"/>
+      <c r="S403" s="42"/>
+      <c r="T403" s="42"/>
+      <c r="U403" s="42"/>
+      <c r="V403" s="42"/>
+      <c r="W403" s="42"/>
+      <c r="X403" s="42"/>
+      <c r="Y403" s="42"/>
+      <c r="Z403" s="42"/>
+      <c r="AA403" s="42"/>
+    </row>
+    <row r="404" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B404" s="25"/>
-      <c r="C404" s="71"/>
+      <c r="B404" s="79"/>
+      <c r="C404" s="98"/>
       <c r="D404" s="25"/>
       <c r="E404" s="25"/>
       <c r="F404" s="25"/>
@@ -14296,12 +14388,12 @@
       <c r="Z404" s="25"/>
       <c r="AA404" s="25"/>
     </row>
-    <row r="405" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="78" t="s">
+    <row r="405" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B405" s="25"/>
-      <c r="C405" s="71"/>
+      <c r="B405" s="79"/>
+      <c r="C405" s="98"/>
       <c r="D405" s="25"/>
       <c r="E405" s="25"/>
       <c r="F405" s="25"/>
@@ -14327,12 +14419,12 @@
       <c r="Z405" s="25"/>
       <c r="AA405" s="25"/>
     </row>
-    <row r="406" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="78" t="s">
+    <row r="406" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B406" s="25"/>
-      <c r="C406" s="71"/>
+      <c r="B406" s="79"/>
+      <c r="C406" s="98"/>
       <c r="D406" s="25"/>
       <c r="E406" s="25"/>
       <c r="F406" s="25"/>
@@ -14358,12 +14450,12 @@
       <c r="Z406" s="25"/>
       <c r="AA406" s="25"/>
     </row>
-    <row r="407" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="78" t="s">
+    <row r="407" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A407" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B407" s="25"/>
-      <c r="C407" s="71"/>
+      <c r="B407" s="79"/>
+      <c r="C407" s="98"/>
       <c r="D407" s="25"/>
       <c r="E407" s="25"/>
       <c r="F407" s="25"/>
@@ -14389,12 +14481,12 @@
       <c r="Z407" s="25"/>
       <c r="AA407" s="25"/>
     </row>
-    <row r="408" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="78" t="s">
+    <row r="408" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B408" s="25"/>
-      <c r="C408" s="71"/>
+      <c r="B408" s="79"/>
+      <c r="C408" s="98"/>
       <c r="D408" s="25"/>
       <c r="E408" s="25"/>
       <c r="F408" s="25"/>
@@ -14420,12 +14512,12 @@
       <c r="Z408" s="25"/>
       <c r="AA408" s="25"/>
     </row>
-    <row r="409" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="78" t="s">
+    <row r="409" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="B409" s="25"/>
-      <c r="C409" s="71"/>
+      <c r="B409" s="79"/>
+      <c r="C409" s="98"/>
       <c r="D409" s="25"/>
       <c r="E409" s="25"/>
       <c r="F409" s="25"/>
@@ -14451,12 +14543,12 @@
       <c r="Z409" s="25"/>
       <c r="AA409" s="25"/>
     </row>
-    <row r="410" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="78" t="s">
+    <row r="410" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="B410" s="25"/>
-      <c r="C410" s="71"/>
+      <c r="B410" s="79"/>
+      <c r="C410" s="98"/>
       <c r="D410" s="25"/>
       <c r="E410" s="25"/>
       <c r="F410" s="25"/>
@@ -14482,12 +14574,12 @@
       <c r="Z410" s="25"/>
       <c r="AA410" s="25"/>
     </row>
-    <row r="411" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="78" t="s">
+    <row r="411" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B411" s="25"/>
-      <c r="C411" s="71"/>
+      <c r="B411" s="79"/>
+      <c r="C411" s="98"/>
       <c r="D411" s="25"/>
       <c r="E411" s="25"/>
       <c r="F411" s="25"/>
@@ -14513,12 +14605,12 @@
       <c r="Z411" s="25"/>
       <c r="AA411" s="25"/>
     </row>
-    <row r="412" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="78" t="s">
+    <row r="412" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A412" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B412" s="25"/>
-      <c r="C412" s="71"/>
+      <c r="B412" s="79"/>
+      <c r="C412" s="98"/>
       <c r="D412" s="25"/>
       <c r="E412" s="25"/>
       <c r="F412" s="25"/>
@@ -14544,12 +14636,12 @@
       <c r="Z412" s="25"/>
       <c r="AA412" s="25"/>
     </row>
-    <row r="413" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="78" t="s">
+    <row r="413" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A413" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B413" s="25"/>
-      <c r="C413" s="71"/>
+      <c r="B413" s="79"/>
+      <c r="C413" s="98"/>
       <c r="D413" s="25"/>
       <c r="E413" s="25"/>
       <c r="F413" s="25"/>
@@ -14575,12 +14667,12 @@
       <c r="Z413" s="25"/>
       <c r="AA413" s="25"/>
     </row>
-    <row r="414" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="78" t="s">
+    <row r="414" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A414" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="B414" s="25"/>
-      <c r="C414" s="71"/>
+      <c r="B414" s="79"/>
+      <c r="C414" s="98"/>
       <c r="D414" s="25"/>
       <c r="E414" s="25"/>
       <c r="F414" s="25"/>
@@ -14606,12 +14698,12 @@
       <c r="Z414" s="25"/>
       <c r="AA414" s="25"/>
     </row>
-    <row r="415" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="78" t="s">
+    <row r="415" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B415" s="25"/>
-      <c r="C415" s="71"/>
+      <c r="B415" s="79"/>
+      <c r="C415" s="98"/>
       <c r="D415" s="25"/>
       <c r="E415" s="25"/>
       <c r="F415" s="25"/>
@@ -14637,12 +14729,12 @@
       <c r="Z415" s="25"/>
       <c r="AA415" s="25"/>
     </row>
-    <row r="416" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="85" t="s">
+    <row r="416" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B416" s="25"/>
-      <c r="C416" s="71"/>
+      <c r="B416" s="79"/>
+      <c r="C416" s="98"/>
       <c r="D416" s="25"/>
       <c r="E416" s="25"/>
       <c r="F416" s="25"/>
@@ -14668,12 +14760,12 @@
       <c r="Z416" s="25"/>
       <c r="AA416" s="25"/>
     </row>
-    <row r="417" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="85" t="s">
+    <row r="417" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A417" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B417" s="25"/>
-      <c r="C417" s="71"/>
+      <c r="B417" s="79"/>
+      <c r="C417" s="98"/>
       <c r="D417" s="25"/>
       <c r="E417" s="25"/>
       <c r="F417" s="25"/>
@@ -14699,12 +14791,12 @@
       <c r="Z417" s="25"/>
       <c r="AA417" s="25"/>
     </row>
-    <row r="418" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="78" t="s">
+    <row r="418" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A418" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B418" s="25"/>
-      <c r="C418" s="71"/>
+      <c r="B418" s="79"/>
+      <c r="C418" s="98"/>
       <c r="D418" s="25"/>
       <c r="E418" s="25"/>
       <c r="F418" s="25"/>
@@ -14730,12 +14822,12 @@
       <c r="Z418" s="25"/>
       <c r="AA418" s="25"/>
     </row>
-    <row r="419" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="78" t="s">
+    <row r="419" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A419" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B419" s="25"/>
-      <c r="C419" s="71"/>
+      <c r="B419" s="79"/>
+      <c r="C419" s="98"/>
       <c r="D419" s="25"/>
       <c r="E419" s="25"/>
       <c r="F419" s="25"/>
@@ -14761,12 +14853,12 @@
       <c r="Z419" s="25"/>
       <c r="AA419" s="25"/>
     </row>
-    <row r="420" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="78" t="s">
+    <row r="420" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="B420" s="25"/>
-      <c r="C420" s="71"/>
+      <c r="B420" s="79"/>
+      <c r="C420" s="98"/>
       <c r="D420" s="25"/>
       <c r="E420" s="25"/>
       <c r="F420" s="25"/>
@@ -14792,12 +14884,12 @@
       <c r="Z420" s="25"/>
       <c r="AA420" s="25"/>
     </row>
-    <row r="421" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="78" t="s">
+    <row r="421" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B421" s="25"/>
-      <c r="C421" s="71"/>
+      <c r="B421" s="79"/>
+      <c r="C421" s="98"/>
       <c r="D421" s="25"/>
       <c r="E421" s="25"/>
       <c r="F421" s="25"/>
@@ -14823,12 +14915,12 @@
       <c r="Z421" s="25"/>
       <c r="AA421" s="25"/>
     </row>
-    <row r="422" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="78" t="s">
+    <row r="422" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B422" s="25"/>
-      <c r="C422" s="71"/>
+      <c r="B422" s="79"/>
+      <c r="C422" s="98"/>
       <c r="D422" s="25"/>
       <c r="E422" s="25"/>
       <c r="F422" s="25"/>
@@ -14854,12 +14946,12 @@
       <c r="Z422" s="25"/>
       <c r="AA422" s="25"/>
     </row>
-    <row r="423" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="78" t="s">
+    <row r="423" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B423" s="25"/>
-      <c r="C423" s="71"/>
+      <c r="B423" s="79"/>
+      <c r="C423" s="98"/>
       <c r="D423" s="25"/>
       <c r="E423" s="25"/>
       <c r="F423" s="25"/>
@@ -14885,12 +14977,12 @@
       <c r="Z423" s="25"/>
       <c r="AA423" s="25"/>
     </row>
-    <row r="424" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="78" t="s">
+    <row r="424" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A424" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B424" s="25"/>
-      <c r="C424" s="71"/>
+      <c r="B424" s="79"/>
+      <c r="C424" s="98"/>
       <c r="D424" s="25"/>
       <c r="E424" s="25"/>
       <c r="F424" s="25"/>
@@ -14916,12 +15008,12 @@
       <c r="Z424" s="25"/>
       <c r="AA424" s="25"/>
     </row>
-    <row r="425" spans="1:27" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="79" t="s">
+    <row r="425" spans="1:27" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A425" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="B425" s="25"/>
-      <c r="C425" s="71"/>
+      <c r="B425" s="79"/>
+      <c r="C425" s="98"/>
       <c r="D425" s="25"/>
       <c r="E425" s="25"/>
       <c r="F425" s="25"/>
@@ -14947,12 +15039,12 @@
       <c r="Z425" s="25"/>
       <c r="AA425" s="25"/>
     </row>
-    <row r="426" spans="1:27" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="79" t="s">
+    <row r="426" spans="1:27" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A426" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="B426" s="25"/>
-      <c r="C426" s="71"/>
+      <c r="B426" s="79"/>
+      <c r="C426" s="98"/>
       <c r="D426" s="25"/>
       <c r="E426" s="25"/>
       <c r="F426" s="25"/>
@@ -14978,12 +15070,12 @@
       <c r="Z426" s="25"/>
       <c r="AA426" s="25"/>
     </row>
-    <row r="427" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A427" s="79" t="s">
+    <row r="427" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B427" s="25"/>
-      <c r="C427" s="71"/>
+      <c r="B427" s="79"/>
+      <c r="C427" s="98"/>
       <c r="D427" s="25"/>
       <c r="E427" s="25"/>
       <c r="F427" s="25"/>
@@ -15009,12 +15101,12 @@
       <c r="Z427" s="25"/>
       <c r="AA427" s="25"/>
     </row>
-    <row r="428" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A428" s="79" t="s">
+    <row r="428" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A428" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="B428" s="25"/>
-      <c r="C428" s="71"/>
+      <c r="B428" s="79"/>
+      <c r="C428" s="98"/>
       <c r="D428" s="25"/>
       <c r="E428" s="25"/>
       <c r="F428" s="25"/>
@@ -15040,12 +15132,12 @@
       <c r="Z428" s="25"/>
       <c r="AA428" s="25"/>
     </row>
-    <row r="429" spans="1:27" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="79" t="s">
+    <row r="429" spans="1:27" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A429" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="B429" s="25"/>
-      <c r="C429" s="71"/>
+      <c r="B429" s="79"/>
+      <c r="C429" s="98"/>
       <c r="D429" s="25"/>
       <c r="E429" s="25"/>
       <c r="F429" s="25"/>
@@ -15071,12 +15163,12 @@
       <c r="Z429" s="25"/>
       <c r="AA429" s="25"/>
     </row>
-    <row r="430" spans="1:27" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="79" t="s">
+    <row r="430" spans="1:27" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A430" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B430" s="25"/>
-      <c r="C430" s="71"/>
+      <c r="B430" s="79"/>
+      <c r="C430" s="98"/>
       <c r="D430" s="25"/>
       <c r="E430" s="25"/>
       <c r="F430" s="25"/>
@@ -15102,12 +15194,12 @@
       <c r="Z430" s="25"/>
       <c r="AA430" s="25"/>
     </row>
-    <row r="431" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="79" t="s">
+    <row r="431" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A431" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="B431" s="25"/>
-      <c r="C431" s="71"/>
+      <c r="B431" s="79"/>
+      <c r="C431" s="98"/>
       <c r="D431" s="25"/>
       <c r="E431" s="25"/>
       <c r="F431" s="25"/>
@@ -15133,12 +15225,12 @@
       <c r="Z431" s="25"/>
       <c r="AA431" s="25"/>
     </row>
-    <row r="432" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A432" s="78" t="s">
+    <row r="432" spans="1:27" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A432" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B432" s="25"/>
-      <c r="C432" s="71"/>
+      <c r="B432" s="79"/>
+      <c r="C432" s="98"/>
       <c r="D432" s="25"/>
       <c r="E432" s="25"/>
       <c r="F432" s="25"/>
@@ -15164,12 +15256,12 @@
       <c r="Z432" s="25"/>
       <c r="AA432" s="25"/>
     </row>
-    <row r="433" spans="1:27" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="79" t="s">
+    <row r="433" spans="1:27" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A433" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B433" s="25"/>
-      <c r="C433" s="71"/>
+      <c r="B433" s="79"/>
+      <c r="C433" s="98"/>
       <c r="D433" s="25"/>
       <c r="E433" s="25"/>
       <c r="F433" s="25"/>
@@ -15195,12 +15287,12 @@
       <c r="Z433" s="25"/>
       <c r="AA433" s="25"/>
     </row>
-    <row r="434" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="78" t="s">
+    <row r="434" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B434" s="25"/>
-      <c r="C434" s="71"/>
+      <c r="B434" s="79"/>
+      <c r="C434" s="98"/>
       <c r="D434" s="25"/>
       <c r="E434" s="25"/>
       <c r="F434" s="25"/>
@@ -15226,12 +15318,12 @@
       <c r="Z434" s="25"/>
       <c r="AA434" s="25"/>
     </row>
-    <row r="435" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A435" s="78" t="s">
+    <row r="435" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A435" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B435" s="25"/>
-      <c r="C435" s="71"/>
+      <c r="B435" s="79"/>
+      <c r="C435" s="98"/>
       <c r="D435" s="25"/>
       <c r="E435" s="25"/>
       <c r="F435" s="25"/>
@@ -15257,10 +15349,10 @@
       <c r="Z435" s="25"/>
       <c r="AA435" s="25"/>
     </row>
-    <row r="436" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="22"/>
-      <c r="B436" s="25"/>
-      <c r="C436" s="71"/>
+      <c r="B436" s="79"/>
+      <c r="C436" s="98"/>
       <c r="D436" s="25"/>
       <c r="E436" s="25"/>
       <c r="F436" s="25"/>
@@ -15286,10 +15378,10 @@
       <c r="Z436" s="25"/>
       <c r="AA436" s="25"/>
     </row>
-    <row r="437" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="22"/>
-      <c r="B437" s="25"/>
-      <c r="C437" s="71"/>
+      <c r="B437" s="79"/>
+      <c r="C437" s="98"/>
       <c r="D437" s="25"/>
       <c r="E437" s="25"/>
       <c r="F437" s="25"/>
@@ -15315,10 +15407,10 @@
       <c r="Z437" s="25"/>
       <c r="AA437" s="25"/>
     </row>
-    <row r="438" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="25"/>
-      <c r="B438" s="25"/>
-      <c r="C438" s="71"/>
+      <c r="B438" s="79"/>
+      <c r="C438" s="98"/>
       <c r="D438" s="25"/>
       <c r="E438" s="25"/>
       <c r="F438" s="25"/>
@@ -15344,10 +15436,10 @@
       <c r="Z438" s="25"/>
       <c r="AA438" s="25"/>
     </row>
-    <row r="439" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="25"/>
-      <c r="B439" s="25"/>
-      <c r="C439" s="71"/>
+      <c r="B439" s="79"/>
+      <c r="C439" s="98"/>
       <c r="D439" s="25"/>
       <c r="E439" s="25"/>
       <c r="F439" s="25"/>
@@ -15373,10 +15465,10 @@
       <c r="Z439" s="25"/>
       <c r="AA439" s="25"/>
     </row>
-    <row r="440" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="25"/>
-      <c r="B440" s="25"/>
-      <c r="C440" s="71"/>
+      <c r="B440" s="79"/>
+      <c r="C440" s="98"/>
       <c r="D440" s="25"/>
       <c r="E440" s="25"/>
       <c r="F440" s="25"/>
@@ -15402,10 +15494,10 @@
       <c r="Z440" s="25"/>
       <c r="AA440" s="25"/>
     </row>
-    <row r="441" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="25"/>
-      <c r="B441" s="25"/>
-      <c r="C441" s="71"/>
+      <c r="B441" s="79"/>
+      <c r="C441" s="98"/>
       <c r="D441" s="25"/>
       <c r="E441" s="25"/>
       <c r="F441" s="25"/>
@@ -15431,10 +15523,10 @@
       <c r="Z441" s="25"/>
       <c r="AA441" s="25"/>
     </row>
-    <row r="442" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="25"/>
-      <c r="B442" s="25"/>
-      <c r="C442" s="71"/>
+      <c r="B442" s="79"/>
+      <c r="C442" s="98"/>
       <c r="D442" s="25"/>
       <c r="E442" s="25"/>
       <c r="F442" s="25"/>
@@ -15460,10 +15552,10 @@
       <c r="Z442" s="25"/>
       <c r="AA442" s="25"/>
     </row>
-    <row r="443" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="25"/>
-      <c r="B443" s="25"/>
-      <c r="C443" s="71"/>
+      <c r="B443" s="79"/>
+      <c r="C443" s="98"/>
       <c r="D443" s="25"/>
       <c r="E443" s="25"/>
       <c r="F443" s="25"/>
@@ -15489,10 +15581,10 @@
       <c r="Z443" s="25"/>
       <c r="AA443" s="25"/>
     </row>
-    <row r="444" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="25"/>
-      <c r="B444" s="25"/>
-      <c r="C444" s="71"/>
+      <c r="B444" s="79"/>
+      <c r="C444" s="98"/>
       <c r="D444" s="25"/>
       <c r="E444" s="25"/>
       <c r="F444" s="25"/>
